--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>297800</v>
+        <v>360100</v>
       </c>
       <c r="E8" s="3">
-        <v>285700</v>
+        <v>381600</v>
       </c>
       <c r="F8" s="3">
-        <v>273200</v>
+        <v>300400</v>
       </c>
       <c r="G8" s="3">
-        <v>279700</v>
+        <v>288200</v>
       </c>
       <c r="H8" s="3">
-        <v>214900</v>
+        <v>275600</v>
       </c>
       <c r="I8" s="3">
+        <v>282100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K8" s="3">
         <v>229200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>174600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>230700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>199800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>240700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>184100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>202600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>171600</v>
+        <v>199700</v>
       </c>
       <c r="E9" s="3">
-        <v>163500</v>
+        <v>215200</v>
       </c>
       <c r="F9" s="3">
-        <v>160200</v>
+        <v>173100</v>
       </c>
       <c r="G9" s="3">
-        <v>163000</v>
+        <v>165000</v>
       </c>
       <c r="H9" s="3">
-        <v>127000</v>
+        <v>161600</v>
       </c>
       <c r="I9" s="3">
+        <v>164400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K9" s="3">
         <v>132700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>108500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>140100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>122200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>136100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>104900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>111600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>126200</v>
+        <v>160400</v>
       </c>
       <c r="E10" s="3">
-        <v>122200</v>
+        <v>166400</v>
       </c>
       <c r="F10" s="3">
-        <v>112900</v>
+        <v>127300</v>
       </c>
       <c r="G10" s="3">
-        <v>116700</v>
+        <v>123200</v>
       </c>
       <c r="H10" s="3">
-        <v>87800</v>
+        <v>113900</v>
       </c>
       <c r="I10" s="3">
+        <v>117700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K10" s="3">
         <v>96500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>66100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>90600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>77600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>104600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>79100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>91000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="E12" s="3">
-        <v>22400</v>
+        <v>29500</v>
       </c>
       <c r="F12" s="3">
-        <v>19800</v>
+        <v>29400</v>
       </c>
       <c r="G12" s="3">
-        <v>23100</v>
+        <v>22600</v>
       </c>
       <c r="H12" s="3">
-        <v>20800</v>
+        <v>20000</v>
       </c>
       <c r="I12" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K12" s="3">
         <v>18800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>22700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>28200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>-113100</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>6100</v>
       </c>
       <c r="E15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3000</v>
       </c>
       <c r="J15" s="3">
         <v>3100</v>
       </c>
       <c r="K15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4200</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242100</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="3">
-        <v>120800</v>
+        <v>236600</v>
       </c>
       <c r="F17" s="3">
-        <v>221500</v>
+        <v>244300</v>
       </c>
       <c r="G17" s="3">
-        <v>228900</v>
+        <v>121900</v>
       </c>
       <c r="H17" s="3">
-        <v>184200</v>
+        <v>223500</v>
       </c>
       <c r="I17" s="3">
+        <v>230900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K17" s="3">
         <v>187100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>161600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>191500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>176500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>192700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>161300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>167400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55600</v>
+        <v>86500</v>
       </c>
       <c r="E18" s="3">
-        <v>164900</v>
+        <v>144900</v>
       </c>
       <c r="F18" s="3">
-        <v>51700</v>
+        <v>56100</v>
       </c>
       <c r="G18" s="3">
-        <v>50800</v>
+        <v>166300</v>
       </c>
       <c r="H18" s="3">
-        <v>30700</v>
+        <v>52100</v>
       </c>
       <c r="I18" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K18" s="3">
         <v>42000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>39200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>47900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>22700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>35200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18500</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6500</v>
+        <v>-12200</v>
       </c>
       <c r="F20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K20" s="3">
         <v>28500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>230700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>21400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>128100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>26300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>95200</v>
+        <v>117900</v>
       </c>
       <c r="E21" s="3">
-        <v>177500</v>
+        <v>160000</v>
       </c>
       <c r="F21" s="3">
-        <v>74900</v>
+        <v>96000</v>
       </c>
       <c r="G21" s="3">
-        <v>73100</v>
+        <v>179100</v>
       </c>
       <c r="H21" s="3">
-        <v>61900</v>
+        <v>75500</v>
       </c>
       <c r="I21" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K21" s="3">
         <v>84900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>30400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>287100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>57300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>191400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>62900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>89000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,105 +1380,123 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>11</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74200</v>
+        <v>96700</v>
       </c>
       <c r="E23" s="3">
-        <v>158300</v>
+        <v>132800</v>
       </c>
       <c r="F23" s="3">
-        <v>56000</v>
+        <v>74800</v>
       </c>
       <c r="G23" s="3">
-        <v>54600</v>
+        <v>159700</v>
       </c>
       <c r="H23" s="3">
-        <v>46600</v>
+        <v>56500</v>
       </c>
       <c r="I23" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K23" s="3">
         <v>70500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>17800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>269900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>176100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>49000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>71200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>17000</v>
       </c>
       <c r="F24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58700</v>
+        <v>82100</v>
       </c>
       <c r="E26" s="3">
-        <v>133500</v>
+        <v>115800</v>
       </c>
       <c r="F26" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="G26" s="3">
-        <v>48000</v>
+        <v>134700</v>
       </c>
       <c r="H26" s="3">
-        <v>42900</v>
+        <v>54700</v>
       </c>
       <c r="I26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K26" s="3">
         <v>65200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>271800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>41800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>173400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>72200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58700</v>
+        <v>82100</v>
       </c>
       <c r="E27" s="3">
-        <v>133500</v>
+        <v>115800</v>
       </c>
       <c r="F27" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="G27" s="3">
-        <v>48000</v>
+        <v>134700</v>
       </c>
       <c r="H27" s="3">
-        <v>42900</v>
+        <v>54700</v>
       </c>
       <c r="I27" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K27" s="3">
         <v>65200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>271800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>41800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>173400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>47400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>72200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,17 +1730,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18500</v>
+        <v>-10200</v>
       </c>
       <c r="E32" s="3">
-        <v>6500</v>
+        <v>12200</v>
       </c>
       <c r="F32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-230700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-21400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-128100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-26300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58700</v>
+        <v>82100</v>
       </c>
       <c r="E33" s="3">
-        <v>133500</v>
+        <v>115800</v>
       </c>
       <c r="F33" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="G33" s="3">
-        <v>48000</v>
+        <v>134700</v>
       </c>
       <c r="H33" s="3">
-        <v>42900</v>
+        <v>54700</v>
       </c>
       <c r="I33" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K33" s="3">
         <v>65200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>271800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>41800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>173400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>47400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>72200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58700</v>
+        <v>82100</v>
       </c>
       <c r="E35" s="3">
-        <v>133500</v>
+        <v>115800</v>
       </c>
       <c r="F35" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="G35" s="3">
-        <v>48000</v>
+        <v>134700</v>
       </c>
       <c r="H35" s="3">
-        <v>42900</v>
+        <v>54700</v>
       </c>
       <c r="I35" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K35" s="3">
         <v>65200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>271800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>41800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>173400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>47400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>72200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>527200</v>
+        <v>585600</v>
       </c>
       <c r="E41" s="3">
-        <v>418900</v>
+        <v>551400</v>
       </c>
       <c r="F41" s="3">
-        <v>343100</v>
+        <v>531800</v>
       </c>
       <c r="G41" s="3">
-        <v>313900</v>
+        <v>422600</v>
       </c>
       <c r="H41" s="3">
-        <v>291700</v>
+        <v>346100</v>
       </c>
       <c r="I41" s="3">
+        <v>316700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>294200</v>
+      </c>
+      <c r="K41" s="3">
         <v>715000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>813700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>938500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>589300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>586600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>444800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>443900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>267500</v>
+        <v>209200</v>
       </c>
       <c r="E43" s="3">
-        <v>288500</v>
+        <v>222400</v>
       </c>
       <c r="F43" s="3">
-        <v>217500</v>
+        <v>269800</v>
       </c>
       <c r="G43" s="3">
-        <v>195300</v>
+        <v>291100</v>
       </c>
       <c r="H43" s="3">
-        <v>195400</v>
+        <v>219400</v>
       </c>
       <c r="I43" s="3">
+        <v>197000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>197100</v>
+      </c>
+      <c r="K43" s="3">
         <v>187500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>141400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>184500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>145300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>166600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>121400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>161300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>194300</v>
+        <v>179600</v>
       </c>
       <c r="E44" s="3">
-        <v>187100</v>
+        <v>191800</v>
       </c>
       <c r="F44" s="3">
-        <v>191100</v>
+        <v>196000</v>
       </c>
       <c r="G44" s="3">
         <v>188700</v>
       </c>
       <c r="H44" s="3">
-        <v>202700</v>
+        <v>192800</v>
       </c>
       <c r="I44" s="3">
+        <v>190300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K44" s="3">
         <v>183000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>166600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>160300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>168500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>168500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>165800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>131900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59800</v>
+        <v>97900</v>
       </c>
       <c r="E45" s="3">
-        <v>51000</v>
+        <v>81400</v>
       </c>
       <c r="F45" s="3">
-        <v>41200</v>
+        <v>60400</v>
       </c>
       <c r="G45" s="3">
-        <v>49400</v>
+        <v>51400</v>
       </c>
       <c r="H45" s="3">
-        <v>20700</v>
+        <v>41600</v>
       </c>
       <c r="I45" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K45" s="3">
         <v>26900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>22800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>26800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1048800</v>
+        <v>1072400</v>
       </c>
       <c r="E46" s="3">
-        <v>945500</v>
+        <v>1047000</v>
       </c>
       <c r="F46" s="3">
-        <v>792900</v>
+        <v>1058000</v>
       </c>
       <c r="G46" s="3">
-        <v>747300</v>
+        <v>953800</v>
       </c>
       <c r="H46" s="3">
-        <v>710500</v>
+        <v>799800</v>
       </c>
       <c r="I46" s="3">
+        <v>753900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>716700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1112300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1135800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1304600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>926000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>951900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>752600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>763800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>871100</v>
+        <v>876800</v>
       </c>
       <c r="E47" s="3">
-        <v>853300</v>
+        <v>862000</v>
       </c>
       <c r="F47" s="3">
-        <v>880600</v>
+        <v>878700</v>
       </c>
       <c r="G47" s="3">
-        <v>867000</v>
+        <v>860800</v>
       </c>
       <c r="H47" s="3">
-        <v>844500</v>
+        <v>888300</v>
       </c>
       <c r="I47" s="3">
+        <v>874500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>851900</v>
+      </c>
+      <c r="K47" s="3">
         <v>838400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>797200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>819700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1127300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1147200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1464800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1429700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>256400</v>
+        <v>301100</v>
       </c>
       <c r="E48" s="3">
-        <v>240400</v>
+        <v>265400</v>
       </c>
       <c r="F48" s="3">
-        <v>246100</v>
+        <v>258600</v>
       </c>
       <c r="G48" s="3">
-        <v>212300</v>
+        <v>242500</v>
       </c>
       <c r="H48" s="3">
-        <v>205900</v>
+        <v>248300</v>
       </c>
       <c r="I48" s="3">
+        <v>214200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K48" s="3">
         <v>186700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>163600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>153000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>150300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>156300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>162700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>154500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>219100</v>
+        <v>235300</v>
       </c>
       <c r="E49" s="3">
-        <v>204300</v>
+        <v>222100</v>
       </c>
       <c r="F49" s="3">
-        <v>192100</v>
+        <v>221000</v>
       </c>
       <c r="G49" s="3">
-        <v>177000</v>
+        <v>206100</v>
       </c>
       <c r="H49" s="3">
-        <v>165600</v>
+        <v>193800</v>
       </c>
       <c r="I49" s="3">
+        <v>178500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K49" s="3">
         <v>156900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>143500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>139800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>131100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>244600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>136700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>130800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16700</v>
+        <v>13600</v>
       </c>
       <c r="E52" s="3">
-        <v>16300</v>
+        <v>12700</v>
       </c>
       <c r="F52" s="3">
-        <v>23900</v>
+        <v>16800</v>
       </c>
       <c r="G52" s="3">
-        <v>25500</v>
+        <v>16500</v>
       </c>
       <c r="H52" s="3">
-        <v>26500</v>
+        <v>24100</v>
       </c>
       <c r="I52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K52" s="3">
         <v>26600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>25300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>19000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>18200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>20200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>22000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2412100</v>
+        <v>2499200</v>
       </c>
       <c r="E54" s="3">
-        <v>2259800</v>
+        <v>2409200</v>
       </c>
       <c r="F54" s="3">
-        <v>2135600</v>
+        <v>2433100</v>
       </c>
       <c r="G54" s="3">
-        <v>2029100</v>
+        <v>2279600</v>
       </c>
       <c r="H54" s="3">
-        <v>1953100</v>
+        <v>2154300</v>
       </c>
       <c r="I54" s="3">
+        <v>2046800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1970100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2320900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2265400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2442800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2353700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2402200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2536900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2878,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>119000</v>
+        <v>146500</v>
       </c>
       <c r="E57" s="3">
-        <v>102600</v>
+        <v>132600</v>
       </c>
       <c r="F57" s="3">
-        <v>101100</v>
+        <v>120000</v>
       </c>
       <c r="G57" s="3">
+        <v>103500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>102000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>89300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>109100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>94500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>89000</v>
+      </c>
+      <c r="N57" s="3">
+        <v>81000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>95100</v>
+      </c>
+      <c r="P57" s="3">
         <v>88500</v>
       </c>
-      <c r="H57" s="3">
-        <v>106800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>109100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>94500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>89000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>81000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>95100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>88500</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
+      <c r="H58" s="3">
+        <v>7800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2689,11 +2956,11 @@
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>187000</v>
+        <v>201900</v>
       </c>
       <c r="E59" s="3">
-        <v>172500</v>
+        <v>214700</v>
       </c>
       <c r="F59" s="3">
-        <v>110200</v>
+        <v>188600</v>
       </c>
       <c r="G59" s="3">
-        <v>124700</v>
+        <v>174000</v>
       </c>
       <c r="H59" s="3">
-        <v>61300</v>
+        <v>111200</v>
       </c>
       <c r="I59" s="3">
+        <v>125800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K59" s="3">
         <v>62200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>59700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>80900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>74900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>65600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>57600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>66900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>306000</v>
+        <v>348400</v>
       </c>
       <c r="E60" s="3">
-        <v>275200</v>
+        <v>355100</v>
       </c>
       <c r="F60" s="3">
-        <v>219000</v>
+        <v>308700</v>
       </c>
       <c r="G60" s="3">
-        <v>213300</v>
+        <v>277600</v>
       </c>
       <c r="H60" s="3">
-        <v>168100</v>
+        <v>220900</v>
       </c>
       <c r="I60" s="3">
+        <v>215200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K60" s="3">
         <v>171400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>154200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>169900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>155900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>160600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>146100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>138400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="F61" s="3">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>19900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33200</v>
+        <v>38500</v>
       </c>
       <c r="E62" s="3">
-        <v>33100</v>
+        <v>22300</v>
       </c>
       <c r="F62" s="3">
-        <v>13400</v>
+        <v>33500</v>
       </c>
       <c r="G62" s="3">
-        <v>13400</v>
+        <v>33400</v>
       </c>
       <c r="H62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L62" s="3">
         <v>15700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N62" s="3">
         <v>15900</v>
       </c>
-      <c r="J62" s="3">
-        <v>15700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>16000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>339200</v>
+        <v>386900</v>
       </c>
       <c r="E66" s="3">
-        <v>308300</v>
+        <v>394800</v>
       </c>
       <c r="F66" s="3">
-        <v>252200</v>
+        <v>342100</v>
       </c>
       <c r="G66" s="3">
-        <v>226700</v>
+        <v>311000</v>
       </c>
       <c r="H66" s="3">
-        <v>183800</v>
+        <v>254400</v>
       </c>
       <c r="I66" s="3">
+        <v>228600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K66" s="3">
         <v>187300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>169900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>185900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>171700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>175100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>162600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>155400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>11</v>
       </c>
       <c r="E72" s="3">
-        <v>2248600</v>
+        <v>2151700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>2104200</v>
+        <v>2268200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="3">
-        <v>2370200</v>
+        <v>2122600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K72" s="3">
-        <v>2350700</v>
+        <v>2370200</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="3">
-        <v>2196500</v>
+        <v>2350700</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
+      <c r="O72" s="3">
+        <v>2196500</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2072900</v>
+        <v>2112300</v>
       </c>
       <c r="E76" s="3">
-        <v>1951600</v>
+        <v>2014300</v>
       </c>
       <c r="F76" s="3">
-        <v>1883400</v>
+        <v>2091000</v>
       </c>
       <c r="G76" s="3">
-        <v>1802400</v>
+        <v>1968600</v>
       </c>
       <c r="H76" s="3">
-        <v>1769300</v>
+        <v>1899900</v>
       </c>
       <c r="I76" s="3">
+        <v>1818200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1784800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2133700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2095500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2256900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2181900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2227100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2374300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2345400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58700</v>
+        <v>82100</v>
       </c>
       <c r="E81" s="3">
-        <v>133500</v>
+        <v>115800</v>
       </c>
       <c r="F81" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="G81" s="3">
-        <v>48000</v>
+        <v>134700</v>
       </c>
       <c r="H81" s="3">
-        <v>42900</v>
+        <v>54700</v>
       </c>
       <c r="I81" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K81" s="3">
         <v>65200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>271800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>41800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>173400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>47400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>72200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="E83" s="3">
-        <v>19200</v>
+        <v>27200</v>
       </c>
       <c r="F83" s="3">
-        <v>18800</v>
+        <v>21200</v>
       </c>
       <c r="G83" s="3">
-        <v>18500</v>
+        <v>19300</v>
       </c>
       <c r="H83" s="3">
-        <v>15200</v>
+        <v>19000</v>
       </c>
       <c r="I83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K83" s="3">
         <v>14400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>17200</v>
       </c>
       <c r="L83" s="3">
         <v>12600</v>
       </c>
       <c r="M83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O83" s="3">
         <v>15300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>17800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>101100</v>
+        <v>90200</v>
       </c>
       <c r="E89" s="3">
-        <v>144400</v>
+        <v>238000</v>
       </c>
       <c r="F89" s="3">
-        <v>55400</v>
+        <v>102000</v>
       </c>
       <c r="G89" s="3">
-        <v>102100</v>
+        <v>143700</v>
       </c>
       <c r="H89" s="3">
-        <v>17100</v>
+        <v>57700</v>
       </c>
       <c r="I89" s="3">
+        <v>103000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>36800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>33700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>49200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>9800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>39200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>34000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11200</v>
+        <v>-26500</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
+        <v>-18600</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
+        <v>-11300</v>
       </c>
       <c r="G91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-16400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>50700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8900</v>
+        <v>-44500</v>
       </c>
       <c r="E94" s="3">
-        <v>-10900</v>
+        <v>-35200</v>
       </c>
       <c r="F94" s="3">
-        <v>-32300</v>
+        <v>-9000</v>
       </c>
       <c r="G94" s="3">
-        <v>-33400</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-20200</v>
+        <v>-32600</v>
       </c>
       <c r="I94" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-20500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>469800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>266200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-16400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,32 +4613,34 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-54700</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4190,10 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-53400</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-46500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-420200</v>
-      </c>
       <c r="I100" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-423900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-83400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-111500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-150100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-36100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-87700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-27800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-13200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14800</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-4300</v>
       </c>
-      <c r="F101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>9600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-9500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-38600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>108200</v>
+        <v>34200</v>
       </c>
       <c r="E102" s="3">
-        <v>75800</v>
+        <v>19700</v>
       </c>
       <c r="F102" s="3">
-        <v>29200</v>
+        <v>109200</v>
       </c>
       <c r="G102" s="3">
-        <v>22300</v>
+        <v>76500</v>
       </c>
       <c r="H102" s="3">
-        <v>-423300</v>
+        <v>29400</v>
       </c>
       <c r="I102" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-98700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-104700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>349200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>161400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>360100</v>
+        <v>384600</v>
       </c>
       <c r="E8" s="3">
-        <v>381600</v>
+        <v>407500</v>
       </c>
       <c r="F8" s="3">
-        <v>300400</v>
+        <v>320800</v>
       </c>
       <c r="G8" s="3">
-        <v>288200</v>
+        <v>307800</v>
       </c>
       <c r="H8" s="3">
-        <v>275600</v>
+        <v>294300</v>
       </c>
       <c r="I8" s="3">
-        <v>282100</v>
+        <v>301300</v>
       </c>
       <c r="J8" s="3">
-        <v>216800</v>
+        <v>231500</v>
       </c>
       <c r="K8" s="3">
         <v>229200</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>199700</v>
+        <v>213300</v>
       </c>
       <c r="E9" s="3">
-        <v>215200</v>
+        <v>229800</v>
       </c>
       <c r="F9" s="3">
-        <v>173100</v>
+        <v>184800</v>
       </c>
       <c r="G9" s="3">
-        <v>165000</v>
+        <v>176200</v>
       </c>
       <c r="H9" s="3">
-        <v>161600</v>
+        <v>172600</v>
       </c>
       <c r="I9" s="3">
-        <v>164400</v>
+        <v>175600</v>
       </c>
       <c r="J9" s="3">
-        <v>128200</v>
+        <v>136900</v>
       </c>
       <c r="K9" s="3">
         <v>132700</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>160400</v>
+        <v>171300</v>
       </c>
       <c r="E10" s="3">
-        <v>166400</v>
+        <v>177700</v>
       </c>
       <c r="F10" s="3">
-        <v>127300</v>
+        <v>136000</v>
       </c>
       <c r="G10" s="3">
-        <v>123200</v>
+        <v>131600</v>
       </c>
       <c r="H10" s="3">
-        <v>113900</v>
+        <v>121700</v>
       </c>
       <c r="I10" s="3">
-        <v>117700</v>
+        <v>125700</v>
       </c>
       <c r="J10" s="3">
-        <v>88600</v>
+        <v>94600</v>
       </c>
       <c r="K10" s="3">
         <v>96500</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28200</v>
+        <v>30100</v>
       </c>
       <c r="E12" s="3">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>31400</v>
       </c>
       <c r="G12" s="3">
-        <v>22600</v>
+        <v>24100</v>
       </c>
       <c r="H12" s="3">
-        <v>20000</v>
+        <v>21400</v>
       </c>
       <c r="I12" s="3">
-        <v>23300</v>
+        <v>24900</v>
       </c>
       <c r="J12" s="3">
-        <v>21000</v>
+        <v>22400</v>
       </c>
       <c r="K12" s="3">
         <v>18800</v>
@@ -1013,23 +1013,23 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-57900</v>
+        <v>-61800</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>-114100</v>
+        <v>-121900</v>
       </c>
       <c r="H14" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -1064,25 +1064,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="H15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J15" s="3">
         <v>3300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3100</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>273600</v>
+        <v>292200</v>
       </c>
       <c r="E17" s="3">
-        <v>236600</v>
+        <v>252700</v>
       </c>
       <c r="F17" s="3">
-        <v>244300</v>
+        <v>260900</v>
       </c>
       <c r="G17" s="3">
-        <v>121900</v>
+        <v>130200</v>
       </c>
       <c r="H17" s="3">
-        <v>223500</v>
+        <v>238600</v>
       </c>
       <c r="I17" s="3">
-        <v>230900</v>
+        <v>246600</v>
       </c>
       <c r="J17" s="3">
-        <v>185800</v>
+        <v>198400</v>
       </c>
       <c r="K17" s="3">
         <v>187100</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>86500</v>
+        <v>92400</v>
       </c>
       <c r="E18" s="3">
-        <v>144900</v>
+        <v>154800</v>
       </c>
       <c r="F18" s="3">
-        <v>56100</v>
+        <v>59900</v>
       </c>
       <c r="G18" s="3">
-        <v>166300</v>
+        <v>177600</v>
       </c>
       <c r="H18" s="3">
-        <v>52100</v>
+        <v>55700</v>
       </c>
       <c r="I18" s="3">
-        <v>51200</v>
+        <v>54700</v>
       </c>
       <c r="J18" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="K18" s="3">
         <v>42000</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="F20" s="3">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="3">
-        <v>-6600</v>
+        <v>-7000</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
-        <v>16100</v>
+        <v>17100</v>
       </c>
       <c r="K20" s="3">
         <v>28500</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>117900</v>
+        <v>125900</v>
       </c>
       <c r="E21" s="3">
-        <v>160000</v>
+        <v>170800</v>
       </c>
       <c r="F21" s="3">
-        <v>96000</v>
+        <v>102500</v>
       </c>
       <c r="G21" s="3">
-        <v>179100</v>
+        <v>191300</v>
       </c>
       <c r="H21" s="3">
-        <v>75500</v>
+        <v>80600</v>
       </c>
       <c r="I21" s="3">
-        <v>73700</v>
+        <v>78800</v>
       </c>
       <c r="J21" s="3">
-        <v>62400</v>
+        <v>66600</v>
       </c>
       <c r="K21" s="3">
         <v>84900</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>96700</v>
+        <v>103300</v>
       </c>
       <c r="E23" s="3">
-        <v>132800</v>
+        <v>141800</v>
       </c>
       <c r="F23" s="3">
-        <v>74800</v>
+        <v>79900</v>
       </c>
       <c r="G23" s="3">
-        <v>159700</v>
+        <v>170600</v>
       </c>
       <c r="H23" s="3">
-        <v>56500</v>
+        <v>60400</v>
       </c>
       <c r="I23" s="3">
-        <v>55000</v>
+        <v>58800</v>
       </c>
       <c r="J23" s="3">
-        <v>47000</v>
+        <v>50200</v>
       </c>
       <c r="K23" s="3">
         <v>70500</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>18200</v>
       </c>
       <c r="F24" s="3">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="G24" s="3">
-        <v>25000</v>
+        <v>26700</v>
       </c>
       <c r="H24" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="J24" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="K24" s="3">
         <v>5300</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>82100</v>
+        <v>87700</v>
       </c>
       <c r="E26" s="3">
-        <v>115800</v>
+        <v>123600</v>
       </c>
       <c r="F26" s="3">
-        <v>59200</v>
+        <v>63200</v>
       </c>
       <c r="G26" s="3">
-        <v>134700</v>
+        <v>143800</v>
       </c>
       <c r="H26" s="3">
-        <v>54700</v>
+        <v>58500</v>
       </c>
       <c r="I26" s="3">
-        <v>48400</v>
+        <v>51700</v>
       </c>
       <c r="J26" s="3">
-        <v>43300</v>
+        <v>46200</v>
       </c>
       <c r="K26" s="3">
         <v>65200</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82100</v>
+        <v>87700</v>
       </c>
       <c r="E27" s="3">
-        <v>115800</v>
+        <v>123600</v>
       </c>
       <c r="F27" s="3">
-        <v>59200</v>
+        <v>63200</v>
       </c>
       <c r="G27" s="3">
-        <v>134700</v>
+        <v>143800</v>
       </c>
       <c r="H27" s="3">
-        <v>54700</v>
+        <v>58500</v>
       </c>
       <c r="I27" s="3">
-        <v>48400</v>
+        <v>51700</v>
       </c>
       <c r="J27" s="3">
-        <v>43300</v>
+        <v>46200</v>
       </c>
       <c r="K27" s="3">
         <v>65200</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="F32" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="G32" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-3800</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
-        <v>-16100</v>
+        <v>-17100</v>
       </c>
       <c r="K32" s="3">
         <v>-28500</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82100</v>
+        <v>87700</v>
       </c>
       <c r="E33" s="3">
-        <v>115800</v>
+        <v>123600</v>
       </c>
       <c r="F33" s="3">
-        <v>59200</v>
+        <v>63200</v>
       </c>
       <c r="G33" s="3">
-        <v>134700</v>
+        <v>143800</v>
       </c>
       <c r="H33" s="3">
-        <v>54700</v>
+        <v>58500</v>
       </c>
       <c r="I33" s="3">
-        <v>48400</v>
+        <v>51700</v>
       </c>
       <c r="J33" s="3">
-        <v>43300</v>
+        <v>46200</v>
       </c>
       <c r="K33" s="3">
         <v>65200</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82100</v>
+        <v>87700</v>
       </c>
       <c r="E35" s="3">
-        <v>115800</v>
+        <v>123600</v>
       </c>
       <c r="F35" s="3">
-        <v>59200</v>
+        <v>63200</v>
       </c>
       <c r="G35" s="3">
-        <v>134700</v>
+        <v>143800</v>
       </c>
       <c r="H35" s="3">
-        <v>54700</v>
+        <v>58500</v>
       </c>
       <c r="I35" s="3">
-        <v>48400</v>
+        <v>51700</v>
       </c>
       <c r="J35" s="3">
-        <v>43300</v>
+        <v>46200</v>
       </c>
       <c r="K35" s="3">
         <v>65200</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>585600</v>
+        <v>625400</v>
       </c>
       <c r="E41" s="3">
-        <v>551400</v>
+        <v>588900</v>
       </c>
       <c r="F41" s="3">
-        <v>531800</v>
+        <v>567900</v>
       </c>
       <c r="G41" s="3">
-        <v>422600</v>
+        <v>451300</v>
       </c>
       <c r="H41" s="3">
-        <v>346100</v>
+        <v>369700</v>
       </c>
       <c r="I41" s="3">
-        <v>316700</v>
+        <v>338200</v>
       </c>
       <c r="J41" s="3">
-        <v>294200</v>
+        <v>314200</v>
       </c>
       <c r="K41" s="3">
         <v>715000</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>209200</v>
+        <v>223500</v>
       </c>
       <c r="E43" s="3">
-        <v>222400</v>
+        <v>237500</v>
       </c>
       <c r="F43" s="3">
-        <v>269800</v>
+        <v>288200</v>
       </c>
       <c r="G43" s="3">
-        <v>291100</v>
+        <v>310800</v>
       </c>
       <c r="H43" s="3">
-        <v>219400</v>
+        <v>234300</v>
       </c>
       <c r="I43" s="3">
-        <v>197000</v>
+        <v>210400</v>
       </c>
       <c r="J43" s="3">
-        <v>197100</v>
+        <v>210500</v>
       </c>
       <c r="K43" s="3">
         <v>187500</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>179600</v>
+        <v>191900</v>
       </c>
       <c r="E44" s="3">
-        <v>191800</v>
+        <v>204900</v>
       </c>
       <c r="F44" s="3">
-        <v>196000</v>
+        <v>209300</v>
       </c>
       <c r="G44" s="3">
-        <v>188700</v>
+        <v>201500</v>
       </c>
       <c r="H44" s="3">
-        <v>192800</v>
+        <v>205900</v>
       </c>
       <c r="I44" s="3">
-        <v>190300</v>
+        <v>203300</v>
       </c>
       <c r="J44" s="3">
-        <v>204500</v>
+        <v>218400</v>
       </c>
       <c r="K44" s="3">
         <v>183000</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97900</v>
+        <v>104600</v>
       </c>
       <c r="E45" s="3">
-        <v>81400</v>
+        <v>86900</v>
       </c>
       <c r="F45" s="3">
-        <v>60400</v>
+        <v>64500</v>
       </c>
       <c r="G45" s="3">
-        <v>51400</v>
+        <v>54900</v>
       </c>
       <c r="H45" s="3">
-        <v>41600</v>
+        <v>44400</v>
       </c>
       <c r="I45" s="3">
-        <v>49800</v>
+        <v>53200</v>
       </c>
       <c r="J45" s="3">
-        <v>20900</v>
+        <v>22300</v>
       </c>
       <c r="K45" s="3">
         <v>26900</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1072400</v>
+        <v>1145300</v>
       </c>
       <c r="E46" s="3">
-        <v>1047000</v>
+        <v>1118200</v>
       </c>
       <c r="F46" s="3">
-        <v>1058000</v>
+        <v>1129900</v>
       </c>
       <c r="G46" s="3">
-        <v>953800</v>
+        <v>1018600</v>
       </c>
       <c r="H46" s="3">
-        <v>799800</v>
+        <v>854200</v>
       </c>
       <c r="I46" s="3">
-        <v>753900</v>
+        <v>805100</v>
       </c>
       <c r="J46" s="3">
-        <v>716700</v>
+        <v>765400</v>
       </c>
       <c r="K46" s="3">
         <v>1112300</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>876800</v>
+        <v>936500</v>
       </c>
       <c r="E47" s="3">
-        <v>862000</v>
+        <v>920600</v>
       </c>
       <c r="F47" s="3">
-        <v>878700</v>
+        <v>938400</v>
       </c>
       <c r="G47" s="3">
-        <v>860800</v>
+        <v>919300</v>
       </c>
       <c r="H47" s="3">
-        <v>888300</v>
+        <v>948700</v>
       </c>
       <c r="I47" s="3">
-        <v>874500</v>
+        <v>934000</v>
       </c>
       <c r="J47" s="3">
-        <v>851900</v>
+        <v>909800</v>
       </c>
       <c r="K47" s="3">
         <v>838400</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>301100</v>
+        <v>321500</v>
       </c>
       <c r="E48" s="3">
-        <v>265400</v>
+        <v>283500</v>
       </c>
       <c r="F48" s="3">
-        <v>258600</v>
+        <v>276200</v>
       </c>
       <c r="G48" s="3">
-        <v>242500</v>
+        <v>259000</v>
       </c>
       <c r="H48" s="3">
-        <v>248300</v>
+        <v>265200</v>
       </c>
       <c r="I48" s="3">
-        <v>214200</v>
+        <v>228800</v>
       </c>
       <c r="J48" s="3">
-        <v>207700</v>
+        <v>221800</v>
       </c>
       <c r="K48" s="3">
         <v>186700</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>235300</v>
+        <v>251300</v>
       </c>
       <c r="E49" s="3">
-        <v>222100</v>
+        <v>237200</v>
       </c>
       <c r="F49" s="3">
-        <v>221000</v>
+        <v>236100</v>
       </c>
       <c r="G49" s="3">
-        <v>206100</v>
+        <v>220100</v>
       </c>
       <c r="H49" s="3">
-        <v>193800</v>
+        <v>206900</v>
       </c>
       <c r="I49" s="3">
-        <v>178500</v>
+        <v>190700</v>
       </c>
       <c r="J49" s="3">
-        <v>167100</v>
+        <v>178400</v>
       </c>
       <c r="K49" s="3">
         <v>156900</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="E52" s="3">
-        <v>12700</v>
+        <v>13500</v>
       </c>
       <c r="F52" s="3">
-        <v>16800</v>
+        <v>18000</v>
       </c>
       <c r="G52" s="3">
-        <v>16500</v>
+        <v>17600</v>
       </c>
       <c r="H52" s="3">
-        <v>24100</v>
+        <v>25700</v>
       </c>
       <c r="I52" s="3">
-        <v>25700</v>
+        <v>27400</v>
       </c>
       <c r="J52" s="3">
-        <v>26800</v>
+        <v>28600</v>
       </c>
       <c r="K52" s="3">
         <v>26600</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2499200</v>
+        <v>2669100</v>
       </c>
       <c r="E54" s="3">
-        <v>2409200</v>
+        <v>2573000</v>
       </c>
       <c r="F54" s="3">
-        <v>2433100</v>
+        <v>2598600</v>
       </c>
       <c r="G54" s="3">
-        <v>2279600</v>
+        <v>2434600</v>
       </c>
       <c r="H54" s="3">
-        <v>2154300</v>
+        <v>2300800</v>
       </c>
       <c r="I54" s="3">
-        <v>2046800</v>
+        <v>2186000</v>
       </c>
       <c r="J54" s="3">
-        <v>1970100</v>
+        <v>2104100</v>
       </c>
       <c r="K54" s="3">
         <v>2320900</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146500</v>
+        <v>156500</v>
       </c>
       <c r="E57" s="3">
-        <v>132600</v>
+        <v>141600</v>
       </c>
       <c r="F57" s="3">
-        <v>120000</v>
+        <v>128200</v>
       </c>
       <c r="G57" s="3">
-        <v>103500</v>
+        <v>110600</v>
       </c>
       <c r="H57" s="3">
-        <v>102000</v>
+        <v>108900</v>
       </c>
       <c r="I57" s="3">
-        <v>89300</v>
+        <v>95400</v>
       </c>
       <c r="J57" s="3">
-        <v>107700</v>
+        <v>115000</v>
       </c>
       <c r="K57" s="3">
         <v>109100</v>
@@ -2939,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -2948,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="H58" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201900</v>
+        <v>215600</v>
       </c>
       <c r="E59" s="3">
-        <v>214700</v>
+        <v>229300</v>
       </c>
       <c r="F59" s="3">
-        <v>188600</v>
+        <v>201500</v>
       </c>
       <c r="G59" s="3">
-        <v>174000</v>
+        <v>185900</v>
       </c>
       <c r="H59" s="3">
-        <v>111200</v>
+        <v>118700</v>
       </c>
       <c r="I59" s="3">
-        <v>125800</v>
+        <v>134400</v>
       </c>
       <c r="J59" s="3">
-        <v>61900</v>
+        <v>66100</v>
       </c>
       <c r="K59" s="3">
         <v>62200</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>348400</v>
+        <v>372100</v>
       </c>
       <c r="E60" s="3">
-        <v>355100</v>
+        <v>379200</v>
       </c>
       <c r="F60" s="3">
-        <v>308700</v>
+        <v>329600</v>
       </c>
       <c r="G60" s="3">
-        <v>277600</v>
+        <v>296500</v>
       </c>
       <c r="H60" s="3">
-        <v>220900</v>
+        <v>235900</v>
       </c>
       <c r="I60" s="3">
-        <v>215200</v>
+        <v>229800</v>
       </c>
       <c r="J60" s="3">
-        <v>169600</v>
+        <v>181100</v>
       </c>
       <c r="K60" s="3">
         <v>171400</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>17500</v>
+        <v>18700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38500</v>
+        <v>41100</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>23800</v>
       </c>
       <c r="F62" s="3">
-        <v>33500</v>
+        <v>35700</v>
       </c>
       <c r="G62" s="3">
-        <v>33400</v>
+        <v>35700</v>
       </c>
       <c r="H62" s="3">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="I62" s="3">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="J62" s="3">
-        <v>15800</v>
+        <v>16900</v>
       </c>
       <c r="K62" s="3">
         <v>15900</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>386900</v>
+        <v>413200</v>
       </c>
       <c r="E66" s="3">
-        <v>394800</v>
+        <v>421700</v>
       </c>
       <c r="F66" s="3">
-        <v>342100</v>
+        <v>365400</v>
       </c>
       <c r="G66" s="3">
-        <v>311000</v>
+        <v>332100</v>
       </c>
       <c r="H66" s="3">
-        <v>254400</v>
+        <v>271700</v>
       </c>
       <c r="I66" s="3">
-        <v>228600</v>
+        <v>244200</v>
       </c>
       <c r="J66" s="3">
-        <v>185400</v>
+        <v>198000</v>
       </c>
       <c r="K66" s="3">
         <v>187300</v>
@@ -3609,19 +3609,19 @@
         <v>11</v>
       </c>
       <c r="E72" s="3">
-        <v>2151700</v>
+        <v>2297900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>2268200</v>
+        <v>2422400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="3">
-        <v>2122600</v>
+        <v>2266900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2112300</v>
+        <v>2255900</v>
       </c>
       <c r="E76" s="3">
-        <v>2014300</v>
+        <v>2151300</v>
       </c>
       <c r="F76" s="3">
-        <v>2091000</v>
+        <v>2233200</v>
       </c>
       <c r="G76" s="3">
-        <v>1968600</v>
+        <v>2102500</v>
       </c>
       <c r="H76" s="3">
-        <v>1899900</v>
+        <v>2029000</v>
       </c>
       <c r="I76" s="3">
-        <v>1818200</v>
+        <v>1941800</v>
       </c>
       <c r="J76" s="3">
-        <v>1784800</v>
+        <v>1906100</v>
       </c>
       <c r="K76" s="3">
         <v>2133700</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82100</v>
+        <v>87700</v>
       </c>
       <c r="E81" s="3">
-        <v>115800</v>
+        <v>123600</v>
       </c>
       <c r="F81" s="3">
-        <v>59200</v>
+        <v>63200</v>
       </c>
       <c r="G81" s="3">
-        <v>134700</v>
+        <v>143800</v>
       </c>
       <c r="H81" s="3">
-        <v>54700</v>
+        <v>58500</v>
       </c>
       <c r="I81" s="3">
-        <v>48400</v>
+        <v>51700</v>
       </c>
       <c r="J81" s="3">
-        <v>43300</v>
+        <v>46200</v>
       </c>
       <c r="K81" s="3">
         <v>65200</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21200</v>
+        <v>22700</v>
       </c>
       <c r="E83" s="3">
-        <v>27200</v>
+        <v>29100</v>
       </c>
       <c r="F83" s="3">
-        <v>21200</v>
+        <v>22600</v>
       </c>
       <c r="G83" s="3">
-        <v>19300</v>
+        <v>20700</v>
       </c>
       <c r="H83" s="3">
-        <v>19000</v>
+        <v>20300</v>
       </c>
       <c r="I83" s="3">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="J83" s="3">
-        <v>15400</v>
+        <v>16400</v>
       </c>
       <c r="K83" s="3">
         <v>14400</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90200</v>
+        <v>96300</v>
       </c>
       <c r="E89" s="3">
-        <v>238000</v>
+        <v>254200</v>
       </c>
       <c r="F89" s="3">
-        <v>102000</v>
+        <v>109000</v>
       </c>
       <c r="G89" s="3">
-        <v>143700</v>
+        <v>153500</v>
       </c>
       <c r="H89" s="3">
-        <v>57700</v>
+        <v>61700</v>
       </c>
       <c r="I89" s="3">
-        <v>103000</v>
+        <v>110000</v>
       </c>
       <c r="J89" s="3">
-        <v>17200</v>
+        <v>18400</v>
       </c>
       <c r="K89" s="3">
         <v>-5800</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26500</v>
+        <v>-28300</v>
       </c>
       <c r="E91" s="3">
-        <v>-18600</v>
+        <v>-19800</v>
       </c>
       <c r="F91" s="3">
-        <v>-11300</v>
+        <v>-12100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10200</v>
+        <v>-10900</v>
       </c>
       <c r="H91" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="I91" s="3">
-        <v>-21100</v>
+        <v>-22500</v>
       </c>
       <c r="J91" s="3">
-        <v>-22900</v>
+        <v>-24500</v>
       </c>
       <c r="K91" s="3">
         <v>-20900</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44500</v>
+        <v>-47500</v>
       </c>
       <c r="E94" s="3">
-        <v>-35200</v>
+        <v>-37600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9000</v>
+        <v>-9600</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000</v>
+        <v>-11700</v>
       </c>
       <c r="H94" s="3">
-        <v>-32600</v>
+        <v>-34800</v>
       </c>
       <c r="I94" s="3">
-        <v>-33700</v>
+        <v>-36000</v>
       </c>
       <c r="J94" s="3">
-        <v>-20300</v>
+        <v>-21700</v>
       </c>
       <c r="K94" s="3">
         <v>-19100</v>
@@ -4621,16 +4621,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>-55100</v>
+        <v>-58900</v>
       </c>
       <c r="F96" s="3">
         <v>-200</v>
       </c>
       <c r="G96" s="3">
-        <v>-54700</v>
+        <v>-58400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-7200</v>
+        <v>-7700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6800</v>
+        <v>-7200</v>
       </c>
       <c r="E100" s="3">
-        <v>-174100</v>
+        <v>-185900</v>
       </c>
       <c r="F100" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G100" s="3">
-        <v>-53900</v>
+        <v>-57500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I100" s="3">
-        <v>-46900</v>
+        <v>-50100</v>
       </c>
       <c r="J100" s="3">
-        <v>-423900</v>
+        <v>-452700</v>
       </c>
       <c r="K100" s="3">
         <v>-83400</v>
@@ -4871,19 +4871,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-9000</v>
+        <v>-9600</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4600</v>
       </c>
       <c r="H101" s="3">
-        <v>7300</v>
+        <v>7800</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34200</v>
+        <v>36500</v>
       </c>
       <c r="E102" s="3">
-        <v>19700</v>
+        <v>21000</v>
       </c>
       <c r="F102" s="3">
-        <v>109200</v>
+        <v>116600</v>
       </c>
       <c r="G102" s="3">
-        <v>76500</v>
+        <v>81700</v>
       </c>
       <c r="H102" s="3">
-        <v>29400</v>
+        <v>31500</v>
       </c>
       <c r="I102" s="3">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="J102" s="3">
-        <v>-427000</v>
+        <v>-456100</v>
       </c>
       <c r="K102" s="3">
         <v>-98700</v>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>384600</v>
+        <v>376300</v>
       </c>
       <c r="E8" s="3">
-        <v>407500</v>
+        <v>408900</v>
       </c>
       <c r="F8" s="3">
-        <v>320800</v>
+        <v>388900</v>
       </c>
       <c r="G8" s="3">
-        <v>307800</v>
+        <v>412100</v>
       </c>
       <c r="H8" s="3">
-        <v>294300</v>
+        <v>324400</v>
       </c>
       <c r="I8" s="3">
+        <v>311300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>297600</v>
+      </c>
+      <c r="K8" s="3">
         <v>301300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>231500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>229200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>174600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>230700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>199800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>240700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>184100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>202600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>213300</v>
+        <v>188400</v>
       </c>
       <c r="E9" s="3">
-        <v>229800</v>
+        <v>211400</v>
       </c>
       <c r="F9" s="3">
-        <v>184800</v>
+        <v>215700</v>
       </c>
       <c r="G9" s="3">
-        <v>176200</v>
+        <v>232400</v>
       </c>
       <c r="H9" s="3">
-        <v>172600</v>
+        <v>186900</v>
       </c>
       <c r="I9" s="3">
+        <v>178200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K9" s="3">
         <v>175600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>136900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>132700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>108500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>140100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>122200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>136100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>104900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>111600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>171300</v>
+        <v>187900</v>
       </c>
       <c r="E10" s="3">
-        <v>177700</v>
+        <v>197500</v>
       </c>
       <c r="F10" s="3">
-        <v>136000</v>
+        <v>173200</v>
       </c>
       <c r="G10" s="3">
-        <v>131600</v>
+        <v>179700</v>
       </c>
       <c r="H10" s="3">
-        <v>121700</v>
+        <v>137500</v>
       </c>
       <c r="I10" s="3">
+        <v>133100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K10" s="3">
         <v>125700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>94600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>96500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>66100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>90600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>77600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>104600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>79100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>91000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30100</v>
+        <v>41100</v>
       </c>
       <c r="E12" s="3">
-        <v>31500</v>
+        <v>31400</v>
       </c>
       <c r="F12" s="3">
-        <v>31400</v>
+        <v>30500</v>
       </c>
       <c r="G12" s="3">
-        <v>24100</v>
+        <v>31800</v>
       </c>
       <c r="H12" s="3">
-        <v>21400</v>
+        <v>31800</v>
       </c>
       <c r="I12" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K12" s="3">
         <v>24900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>22400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>16700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>21500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>22700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>24600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>28200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,99 +1057,111 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-61800</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>-121900</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>5400</v>
+        <v>6400</v>
       </c>
       <c r="F15" s="3">
-        <v>4000</v>
+        <v>6600</v>
       </c>
       <c r="G15" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H15" s="3">
         <v>4100</v>
       </c>
-      <c r="H15" s="3">
-        <v>3500</v>
-      </c>
       <c r="I15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4200</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>292200</v>
+        <v>275900</v>
       </c>
       <c r="E17" s="3">
-        <v>252700</v>
+        <v>304100</v>
       </c>
       <c r="F17" s="3">
-        <v>260900</v>
+        <v>295500</v>
       </c>
       <c r="G17" s="3">
-        <v>130200</v>
+        <v>255600</v>
       </c>
       <c r="H17" s="3">
-        <v>238600</v>
+        <v>263800</v>
       </c>
       <c r="I17" s="3">
+        <v>131600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K17" s="3">
         <v>246600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>198400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>187100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>161600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>191500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>176500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>192700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>161300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>167400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92400</v>
+        <v>100400</v>
       </c>
       <c r="E18" s="3">
-        <v>154800</v>
+        <v>104800</v>
       </c>
       <c r="F18" s="3">
-        <v>59900</v>
+        <v>93400</v>
       </c>
       <c r="G18" s="3">
-        <v>177600</v>
+        <v>156500</v>
       </c>
       <c r="H18" s="3">
-        <v>55700</v>
+        <v>60600</v>
       </c>
       <c r="I18" s="3">
+        <v>179600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K18" s="3">
         <v>54700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>33100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>42000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>39200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>23300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>47900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>22700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>35200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>-13600</v>
       </c>
       <c r="E20" s="3">
-        <v>-13000</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="G20" s="3">
-        <v>-7000</v>
+        <v>-13100</v>
       </c>
       <c r="H20" s="3">
-        <v>4700</v>
+        <v>20200</v>
       </c>
       <c r="I20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>230700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>21400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>128100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>26300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125900</v>
+        <v>112100</v>
       </c>
       <c r="E21" s="3">
-        <v>170800</v>
+        <v>134900</v>
       </c>
       <c r="F21" s="3">
-        <v>102500</v>
+        <v>127400</v>
       </c>
       <c r="G21" s="3">
-        <v>191300</v>
+        <v>172900</v>
       </c>
       <c r="H21" s="3">
-        <v>80600</v>
+        <v>103600</v>
       </c>
       <c r="I21" s="3">
+        <v>193300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K21" s="3">
         <v>78800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>66600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>84900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>30400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>287100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>57300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>191400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>62900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>89000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,117 +1466,135 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>11</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103300</v>
+        <v>86800</v>
       </c>
       <c r="E23" s="3">
-        <v>141800</v>
+        <v>106100</v>
       </c>
       <c r="F23" s="3">
-        <v>79900</v>
+        <v>104400</v>
       </c>
       <c r="G23" s="3">
-        <v>170600</v>
+        <v>143400</v>
       </c>
       <c r="H23" s="3">
-        <v>60400</v>
+        <v>80800</v>
       </c>
       <c r="I23" s="3">
+        <v>172500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K23" s="3">
         <v>58800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>50200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>70500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>17800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>269900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>176100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>49000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>71200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="F24" s="3">
-        <v>16700</v>
+        <v>15800</v>
       </c>
       <c r="G24" s="3">
-        <v>26700</v>
+        <v>18400</v>
       </c>
       <c r="H24" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="E26" s="3">
-        <v>123600</v>
+        <v>88700</v>
       </c>
       <c r="F26" s="3">
-        <v>63200</v>
+        <v>88700</v>
       </c>
       <c r="G26" s="3">
-        <v>143800</v>
+        <v>125000</v>
       </c>
       <c r="H26" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="I26" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K26" s="3">
         <v>51700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>46200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>65200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>271800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>41800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>173400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>47400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>72200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="E27" s="3">
-        <v>123600</v>
+        <v>88700</v>
       </c>
       <c r="F27" s="3">
-        <v>63200</v>
+        <v>88700</v>
       </c>
       <c r="G27" s="3">
-        <v>143800</v>
+        <v>125000</v>
       </c>
       <c r="H27" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="I27" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K27" s="3">
         <v>51700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>46200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>271800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>41800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>173400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>47400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>72200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1736,17 +1858,23 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>13600</v>
       </c>
       <c r="E32" s="3">
-        <v>13000</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
-        <v>-20000</v>
+        <v>-11000</v>
       </c>
       <c r="G32" s="3">
-        <v>7000</v>
+        <v>13100</v>
       </c>
       <c r="H32" s="3">
-        <v>-4700</v>
+        <v>-20200</v>
       </c>
       <c r="I32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-230700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-21400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-128100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="E33" s="3">
-        <v>123600</v>
+        <v>88700</v>
       </c>
       <c r="F33" s="3">
-        <v>63200</v>
+        <v>88700</v>
       </c>
       <c r="G33" s="3">
-        <v>143800</v>
+        <v>125000</v>
       </c>
       <c r="H33" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="I33" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K33" s="3">
         <v>51700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>46200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>271800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>41800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>173400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>47400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>72200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="E35" s="3">
-        <v>123600</v>
+        <v>88700</v>
       </c>
       <c r="F35" s="3">
-        <v>63200</v>
+        <v>88700</v>
       </c>
       <c r="G35" s="3">
-        <v>143800</v>
+        <v>125000</v>
       </c>
       <c r="H35" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="I35" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K35" s="3">
         <v>51700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>46200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>271800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>41800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>173400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>47400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>72200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>625400</v>
+        <v>513800</v>
       </c>
       <c r="E41" s="3">
-        <v>588900</v>
+        <v>516200</v>
       </c>
       <c r="F41" s="3">
-        <v>567900</v>
+        <v>632500</v>
       </c>
       <c r="G41" s="3">
-        <v>451300</v>
+        <v>595600</v>
       </c>
       <c r="H41" s="3">
-        <v>369700</v>
+        <v>574300</v>
       </c>
       <c r="I41" s="3">
+        <v>456400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>373800</v>
+      </c>
+      <c r="K41" s="3">
         <v>338200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>314200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>715000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>813700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>938500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>589300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>586600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>444800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>443900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2420,406 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>223500</v>
+        <v>307700</v>
       </c>
       <c r="E43" s="3">
-        <v>237500</v>
+        <v>293300</v>
       </c>
       <c r="F43" s="3">
-        <v>288200</v>
+        <v>226000</v>
       </c>
       <c r="G43" s="3">
-        <v>310800</v>
+        <v>240100</v>
       </c>
       <c r="H43" s="3">
-        <v>234300</v>
+        <v>291400</v>
       </c>
       <c r="I43" s="3">
+        <v>314300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>236900</v>
+      </c>
+      <c r="K43" s="3">
         <v>210400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>210500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>187500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>141400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>184500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>145300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>166600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>121400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>161300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>191900</v>
+        <v>211000</v>
       </c>
       <c r="E44" s="3">
-        <v>204900</v>
+        <v>210400</v>
       </c>
       <c r="F44" s="3">
-        <v>209300</v>
+        <v>194000</v>
       </c>
       <c r="G44" s="3">
-        <v>201500</v>
+        <v>207200</v>
       </c>
       <c r="H44" s="3">
-        <v>205900</v>
+        <v>211700</v>
       </c>
       <c r="I44" s="3">
+        <v>203800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K44" s="3">
         <v>203300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>218400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>183000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>166600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>160300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>168500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>168500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>165800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>131900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104600</v>
+        <v>89400</v>
       </c>
       <c r="E45" s="3">
-        <v>86900</v>
+        <v>99900</v>
       </c>
       <c r="F45" s="3">
-        <v>64500</v>
+        <v>105700</v>
       </c>
       <c r="G45" s="3">
-        <v>54900</v>
+        <v>87900</v>
       </c>
       <c r="H45" s="3">
-        <v>44400</v>
+        <v>65200</v>
       </c>
       <c r="I45" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K45" s="3">
         <v>53200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>26900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>30300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>20600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>26800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1145300</v>
+        <v>1122000</v>
       </c>
       <c r="E46" s="3">
-        <v>1118200</v>
+        <v>1119700</v>
       </c>
       <c r="F46" s="3">
-        <v>1129900</v>
+        <v>1158200</v>
       </c>
       <c r="G46" s="3">
-        <v>1018600</v>
+        <v>1130800</v>
       </c>
       <c r="H46" s="3">
-        <v>854200</v>
+        <v>1142600</v>
       </c>
       <c r="I46" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>863800</v>
+      </c>
+      <c r="K46" s="3">
         <v>805100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>765400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1112300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1135800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1304600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>951900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>752600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>763800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>936500</v>
+        <v>893100</v>
       </c>
       <c r="E47" s="3">
-        <v>920600</v>
+        <v>928400</v>
       </c>
       <c r="F47" s="3">
-        <v>938400</v>
+        <v>947000</v>
       </c>
       <c r="G47" s="3">
-        <v>919300</v>
+        <v>931000</v>
       </c>
       <c r="H47" s="3">
-        <v>948700</v>
+        <v>949000</v>
       </c>
       <c r="I47" s="3">
+        <v>929700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>959400</v>
+      </c>
+      <c r="K47" s="3">
         <v>934000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>909800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>838400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>797200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>819700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1127300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1147200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1464800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1429700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>321500</v>
+        <v>348200</v>
       </c>
       <c r="E48" s="3">
-        <v>283500</v>
+        <v>339500</v>
       </c>
       <c r="F48" s="3">
-        <v>276200</v>
+        <v>325200</v>
       </c>
       <c r="G48" s="3">
-        <v>259000</v>
+        <v>286700</v>
       </c>
       <c r="H48" s="3">
-        <v>265200</v>
+        <v>279300</v>
       </c>
       <c r="I48" s="3">
+        <v>261900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K48" s="3">
         <v>228800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>221800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>186700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>163600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>153000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>150300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>156300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>162700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>154500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>251300</v>
+        <v>260600</v>
       </c>
       <c r="E49" s="3">
-        <v>237200</v>
+        <v>257300</v>
       </c>
       <c r="F49" s="3">
-        <v>236100</v>
+        <v>254100</v>
       </c>
       <c r="G49" s="3">
-        <v>220100</v>
+        <v>239800</v>
       </c>
       <c r="H49" s="3">
-        <v>206900</v>
+        <v>238700</v>
       </c>
       <c r="I49" s="3">
+        <v>222600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K49" s="3">
         <v>190700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>178400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>156900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>143500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>139800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>131100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>244600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>136700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>130800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="E52" s="3">
-        <v>13500</v>
+        <v>14700</v>
       </c>
       <c r="F52" s="3">
-        <v>18000</v>
+        <v>14600</v>
       </c>
       <c r="G52" s="3">
-        <v>17600</v>
+        <v>13700</v>
       </c>
       <c r="H52" s="3">
-        <v>25700</v>
+        <v>18200</v>
       </c>
       <c r="I52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K52" s="3">
         <v>27400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>28600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>25300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>25800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>19000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>18200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>20200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>22000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2669100</v>
+        <v>2638500</v>
       </c>
       <c r="E54" s="3">
-        <v>2573000</v>
+        <v>2659600</v>
       </c>
       <c r="F54" s="3">
-        <v>2598600</v>
+        <v>2699100</v>
       </c>
       <c r="G54" s="3">
-        <v>2434600</v>
+        <v>2601900</v>
       </c>
       <c r="H54" s="3">
-        <v>2300800</v>
+        <v>2627800</v>
       </c>
       <c r="I54" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2326600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2186000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2104100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2320900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2265400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2442800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2353700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2402200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2536900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2500900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,81 +3140,89 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156500</v>
+        <v>139600</v>
       </c>
       <c r="E57" s="3">
-        <v>141600</v>
+        <v>155500</v>
       </c>
       <c r="F57" s="3">
-        <v>128200</v>
+        <v>158300</v>
       </c>
       <c r="G57" s="3">
-        <v>110600</v>
+        <v>143200</v>
       </c>
       <c r="H57" s="3">
-        <v>108900</v>
+        <v>129600</v>
       </c>
       <c r="I57" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K57" s="3">
         <v>95400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>115000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>109100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>94500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>89000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>81000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>95100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>88500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>71500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
-        <v>8300</v>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+      <c r="J58" s="3">
+        <v>8400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
@@ -2962,11 +3230,11 @@
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>215600</v>
+        <v>254600</v>
       </c>
       <c r="E59" s="3">
-        <v>229300</v>
+        <v>242300</v>
       </c>
       <c r="F59" s="3">
-        <v>201500</v>
+        <v>218000</v>
       </c>
       <c r="G59" s="3">
-        <v>185900</v>
+        <v>231900</v>
       </c>
       <c r="H59" s="3">
-        <v>118700</v>
+        <v>203700</v>
       </c>
       <c r="I59" s="3">
+        <v>188000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K59" s="3">
         <v>134400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>62200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>59700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>80900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>74900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>65600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>57600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>66900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>372100</v>
+        <v>394200</v>
       </c>
       <c r="E60" s="3">
-        <v>379200</v>
+        <v>397800</v>
       </c>
       <c r="F60" s="3">
-        <v>329600</v>
+        <v>376300</v>
       </c>
       <c r="G60" s="3">
-        <v>296500</v>
+        <v>383500</v>
       </c>
       <c r="H60" s="3">
-        <v>235900</v>
+        <v>333300</v>
       </c>
       <c r="I60" s="3">
+        <v>299800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K60" s="3">
         <v>229800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>181100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>171400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>154200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>169900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>155900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>160600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>146100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>138400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,22 +3375,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="H61" s="3">
-        <v>21300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3130,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41100</v>
+        <v>41000</v>
       </c>
       <c r="E62" s="3">
-        <v>23800</v>
+        <v>43400</v>
       </c>
       <c r="F62" s="3">
-        <v>35700</v>
+        <v>41600</v>
       </c>
       <c r="G62" s="3">
-        <v>35700</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="O62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="P62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>15700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>16000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>14500</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>413200</v>
+        <v>435200</v>
       </c>
       <c r="E66" s="3">
-        <v>421700</v>
+        <v>441100</v>
       </c>
       <c r="F66" s="3">
-        <v>365400</v>
+        <v>417900</v>
       </c>
       <c r="G66" s="3">
-        <v>332100</v>
+        <v>426400</v>
       </c>
       <c r="H66" s="3">
-        <v>271700</v>
+        <v>369500</v>
       </c>
       <c r="I66" s="3">
+        <v>335900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>274800</v>
+      </c>
+      <c r="K66" s="3">
         <v>244200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>198000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>187300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>169900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>185900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>171700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>175100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>162600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>155400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3957,55 @@
         <v>11</v>
       </c>
       <c r="E72" s="3">
-        <v>2297900</v>
+        <v>2371300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>2422400</v>
+        <v>2323800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="3">
-        <v>2266900</v>
+        <v>2449700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K72" s="3">
-        <v>2370200</v>
+        <v>2266900</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="3">
-        <v>2350700</v>
+        <v>2370200</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O72" s="3">
-        <v>2196500</v>
+        <v>2350700</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>11</v>
+      <c r="Q72" s="3">
+        <v>2196500</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2255900</v>
+        <v>2203200</v>
       </c>
       <c r="E76" s="3">
-        <v>2151300</v>
+        <v>2218500</v>
       </c>
       <c r="F76" s="3">
-        <v>2233200</v>
+        <v>2281200</v>
       </c>
       <c r="G76" s="3">
-        <v>2102500</v>
+        <v>2175500</v>
       </c>
       <c r="H76" s="3">
-        <v>2029000</v>
+        <v>2258300</v>
       </c>
       <c r="I76" s="3">
+        <v>2126100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2051900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1941800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1906100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2133700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2095500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2256900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2181900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2227100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2374300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2345400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87700</v>
+        <v>69500</v>
       </c>
       <c r="E81" s="3">
-        <v>123600</v>
+        <v>88700</v>
       </c>
       <c r="F81" s="3">
-        <v>63200</v>
+        <v>88700</v>
       </c>
       <c r="G81" s="3">
-        <v>143800</v>
+        <v>125000</v>
       </c>
       <c r="H81" s="3">
-        <v>58500</v>
+        <v>63900</v>
       </c>
       <c r="I81" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K81" s="3">
         <v>51700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>46200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>271800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>41800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>173400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>47400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>72200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22700</v>
+        <v>25400</v>
       </c>
       <c r="E83" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="F83" s="3">
-        <v>22600</v>
+        <v>22900</v>
       </c>
       <c r="G83" s="3">
-        <v>20700</v>
+        <v>29400</v>
       </c>
       <c r="H83" s="3">
-        <v>20300</v>
+        <v>22900</v>
       </c>
       <c r="I83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K83" s="3">
         <v>20000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>17200</v>
       </c>
       <c r="N83" s="3">
         <v>12600</v>
       </c>
       <c r="O83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>15300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>17800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96300</v>
+        <v>62200</v>
       </c>
       <c r="E89" s="3">
-        <v>254200</v>
+        <v>42500</v>
       </c>
       <c r="F89" s="3">
-        <v>109000</v>
+        <v>97400</v>
       </c>
       <c r="G89" s="3">
-        <v>153500</v>
+        <v>250400</v>
       </c>
       <c r="H89" s="3">
-        <v>61700</v>
+        <v>112600</v>
       </c>
       <c r="I89" s="3">
+        <v>159500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K89" s="3">
         <v>110000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>18400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>36800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>33700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>49200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>9800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>39200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>34000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28300</v>
+        <v>-22500</v>
       </c>
       <c r="E91" s="3">
-        <v>-19800</v>
+        <v>-22600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12100</v>
+        <v>-28700</v>
       </c>
       <c r="G91" s="3">
-        <v>-10900</v>
+        <v>-20100</v>
       </c>
       <c r="H91" s="3">
-        <v>-14800</v>
+        <v>-12200</v>
       </c>
       <c r="I91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-24500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>50700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47500</v>
+        <v>-33100</v>
       </c>
       <c r="E94" s="3">
-        <v>-37600</v>
+        <v>-33100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9600</v>
+        <v>-48100</v>
       </c>
       <c r="G94" s="3">
-        <v>-11700</v>
+        <v>-38000</v>
       </c>
       <c r="H94" s="3">
-        <v>-34800</v>
+        <v>-9700</v>
       </c>
       <c r="I94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-20500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>469800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>266200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,38 +5081,40 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-58400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-59100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4663,10 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>-33200</v>
       </c>
       <c r="E100" s="3">
-        <v>-185900</v>
+        <v>-127900</v>
       </c>
       <c r="F100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-57500</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-50100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-452700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-83400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-111500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-150100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-36100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-87700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-13200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>16000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4600</v>
+        <v>-9800</v>
       </c>
       <c r="H101" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J101" s="3">
         <v>7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>9600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-9500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-38600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36500</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>21000</v>
+        <v>-116300</v>
       </c>
       <c r="F102" s="3">
-        <v>116600</v>
+        <v>36900</v>
       </c>
       <c r="G102" s="3">
-        <v>81700</v>
+        <v>21200</v>
       </c>
       <c r="H102" s="3">
-        <v>31500</v>
+        <v>117900</v>
       </c>
       <c r="I102" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K102" s="3">
         <v>24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-456100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-98700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-104700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>349200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>161400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>17800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>376300</v>
+        <v>407700</v>
       </c>
       <c r="E8" s="3">
-        <v>408900</v>
+        <v>370100</v>
       </c>
       <c r="F8" s="3">
-        <v>388900</v>
+        <v>402100</v>
       </c>
       <c r="G8" s="3">
-        <v>412100</v>
+        <v>382400</v>
       </c>
       <c r="H8" s="3">
-        <v>324400</v>
+        <v>405300</v>
       </c>
       <c r="I8" s="3">
-        <v>311300</v>
+        <v>319000</v>
       </c>
       <c r="J8" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K8" s="3">
         <v>297600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>301300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>231500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>230700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>199800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>240700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>184100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>202600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>188400</v>
+        <v>223500</v>
       </c>
       <c r="E9" s="3">
-        <v>211400</v>
+        <v>185300</v>
       </c>
       <c r="F9" s="3">
-        <v>215700</v>
+        <v>207900</v>
       </c>
       <c r="G9" s="3">
-        <v>232400</v>
+        <v>212100</v>
       </c>
       <c r="H9" s="3">
-        <v>186900</v>
+        <v>228500</v>
       </c>
       <c r="I9" s="3">
-        <v>178200</v>
+        <v>183800</v>
       </c>
       <c r="J9" s="3">
+        <v>175200</v>
+      </c>
+      <c r="K9" s="3">
         <v>174600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>175600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>104900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>187900</v>
+        <v>184200</v>
       </c>
       <c r="E10" s="3">
-        <v>197500</v>
+        <v>184800</v>
       </c>
       <c r="F10" s="3">
-        <v>173200</v>
+        <v>194200</v>
       </c>
       <c r="G10" s="3">
-        <v>179700</v>
+        <v>170300</v>
       </c>
       <c r="H10" s="3">
-        <v>137500</v>
+        <v>176700</v>
       </c>
       <c r="I10" s="3">
-        <v>133100</v>
+        <v>135200</v>
       </c>
       <c r="J10" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K10" s="3">
         <v>123000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>96500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>77600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>91000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41100</v>
+        <v>33900</v>
       </c>
       <c r="E12" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="F12" s="3">
-        <v>30500</v>
+        <v>30900</v>
       </c>
       <c r="G12" s="3">
-        <v>31800</v>
+        <v>30000</v>
       </c>
       <c r="H12" s="3">
-        <v>31800</v>
+        <v>31300</v>
       </c>
       <c r="I12" s="3">
-        <v>24300</v>
+        <v>31300</v>
       </c>
       <c r="J12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K12" s="3">
         <v>21700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>5800</v>
+        <v>2600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
-        <v>-62500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>-123200</v>
-      </c>
       <c r="J14" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E15" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F15" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G15" s="3">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="I15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4200</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>275900</v>
+        <v>316600</v>
       </c>
       <c r="E17" s="3">
-        <v>304100</v>
+        <v>271300</v>
       </c>
       <c r="F17" s="3">
-        <v>295500</v>
+        <v>299100</v>
       </c>
       <c r="G17" s="3">
-        <v>255600</v>
+        <v>290600</v>
       </c>
       <c r="H17" s="3">
-        <v>263800</v>
+        <v>251300</v>
       </c>
       <c r="I17" s="3">
-        <v>131600</v>
+        <v>259400</v>
       </c>
       <c r="J17" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K17" s="3">
         <v>241300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>198400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>187100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>161600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>191500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>176500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>161300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>167400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100400</v>
+        <v>91200</v>
       </c>
       <c r="E18" s="3">
-        <v>104800</v>
+        <v>98800</v>
       </c>
       <c r="F18" s="3">
-        <v>93400</v>
+        <v>103000</v>
       </c>
       <c r="G18" s="3">
-        <v>156500</v>
+        <v>91900</v>
       </c>
       <c r="H18" s="3">
-        <v>60600</v>
+        <v>153900</v>
       </c>
       <c r="I18" s="3">
-        <v>179600</v>
+        <v>59600</v>
       </c>
       <c r="J18" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K18" s="3">
         <v>56300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13600</v>
+        <v>9400</v>
       </c>
       <c r="E20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>11000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-13100</v>
+        <v>10900</v>
       </c>
       <c r="H20" s="3">
-        <v>20200</v>
+        <v>-12900</v>
       </c>
       <c r="I20" s="3">
-        <v>-7100</v>
+        <v>19800</v>
       </c>
       <c r="J20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>230700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>128100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>112100</v>
+        <v>129500</v>
       </c>
       <c r="E21" s="3">
-        <v>134900</v>
+        <v>110300</v>
       </c>
       <c r="F21" s="3">
-        <v>127400</v>
+        <v>132700</v>
       </c>
       <c r="G21" s="3">
-        <v>172900</v>
+        <v>125200</v>
       </c>
       <c r="H21" s="3">
-        <v>103600</v>
+        <v>170100</v>
       </c>
       <c r="I21" s="3">
-        <v>193300</v>
+        <v>101900</v>
       </c>
       <c r="J21" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K21" s="3">
         <v>81500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>78800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>287100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>191400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>62900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>89000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,8 +1511,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>11</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>11</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>86800</v>
+        <v>100600</v>
       </c>
       <c r="E23" s="3">
-        <v>106100</v>
+        <v>85300</v>
       </c>
       <c r="F23" s="3">
-        <v>104400</v>
+        <v>104300</v>
       </c>
       <c r="G23" s="3">
-        <v>143400</v>
+        <v>102700</v>
       </c>
       <c r="H23" s="3">
-        <v>80800</v>
+        <v>141000</v>
       </c>
       <c r="I23" s="3">
-        <v>172500</v>
+        <v>79500</v>
       </c>
       <c r="J23" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K23" s="3">
         <v>61100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>176100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="F24" s="3">
-        <v>15800</v>
+        <v>17100</v>
       </c>
       <c r="G24" s="3">
-        <v>18400</v>
+        <v>15500</v>
       </c>
       <c r="H24" s="3">
-        <v>16900</v>
+        <v>18100</v>
       </c>
       <c r="I24" s="3">
-        <v>27000</v>
+        <v>16600</v>
       </c>
       <c r="J24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69500</v>
+        <v>93000</v>
       </c>
       <c r="E26" s="3">
-        <v>88700</v>
+        <v>68400</v>
       </c>
       <c r="F26" s="3">
-        <v>88700</v>
+        <v>87200</v>
       </c>
       <c r="G26" s="3">
-        <v>125000</v>
+        <v>87200</v>
       </c>
       <c r="H26" s="3">
-        <v>63900</v>
+        <v>123000</v>
       </c>
       <c r="I26" s="3">
-        <v>145500</v>
+        <v>62900</v>
       </c>
       <c r="J26" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K26" s="3">
         <v>59100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>271800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>173400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69500</v>
+        <v>93000</v>
       </c>
       <c r="E27" s="3">
-        <v>88700</v>
+        <v>68400</v>
       </c>
       <c r="F27" s="3">
-        <v>88700</v>
+        <v>87200</v>
       </c>
       <c r="G27" s="3">
-        <v>125000</v>
+        <v>87200</v>
       </c>
       <c r="H27" s="3">
-        <v>63900</v>
+        <v>123000</v>
       </c>
       <c r="I27" s="3">
-        <v>145500</v>
+        <v>62900</v>
       </c>
       <c r="J27" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K27" s="3">
         <v>59100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>271800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>173400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1864,8 +1924,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13600</v>
+        <v>-9400</v>
       </c>
       <c r="E32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-11000</v>
-      </c>
       <c r="G32" s="3">
-        <v>13100</v>
+        <v>-10900</v>
       </c>
       <c r="H32" s="3">
-        <v>-20200</v>
+        <v>12900</v>
       </c>
       <c r="I32" s="3">
-        <v>7100</v>
+        <v>-19800</v>
       </c>
       <c r="J32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-230700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-128100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69500</v>
+        <v>93000</v>
       </c>
       <c r="E33" s="3">
-        <v>88700</v>
+        <v>68400</v>
       </c>
       <c r="F33" s="3">
-        <v>88700</v>
+        <v>87200</v>
       </c>
       <c r="G33" s="3">
-        <v>125000</v>
+        <v>87200</v>
       </c>
       <c r="H33" s="3">
-        <v>63900</v>
+        <v>123000</v>
       </c>
       <c r="I33" s="3">
-        <v>145500</v>
+        <v>62900</v>
       </c>
       <c r="J33" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K33" s="3">
         <v>59100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>271800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>173400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69500</v>
+        <v>93000</v>
       </c>
       <c r="E35" s="3">
-        <v>88700</v>
+        <v>68400</v>
       </c>
       <c r="F35" s="3">
-        <v>88700</v>
+        <v>87200</v>
       </c>
       <c r="G35" s="3">
-        <v>125000</v>
+        <v>87200</v>
       </c>
       <c r="H35" s="3">
-        <v>63900</v>
+        <v>123000</v>
       </c>
       <c r="I35" s="3">
-        <v>145500</v>
+        <v>62900</v>
       </c>
       <c r="J35" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K35" s="3">
         <v>59100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>271800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>173400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>513800</v>
+        <v>512000</v>
       </c>
       <c r="E41" s="3">
-        <v>516200</v>
+        <v>505300</v>
       </c>
       <c r="F41" s="3">
-        <v>632500</v>
+        <v>507700</v>
       </c>
       <c r="G41" s="3">
-        <v>595600</v>
+        <v>622000</v>
       </c>
       <c r="H41" s="3">
-        <v>574300</v>
+        <v>585700</v>
       </c>
       <c r="I41" s="3">
-        <v>456400</v>
+        <v>564800</v>
       </c>
       <c r="J41" s="3">
+        <v>448800</v>
+      </c>
+      <c r="K41" s="3">
         <v>373800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>338200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>314200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>715000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>813700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>938500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>589300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>586600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>444800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>443900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307700</v>
+        <v>330100</v>
       </c>
       <c r="E43" s="3">
-        <v>293300</v>
+        <v>302600</v>
       </c>
       <c r="F43" s="3">
-        <v>226000</v>
+        <v>288400</v>
       </c>
       <c r="G43" s="3">
-        <v>240100</v>
+        <v>222200</v>
       </c>
       <c r="H43" s="3">
-        <v>291400</v>
+        <v>236200</v>
       </c>
       <c r="I43" s="3">
-        <v>314300</v>
+        <v>286600</v>
       </c>
       <c r="J43" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K43" s="3">
         <v>236900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>210400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>187500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>141400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>184500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>145300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>166600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>161300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>211000</v>
+        <v>190800</v>
       </c>
       <c r="E44" s="3">
-        <v>210400</v>
+        <v>207600</v>
       </c>
       <c r="F44" s="3">
-        <v>194000</v>
+        <v>206900</v>
       </c>
       <c r="G44" s="3">
-        <v>207200</v>
+        <v>190800</v>
       </c>
       <c r="H44" s="3">
-        <v>211700</v>
+        <v>203700</v>
       </c>
       <c r="I44" s="3">
-        <v>203800</v>
+        <v>208200</v>
       </c>
       <c r="J44" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K44" s="3">
         <v>208200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>203300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>218400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>166600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>160300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>168500</v>
       </c>
       <c r="Q44" s="3">
         <v>168500</v>
       </c>
       <c r="R44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="S44" s="3">
         <v>165800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>131900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89400</v>
+        <v>85800</v>
       </c>
       <c r="E45" s="3">
-        <v>99900</v>
+        <v>88000</v>
       </c>
       <c r="F45" s="3">
-        <v>105700</v>
+        <v>98200</v>
       </c>
       <c r="G45" s="3">
-        <v>87900</v>
+        <v>104000</v>
       </c>
       <c r="H45" s="3">
-        <v>65200</v>
+        <v>86400</v>
       </c>
       <c r="I45" s="3">
-        <v>55500</v>
+        <v>64100</v>
       </c>
       <c r="J45" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K45" s="3">
         <v>44900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1122000</v>
+        <v>1118700</v>
       </c>
       <c r="E46" s="3">
-        <v>1119700</v>
+        <v>1103400</v>
       </c>
       <c r="F46" s="3">
-        <v>1158200</v>
+        <v>1101200</v>
       </c>
       <c r="G46" s="3">
-        <v>1130800</v>
+        <v>1139000</v>
       </c>
       <c r="H46" s="3">
-        <v>1142600</v>
+        <v>1112000</v>
       </c>
       <c r="I46" s="3">
-        <v>1030100</v>
+        <v>1123700</v>
       </c>
       <c r="J46" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="K46" s="3">
         <v>863800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>805100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>765400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1112300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1135800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1304600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>926000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>951900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>752600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>763800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>893100</v>
+        <v>873700</v>
       </c>
       <c r="E47" s="3">
-        <v>928400</v>
+        <v>878300</v>
       </c>
       <c r="F47" s="3">
-        <v>947000</v>
+        <v>913000</v>
       </c>
       <c r="G47" s="3">
-        <v>931000</v>
+        <v>931300</v>
       </c>
       <c r="H47" s="3">
-        <v>949000</v>
+        <v>915600</v>
       </c>
       <c r="I47" s="3">
-        <v>929700</v>
+        <v>933300</v>
       </c>
       <c r="J47" s="3">
+        <v>914300</v>
+      </c>
+      <c r="K47" s="3">
         <v>959400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>934000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>909800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>838400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>797200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>819700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1127300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1147200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1464800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1429700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>348200</v>
+        <v>361000</v>
       </c>
       <c r="E48" s="3">
-        <v>339500</v>
+        <v>342400</v>
       </c>
       <c r="F48" s="3">
-        <v>325200</v>
+        <v>333900</v>
       </c>
       <c r="G48" s="3">
-        <v>286700</v>
+        <v>319800</v>
       </c>
       <c r="H48" s="3">
-        <v>279300</v>
+        <v>281900</v>
       </c>
       <c r="I48" s="3">
-        <v>261900</v>
+        <v>274700</v>
       </c>
       <c r="J48" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K48" s="3">
         <v>268100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>228800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>186700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>163600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>153000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>150300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>156300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>162700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>154500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>260600</v>
+        <v>260200</v>
       </c>
       <c r="E49" s="3">
-        <v>257300</v>
+        <v>256300</v>
       </c>
       <c r="F49" s="3">
-        <v>254100</v>
+        <v>253100</v>
       </c>
       <c r="G49" s="3">
-        <v>239800</v>
+        <v>249900</v>
       </c>
       <c r="H49" s="3">
-        <v>238700</v>
+        <v>235900</v>
       </c>
       <c r="I49" s="3">
-        <v>222600</v>
+        <v>234800</v>
       </c>
       <c r="J49" s="3">
+        <v>218900</v>
+      </c>
+      <c r="K49" s="3">
         <v>209300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>190700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>178400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>156900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>143500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>139800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>131100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>244600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>130800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14700</v>
+        <v>9700</v>
       </c>
       <c r="E52" s="3">
-        <v>14700</v>
+        <v>14400</v>
       </c>
       <c r="F52" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G52" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="H52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>27400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>28600</v>
+      </c>
+      <c r="N52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R52" s="3">
         <v>18200</v>
       </c>
-      <c r="I52" s="3">
-        <v>17800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>26000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>27400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>28600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>26600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>25300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>25800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>19000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>18200</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2638500</v>
+        <v>2623300</v>
       </c>
       <c r="E54" s="3">
-        <v>2659600</v>
+        <v>2594800</v>
       </c>
       <c r="F54" s="3">
-        <v>2699100</v>
+        <v>2615600</v>
       </c>
       <c r="G54" s="3">
-        <v>2601900</v>
+        <v>2654400</v>
       </c>
       <c r="H54" s="3">
-        <v>2627800</v>
+        <v>2558800</v>
       </c>
       <c r="I54" s="3">
-        <v>2462000</v>
+        <v>2584300</v>
       </c>
       <c r="J54" s="3">
+        <v>2421200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2326600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2186000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2104100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2320900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2265400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2442800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2353700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2402200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2536900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2500900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>139600</v>
+        <v>146500</v>
       </c>
       <c r="E57" s="3">
-        <v>155500</v>
+        <v>137300</v>
       </c>
       <c r="F57" s="3">
-        <v>158300</v>
+        <v>152900</v>
       </c>
       <c r="G57" s="3">
-        <v>143200</v>
+        <v>155600</v>
       </c>
       <c r="H57" s="3">
-        <v>129600</v>
+        <v>140800</v>
       </c>
       <c r="I57" s="3">
-        <v>111800</v>
+        <v>127500</v>
       </c>
       <c r="J57" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K57" s="3">
         <v>110100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>95400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>115000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>109100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>89000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>81000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>95100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>88500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>71500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3212,20 +3345,20 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="3">
         <v>8400</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>254600</v>
+        <v>253800</v>
       </c>
       <c r="E59" s="3">
-        <v>242300</v>
+        <v>250400</v>
       </c>
       <c r="F59" s="3">
-        <v>218000</v>
+        <v>238300</v>
       </c>
       <c r="G59" s="3">
-        <v>231900</v>
+        <v>214400</v>
       </c>
       <c r="H59" s="3">
-        <v>203700</v>
+        <v>228100</v>
       </c>
       <c r="I59" s="3">
-        <v>188000</v>
+        <v>200300</v>
       </c>
       <c r="J59" s="3">
+        <v>184800</v>
+      </c>
+      <c r="K59" s="3">
         <v>120100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>394200</v>
+        <v>400300</v>
       </c>
       <c r="E60" s="3">
-        <v>397800</v>
+        <v>387700</v>
       </c>
       <c r="F60" s="3">
-        <v>376300</v>
+        <v>391200</v>
       </c>
       <c r="G60" s="3">
-        <v>383500</v>
+        <v>370100</v>
       </c>
       <c r="H60" s="3">
-        <v>333300</v>
+        <v>377100</v>
       </c>
       <c r="I60" s="3">
-        <v>299800</v>
+        <v>327800</v>
       </c>
       <c r="J60" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K60" s="3">
         <v>238600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>229800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>171400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>154200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>169900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>155900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>160600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>146100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,20 +3523,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>21500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,64 +3564,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="E62" s="3">
-        <v>43400</v>
+        <v>40400</v>
       </c>
       <c r="F62" s="3">
-        <v>41600</v>
+        <v>42600</v>
       </c>
       <c r="G62" s="3">
-        <v>24100</v>
+        <v>40900</v>
       </c>
       <c r="H62" s="3">
-        <v>36200</v>
+        <v>23700</v>
       </c>
       <c r="I62" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="J62" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K62" s="3">
         <v>14700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>435200</v>
+        <v>441400</v>
       </c>
       <c r="E66" s="3">
-        <v>441100</v>
+        <v>428000</v>
       </c>
       <c r="F66" s="3">
-        <v>417900</v>
+        <v>433800</v>
       </c>
       <c r="G66" s="3">
-        <v>426400</v>
+        <v>411000</v>
       </c>
       <c r="H66" s="3">
-        <v>369500</v>
+        <v>419400</v>
       </c>
       <c r="I66" s="3">
-        <v>335900</v>
+        <v>363400</v>
       </c>
       <c r="J66" s="3">
+        <v>330300</v>
+      </c>
+      <c r="K66" s="3">
         <v>274800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>198000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>185900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>171700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>175100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>162600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>155400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>2262400</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3">
-        <v>2371300</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>2332000</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
-        <v>2323800</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>2285300</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
-        <v>2449700</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>2409100</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2266900</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2370200</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2350700</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>11</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2203200</v>
+        <v>2181900</v>
       </c>
       <c r="E76" s="3">
-        <v>2218500</v>
+        <v>2166800</v>
       </c>
       <c r="F76" s="3">
-        <v>2281200</v>
+        <v>2181800</v>
       </c>
       <c r="G76" s="3">
-        <v>2175500</v>
+        <v>2243500</v>
       </c>
       <c r="H76" s="3">
-        <v>2258300</v>
+        <v>2139500</v>
       </c>
       <c r="I76" s="3">
-        <v>2126100</v>
+        <v>2220900</v>
       </c>
       <c r="J76" s="3">
+        <v>2090900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2051900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1941800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1906100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2133700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2095500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2256900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2181900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2227100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2374300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2345400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69500</v>
+        <v>93000</v>
       </c>
       <c r="E81" s="3">
-        <v>88700</v>
+        <v>68400</v>
       </c>
       <c r="F81" s="3">
-        <v>88700</v>
+        <v>87200</v>
       </c>
       <c r="G81" s="3">
-        <v>125000</v>
+        <v>87200</v>
       </c>
       <c r="H81" s="3">
-        <v>63900</v>
+        <v>123000</v>
       </c>
       <c r="I81" s="3">
-        <v>145500</v>
+        <v>62900</v>
       </c>
       <c r="J81" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K81" s="3">
         <v>59100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>271800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>173400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25400</v>
+        <v>28900</v>
       </c>
       <c r="E83" s="3">
-        <v>28800</v>
+        <v>24900</v>
       </c>
       <c r="F83" s="3">
-        <v>22900</v>
+        <v>28400</v>
       </c>
       <c r="G83" s="3">
-        <v>29400</v>
+        <v>22500</v>
       </c>
       <c r="H83" s="3">
-        <v>22900</v>
+        <v>28900</v>
       </c>
       <c r="I83" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="J83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62200</v>
+        <v>112200</v>
       </c>
       <c r="E89" s="3">
-        <v>42500</v>
+        <v>61100</v>
       </c>
       <c r="F89" s="3">
-        <v>97400</v>
+        <v>41800</v>
       </c>
       <c r="G89" s="3">
-        <v>250400</v>
+        <v>95800</v>
       </c>
       <c r="H89" s="3">
-        <v>112600</v>
+        <v>246200</v>
       </c>
       <c r="I89" s="3">
-        <v>159500</v>
+        <v>110700</v>
       </c>
       <c r="J89" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K89" s="3">
         <v>62400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-22500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>50700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33100</v>
+        <v>-57400</v>
       </c>
       <c r="E94" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="F94" s="3">
-        <v>-48100</v>
+        <v>-32500</v>
       </c>
       <c r="G94" s="3">
-        <v>-38000</v>
+        <v>-47300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9700</v>
+        <v>-37400</v>
       </c>
       <c r="I94" s="3">
-        <v>-11800</v>
+        <v>-9500</v>
       </c>
       <c r="J94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>469800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>266200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,32 +5325,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-117400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-59500</v>
-      </c>
       <c r="H96" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-59100</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-58100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5137,10 +5370,13 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33200</v>
+        <v>-34900</v>
       </c>
       <c r="E100" s="3">
-        <v>-127900</v>
+        <v>-32600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7300</v>
+        <v>-125800</v>
       </c>
       <c r="G100" s="3">
-        <v>-188000</v>
+        <v>-7200</v>
       </c>
       <c r="H100" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-58200</v>
-      </c>
       <c r="J100" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-452700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-83400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-150100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-87700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H101" s="3">
-        <v>16200</v>
+        <v>-9600</v>
       </c>
       <c r="I101" s="3">
-        <v>-4700</v>
+        <v>15900</v>
       </c>
       <c r="J101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>7800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>9600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-116300</v>
-      </c>
       <c r="F102" s="3">
-        <v>36900</v>
+        <v>-114300</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>36300</v>
       </c>
       <c r="H102" s="3">
-        <v>117900</v>
+        <v>20900</v>
       </c>
       <c r="I102" s="3">
-        <v>82600</v>
+        <v>116000</v>
       </c>
       <c r="J102" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K102" s="3">
         <v>31800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-456100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-98700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-104700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>349200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>161400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>407700</v>
+        <v>482600</v>
       </c>
       <c r="E8" s="3">
-        <v>370100</v>
+        <v>424600</v>
       </c>
       <c r="F8" s="3">
-        <v>402100</v>
+        <v>385400</v>
       </c>
       <c r="G8" s="3">
-        <v>382400</v>
+        <v>418700</v>
       </c>
       <c r="H8" s="3">
-        <v>405300</v>
+        <v>398200</v>
       </c>
       <c r="I8" s="3">
-        <v>319000</v>
+        <v>422000</v>
       </c>
       <c r="J8" s="3">
+        <v>332200</v>
+      </c>
+      <c r="K8" s="3">
         <v>306100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>297600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>301300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>231500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>230700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>199800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>240700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>184100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>202600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>223500</v>
+        <v>243700</v>
       </c>
       <c r="E9" s="3">
-        <v>185300</v>
+        <v>232700</v>
       </c>
       <c r="F9" s="3">
-        <v>207900</v>
+        <v>193000</v>
       </c>
       <c r="G9" s="3">
-        <v>212100</v>
+        <v>216500</v>
       </c>
       <c r="H9" s="3">
-        <v>228500</v>
+        <v>220900</v>
       </c>
       <c r="I9" s="3">
-        <v>183800</v>
+        <v>238000</v>
       </c>
       <c r="J9" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K9" s="3">
         <v>175200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>174600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>175600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>104900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>184200</v>
+        <v>238900</v>
       </c>
       <c r="E10" s="3">
-        <v>184800</v>
+        <v>191800</v>
       </c>
       <c r="F10" s="3">
-        <v>194200</v>
+        <v>192400</v>
       </c>
       <c r="G10" s="3">
-        <v>170300</v>
+        <v>202200</v>
       </c>
       <c r="H10" s="3">
-        <v>176700</v>
+        <v>177400</v>
       </c>
       <c r="I10" s="3">
-        <v>135200</v>
+        <v>184000</v>
       </c>
       <c r="J10" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K10" s="3">
         <v>130900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>123000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>96500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>77600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>104600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>91000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33900</v>
+        <v>31000</v>
       </c>
       <c r="E12" s="3">
-        <v>32000</v>
+        <v>35300</v>
       </c>
       <c r="F12" s="3">
-        <v>30900</v>
+        <v>33300</v>
       </c>
       <c r="G12" s="3">
-        <v>30000</v>
+        <v>32100</v>
       </c>
       <c r="H12" s="3">
-        <v>31300</v>
+        <v>31200</v>
       </c>
       <c r="I12" s="3">
-        <v>31300</v>
+        <v>32600</v>
       </c>
       <c r="J12" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K12" s="3">
         <v>23900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>-61500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-121200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>5900</v>
+        <v>6600</v>
       </c>
       <c r="F15" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G15" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H15" s="3">
-        <v>5400</v>
+        <v>6700</v>
       </c>
       <c r="I15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4200</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>316600</v>
+        <v>330100</v>
       </c>
       <c r="E17" s="3">
-        <v>271300</v>
+        <v>329600</v>
       </c>
       <c r="F17" s="3">
-        <v>299100</v>
+        <v>282500</v>
       </c>
       <c r="G17" s="3">
-        <v>290600</v>
+        <v>311400</v>
       </c>
       <c r="H17" s="3">
-        <v>251300</v>
+        <v>302600</v>
       </c>
       <c r="I17" s="3">
-        <v>259400</v>
+        <v>261700</v>
       </c>
       <c r="J17" s="3">
+        <v>270100</v>
+      </c>
+      <c r="K17" s="3">
         <v>129500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>241300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>198400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>187100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>161600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>191500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>176500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>192700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>161300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>167400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>91200</v>
+        <v>152500</v>
       </c>
       <c r="E18" s="3">
-        <v>98800</v>
+        <v>94900</v>
       </c>
       <c r="F18" s="3">
-        <v>103000</v>
+        <v>102800</v>
       </c>
       <c r="G18" s="3">
-        <v>91900</v>
+        <v>107300</v>
       </c>
       <c r="H18" s="3">
-        <v>153900</v>
+        <v>95600</v>
       </c>
       <c r="I18" s="3">
-        <v>59600</v>
+        <v>160300</v>
       </c>
       <c r="J18" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K18" s="3">
         <v>176600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9400</v>
+        <v>32600</v>
       </c>
       <c r="E20" s="3">
-        <v>-13400</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>-14000</v>
       </c>
       <c r="G20" s="3">
-        <v>10900</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="3">
-        <v>-12900</v>
+        <v>11300</v>
       </c>
       <c r="I20" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>17100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>28500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>230700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>21400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>128100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>26300</v>
+      </c>
+      <c r="U20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="V20" s="3">
         <v>19800</v>
       </c>
-      <c r="J20" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>17100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>28500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>230700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>21400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>128100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>26300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>36000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129500</v>
+        <v>209400</v>
       </c>
       <c r="E21" s="3">
-        <v>110300</v>
+        <v>134900</v>
       </c>
       <c r="F21" s="3">
-        <v>132700</v>
+        <v>114800</v>
       </c>
       <c r="G21" s="3">
-        <v>125200</v>
+        <v>138200</v>
       </c>
       <c r="H21" s="3">
-        <v>170100</v>
+        <v>130400</v>
       </c>
       <c r="I21" s="3">
-        <v>101900</v>
+        <v>177100</v>
       </c>
       <c r="J21" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K21" s="3">
         <v>190100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>287100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>191400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>62900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>89000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,8 +1554,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>11</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>11</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100600</v>
+        <v>185100</v>
       </c>
       <c r="E23" s="3">
-        <v>85300</v>
+        <v>104800</v>
       </c>
       <c r="F23" s="3">
-        <v>104300</v>
+        <v>88900</v>
       </c>
       <c r="G23" s="3">
-        <v>102700</v>
+        <v>108600</v>
       </c>
       <c r="H23" s="3">
-        <v>141000</v>
+        <v>107000</v>
       </c>
       <c r="I23" s="3">
-        <v>79500</v>
+        <v>146800</v>
       </c>
       <c r="J23" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K23" s="3">
         <v>169600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>70500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>176100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>71200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>35100</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="G24" s="3">
-        <v>15500</v>
+        <v>17800</v>
       </c>
       <c r="H24" s="3">
-        <v>18100</v>
+        <v>16200</v>
       </c>
       <c r="I24" s="3">
-        <v>16600</v>
+        <v>18800</v>
       </c>
       <c r="J24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K24" s="3">
         <v>26600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93000</v>
+        <v>150000</v>
       </c>
       <c r="E26" s="3">
-        <v>68400</v>
+        <v>96800</v>
       </c>
       <c r="F26" s="3">
-        <v>87200</v>
+        <v>71200</v>
       </c>
       <c r="G26" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="H26" s="3">
-        <v>123000</v>
+        <v>90800</v>
       </c>
       <c r="I26" s="3">
-        <v>62900</v>
+        <v>128000</v>
       </c>
       <c r="J26" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K26" s="3">
         <v>143100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>271800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>173400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>72200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>93000</v>
+        <v>150000</v>
       </c>
       <c r="E27" s="3">
-        <v>68400</v>
+        <v>96800</v>
       </c>
       <c r="F27" s="3">
-        <v>87200</v>
+        <v>71200</v>
       </c>
       <c r="G27" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="H27" s="3">
-        <v>123000</v>
+        <v>90800</v>
       </c>
       <c r="I27" s="3">
-        <v>62900</v>
+        <v>128000</v>
       </c>
       <c r="J27" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K27" s="3">
         <v>143100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>271800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>173400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1927,8 +1988,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9400</v>
+        <v>-32600</v>
       </c>
       <c r="E32" s="3">
-        <v>13400</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>14000</v>
       </c>
       <c r="G32" s="3">
-        <v>-10900</v>
+        <v>-1400</v>
       </c>
       <c r="H32" s="3">
-        <v>12900</v>
+        <v>-11300</v>
       </c>
       <c r="I32" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-230700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-128100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-19800</v>
       </c>
-      <c r="J32" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-230700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-128100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-26300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-19800</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>93000</v>
+        <v>150000</v>
       </c>
       <c r="E33" s="3">
-        <v>68400</v>
+        <v>96800</v>
       </c>
       <c r="F33" s="3">
-        <v>87200</v>
+        <v>71200</v>
       </c>
       <c r="G33" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="H33" s="3">
-        <v>123000</v>
+        <v>90800</v>
       </c>
       <c r="I33" s="3">
-        <v>62900</v>
+        <v>128000</v>
       </c>
       <c r="J33" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K33" s="3">
         <v>143100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>271800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>173400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>93000</v>
+        <v>150000</v>
       </c>
       <c r="E35" s="3">
-        <v>68400</v>
+        <v>96800</v>
       </c>
       <c r="F35" s="3">
-        <v>87200</v>
+        <v>71200</v>
       </c>
       <c r="G35" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="H35" s="3">
-        <v>123000</v>
+        <v>90800</v>
       </c>
       <c r="I35" s="3">
-        <v>62900</v>
+        <v>128000</v>
       </c>
       <c r="J35" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K35" s="3">
         <v>143100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>271800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>173400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>512000</v>
+        <v>609900</v>
       </c>
       <c r="E41" s="3">
-        <v>505300</v>
+        <v>533100</v>
       </c>
       <c r="F41" s="3">
-        <v>507700</v>
+        <v>526100</v>
       </c>
       <c r="G41" s="3">
-        <v>622000</v>
+        <v>528600</v>
       </c>
       <c r="H41" s="3">
-        <v>585700</v>
+        <v>647700</v>
       </c>
       <c r="I41" s="3">
-        <v>564800</v>
+        <v>609900</v>
       </c>
       <c r="J41" s="3">
+        <v>588100</v>
+      </c>
+      <c r="K41" s="3">
         <v>448800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>373800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>338200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>314200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>715000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>813700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>938500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>589300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>586600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>444800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>443900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>330100</v>
+        <v>377400</v>
       </c>
       <c r="E43" s="3">
-        <v>302600</v>
+        <v>343700</v>
       </c>
       <c r="F43" s="3">
-        <v>288400</v>
+        <v>315100</v>
       </c>
       <c r="G43" s="3">
-        <v>222200</v>
+        <v>300300</v>
       </c>
       <c r="H43" s="3">
-        <v>236200</v>
+        <v>231400</v>
       </c>
       <c r="I43" s="3">
-        <v>286600</v>
+        <v>245900</v>
       </c>
       <c r="J43" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K43" s="3">
         <v>309100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>236900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>210500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>187500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>141400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>184500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>145300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>166600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>121400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>161300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>190800</v>
+        <v>208900</v>
       </c>
       <c r="E44" s="3">
-        <v>207600</v>
+        <v>198700</v>
       </c>
       <c r="F44" s="3">
-        <v>206900</v>
+        <v>216100</v>
       </c>
       <c r="G44" s="3">
-        <v>190800</v>
+        <v>215400</v>
       </c>
       <c r="H44" s="3">
-        <v>203700</v>
+        <v>198700</v>
       </c>
       <c r="I44" s="3">
+        <v>212200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200400</v>
+      </c>
+      <c r="L44" s="3">
         <v>208200</v>
       </c>
-      <c r="J44" s="3">
-        <v>200400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>208200</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>203300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>218400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>183000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>166600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>160300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>168500</v>
       </c>
       <c r="R44" s="3">
         <v>168500</v>
       </c>
       <c r="S44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="T44" s="3">
         <v>165800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>131900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85800</v>
+        <v>65000</v>
       </c>
       <c r="E45" s="3">
-        <v>88000</v>
+        <v>89400</v>
       </c>
       <c r="F45" s="3">
-        <v>98200</v>
+        <v>91600</v>
       </c>
       <c r="G45" s="3">
-        <v>104000</v>
+        <v>102300</v>
       </c>
       <c r="H45" s="3">
-        <v>86400</v>
+        <v>108300</v>
       </c>
       <c r="I45" s="3">
-        <v>64100</v>
+        <v>90000</v>
       </c>
       <c r="J45" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K45" s="3">
         <v>54600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1118700</v>
+        <v>1261100</v>
       </c>
       <c r="E46" s="3">
-        <v>1103400</v>
+        <v>1164900</v>
       </c>
       <c r="F46" s="3">
-        <v>1101200</v>
+        <v>1149000</v>
       </c>
       <c r="G46" s="3">
-        <v>1139000</v>
+        <v>1146600</v>
       </c>
       <c r="H46" s="3">
-        <v>1112000</v>
+        <v>1186100</v>
       </c>
       <c r="I46" s="3">
-        <v>1123700</v>
+        <v>1158000</v>
       </c>
       <c r="J46" s="3">
+        <v>1170100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1013000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>863800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>805100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>765400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1112300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1135800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1304600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>926000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>951900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>752600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>763800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>873700</v>
+        <v>957400</v>
       </c>
       <c r="E47" s="3">
-        <v>878300</v>
+        <v>909800</v>
       </c>
       <c r="F47" s="3">
-        <v>913000</v>
+        <v>914600</v>
       </c>
       <c r="G47" s="3">
-        <v>931300</v>
+        <v>950700</v>
       </c>
       <c r="H47" s="3">
-        <v>915600</v>
+        <v>969800</v>
       </c>
       <c r="I47" s="3">
-        <v>933300</v>
+        <v>953400</v>
       </c>
       <c r="J47" s="3">
+        <v>971800</v>
+      </c>
+      <c r="K47" s="3">
         <v>914300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>959400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>934000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>909800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>838400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>797200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>819700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1127300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1147200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1464800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1429700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>361000</v>
+        <v>391500</v>
       </c>
       <c r="E48" s="3">
-        <v>342400</v>
+        <v>375900</v>
       </c>
       <c r="F48" s="3">
-        <v>333900</v>
+        <v>356600</v>
       </c>
       <c r="G48" s="3">
-        <v>319800</v>
+        <v>347700</v>
       </c>
       <c r="H48" s="3">
-        <v>281900</v>
+        <v>333000</v>
       </c>
       <c r="I48" s="3">
-        <v>274700</v>
+        <v>293600</v>
       </c>
       <c r="J48" s="3">
+        <v>286000</v>
+      </c>
+      <c r="K48" s="3">
         <v>257500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>268100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>228800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>186700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>163600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>153000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>156300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>162700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>154500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>266800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>263500</v>
+      </c>
+      <c r="H49" s="3">
         <v>260200</v>
       </c>
-      <c r="E49" s="3">
-        <v>256300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>253100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>249900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>235900</v>
-      </c>
       <c r="I49" s="3">
-        <v>234800</v>
+        <v>245600</v>
       </c>
       <c r="J49" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K49" s="3">
         <v>218900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>209300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>190700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>178400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>156900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>143500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>139800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>131100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>244600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>130800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="E52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>27400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>28600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="R52" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S52" s="3">
+        <v>18200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="U52" s="3">
+        <v>22000</v>
+      </c>
+      <c r="V52" s="3">
         <v>14400</v>
       </c>
-      <c r="F52" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>17500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>26000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>27400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>28600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>26600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>25300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>25800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>19000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>18200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>20200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>22000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2623300</v>
+        <v>2911300</v>
       </c>
       <c r="E54" s="3">
-        <v>2594800</v>
+        <v>2731700</v>
       </c>
       <c r="F54" s="3">
-        <v>2615600</v>
+        <v>2702000</v>
       </c>
       <c r="G54" s="3">
-        <v>2654400</v>
+        <v>2723600</v>
       </c>
       <c r="H54" s="3">
-        <v>2558800</v>
+        <v>2764100</v>
       </c>
       <c r="I54" s="3">
-        <v>2584300</v>
+        <v>2664500</v>
       </c>
       <c r="J54" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2421200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2326600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2186000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2104100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2320900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2265400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2442800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2353700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2402200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2536900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146500</v>
+        <v>185600</v>
       </c>
       <c r="E57" s="3">
-        <v>137300</v>
+        <v>152500</v>
       </c>
       <c r="F57" s="3">
-        <v>152900</v>
+        <v>143000</v>
       </c>
       <c r="G57" s="3">
-        <v>155600</v>
+        <v>159300</v>
       </c>
       <c r="H57" s="3">
-        <v>140800</v>
+        <v>162100</v>
       </c>
       <c r="I57" s="3">
-        <v>127500</v>
+        <v>146600</v>
       </c>
       <c r="J57" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K57" s="3">
         <v>110000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>110100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>95400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>115000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>109100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>94500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>89000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>81000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>95100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>88500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>71500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3348,20 +3482,20 @@
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3">
-        <v>8200</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="3">
         <v>8400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>253800</v>
+        <v>236500</v>
       </c>
       <c r="E59" s="3">
-        <v>250400</v>
+        <v>264300</v>
       </c>
       <c r="F59" s="3">
-        <v>238300</v>
+        <v>260700</v>
       </c>
       <c r="G59" s="3">
-        <v>214400</v>
+        <v>248100</v>
       </c>
       <c r="H59" s="3">
-        <v>228100</v>
+        <v>223300</v>
       </c>
       <c r="I59" s="3">
-        <v>200300</v>
+        <v>237500</v>
       </c>
       <c r="J59" s="3">
+        <v>208600</v>
+      </c>
+      <c r="K59" s="3">
         <v>184800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>120100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>66900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400300</v>
+        <v>422100</v>
       </c>
       <c r="E60" s="3">
-        <v>387700</v>
+        <v>416800</v>
       </c>
       <c r="F60" s="3">
-        <v>391200</v>
+        <v>403700</v>
       </c>
       <c r="G60" s="3">
-        <v>370100</v>
+        <v>407400</v>
       </c>
       <c r="H60" s="3">
-        <v>377100</v>
+        <v>385400</v>
       </c>
       <c r="I60" s="3">
-        <v>327800</v>
+        <v>392700</v>
       </c>
       <c r="J60" s="3">
+        <v>341400</v>
+      </c>
+      <c r="K60" s="3">
         <v>294800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>238600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>229800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>181100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>171400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>154200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>169900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>155900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>160600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>146100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>138400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3526,20 +3669,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>21500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3567,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41100</v>
+        <v>48200</v>
       </c>
       <c r="E62" s="3">
-        <v>40400</v>
+        <v>42800</v>
       </c>
       <c r="F62" s="3">
+        <v>42000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44400</v>
+      </c>
+      <c r="H62" s="3">
         <v>42600</v>
       </c>
-      <c r="G62" s="3">
-        <v>40900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>23700</v>
-      </c>
       <c r="I62" s="3">
-        <v>35600</v>
+        <v>24700</v>
       </c>
       <c r="J62" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K62" s="3">
         <v>35500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>441400</v>
+        <v>470300</v>
       </c>
       <c r="E66" s="3">
-        <v>428000</v>
+        <v>459600</v>
       </c>
       <c r="F66" s="3">
-        <v>433800</v>
+        <v>445700</v>
       </c>
       <c r="G66" s="3">
-        <v>411000</v>
+        <v>451800</v>
       </c>
       <c r="H66" s="3">
-        <v>419400</v>
+        <v>427900</v>
       </c>
       <c r="I66" s="3">
-        <v>363400</v>
+        <v>436700</v>
       </c>
       <c r="J66" s="3">
+        <v>378400</v>
+      </c>
+      <c r="K66" s="3">
         <v>330300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>274800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>198000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>171700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>175100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>162600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>155400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4292,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2262400</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="3">
-        <v>2332000</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>2355900</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>2285300</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2428300</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>2379700</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
         <v>2409100</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2266900</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2370200</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2350700</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2272000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2256200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2271900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2336100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2227800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2312600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2090900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2051900</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1941800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1906100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2133700</v>
+      </c>
+      <c r="P76" s="3">
+        <v>2095500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>2256900</v>
+      </c>
+      <c r="R76" s="3">
         <v>2181900</v>
       </c>
-      <c r="E76" s="3">
-        <v>2166800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2181800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2243500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2139500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2220900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2090900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2051900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1941800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1906100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2133700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2095500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2256900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2181900</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2227100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2374300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2345400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>93000</v>
+        <v>150000</v>
       </c>
       <c r="E81" s="3">
-        <v>68400</v>
+        <v>96800</v>
       </c>
       <c r="F81" s="3">
-        <v>87200</v>
+        <v>71200</v>
       </c>
       <c r="G81" s="3">
-        <v>87200</v>
+        <v>90800</v>
       </c>
       <c r="H81" s="3">
-        <v>123000</v>
+        <v>90800</v>
       </c>
       <c r="I81" s="3">
-        <v>62900</v>
+        <v>128000</v>
       </c>
       <c r="J81" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K81" s="3">
         <v>143100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>271800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>173400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28900</v>
+        <v>24400</v>
       </c>
       <c r="E83" s="3">
-        <v>24900</v>
+        <v>30100</v>
       </c>
       <c r="F83" s="3">
-        <v>28400</v>
+        <v>26000</v>
       </c>
       <c r="G83" s="3">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="H83" s="3">
-        <v>28900</v>
+        <v>23500</v>
       </c>
       <c r="I83" s="3">
-        <v>22500</v>
+        <v>30100</v>
       </c>
       <c r="J83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K83" s="3">
         <v>20600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>112200</v>
+        <v>141600</v>
       </c>
       <c r="E89" s="3">
-        <v>61100</v>
+        <v>116900</v>
       </c>
       <c r="F89" s="3">
-        <v>41800</v>
+        <v>63700</v>
       </c>
       <c r="G89" s="3">
-        <v>95800</v>
+        <v>43500</v>
       </c>
       <c r="H89" s="3">
-        <v>246200</v>
+        <v>99800</v>
       </c>
       <c r="I89" s="3">
-        <v>110700</v>
+        <v>256400</v>
       </c>
       <c r="J89" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K89" s="3">
         <v>156800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39800</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
-        <v>-22100</v>
+        <v>-41400</v>
       </c>
       <c r="F91" s="3">
-        <v>-22200</v>
+        <v>-23000</v>
       </c>
       <c r="G91" s="3">
-        <v>-28200</v>
+        <v>-23100</v>
       </c>
       <c r="H91" s="3">
-        <v>-19700</v>
+        <v>-29400</v>
       </c>
       <c r="I91" s="3">
-        <v>-12000</v>
+        <v>-20500</v>
       </c>
       <c r="J91" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>50700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-57400</v>
+        <v>-33000</v>
       </c>
       <c r="E94" s="3">
-        <v>-32500</v>
+        <v>-59800</v>
       </c>
       <c r="F94" s="3">
-        <v>-32500</v>
+        <v>-33900</v>
       </c>
       <c r="G94" s="3">
-        <v>-47300</v>
+        <v>-33800</v>
       </c>
       <c r="H94" s="3">
-        <v>-37400</v>
+        <v>-49200</v>
       </c>
       <c r="I94" s="3">
-        <v>-9500</v>
+        <v>-38900</v>
       </c>
       <c r="J94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>469800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>266200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5328,32 +5562,32 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-115400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-58500</v>
-      </c>
       <c r="I96" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-58100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5373,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34900</v>
+        <v>-48100</v>
       </c>
       <c r="E100" s="3">
-        <v>-32600</v>
+        <v>-36300</v>
       </c>
       <c r="F100" s="3">
-        <v>-125800</v>
+        <v>-34000</v>
       </c>
       <c r="G100" s="3">
-        <v>-7200</v>
+        <v>-131000</v>
       </c>
       <c r="H100" s="3">
-        <v>-184900</v>
+        <v>-7500</v>
       </c>
       <c r="I100" s="3">
+        <v>-192500</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-57200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-452700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-83400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-111500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-87700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13200</v>
+        <v>16200</v>
       </c>
       <c r="E101" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
-        <v>2200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-5100</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
-        <v>-9600</v>
+        <v>-5300</v>
       </c>
       <c r="I101" s="3">
-        <v>15900</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>9600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6700</v>
+        <v>76700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2400</v>
+        <v>7000</v>
       </c>
       <c r="F102" s="3">
-        <v>-114300</v>
+        <v>-2500</v>
       </c>
       <c r="G102" s="3">
-        <v>36300</v>
+        <v>-119100</v>
       </c>
       <c r="H102" s="3">
-        <v>20900</v>
+        <v>37800</v>
       </c>
       <c r="I102" s="3">
-        <v>116000</v>
+        <v>21800</v>
       </c>
       <c r="J102" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K102" s="3">
         <v>81200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-456100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-98700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-104700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>349200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>161400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>482600</v>
+        <v>460000</v>
       </c>
       <c r="E8" s="3">
-        <v>424600</v>
+        <v>404600</v>
       </c>
       <c r="F8" s="3">
-        <v>385400</v>
+        <v>367300</v>
       </c>
       <c r="G8" s="3">
-        <v>418700</v>
+        <v>399000</v>
       </c>
       <c r="H8" s="3">
-        <v>398200</v>
+        <v>379500</v>
       </c>
       <c r="I8" s="3">
-        <v>422000</v>
+        <v>402200</v>
       </c>
       <c r="J8" s="3">
-        <v>332200</v>
+        <v>316600</v>
       </c>
       <c r="K8" s="3">
         <v>306100</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>243700</v>
+        <v>232300</v>
       </c>
       <c r="E9" s="3">
-        <v>232700</v>
+        <v>221800</v>
       </c>
       <c r="F9" s="3">
-        <v>193000</v>
+        <v>183900</v>
       </c>
       <c r="G9" s="3">
-        <v>216500</v>
+        <v>206300</v>
       </c>
       <c r="H9" s="3">
-        <v>220900</v>
+        <v>210500</v>
       </c>
       <c r="I9" s="3">
-        <v>238000</v>
+        <v>226800</v>
       </c>
       <c r="J9" s="3">
-        <v>191400</v>
+        <v>182400</v>
       </c>
       <c r="K9" s="3">
         <v>175200</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>238900</v>
+        <v>227700</v>
       </c>
       <c r="E10" s="3">
-        <v>191800</v>
+        <v>182800</v>
       </c>
       <c r="F10" s="3">
-        <v>192400</v>
+        <v>183400</v>
       </c>
       <c r="G10" s="3">
-        <v>202200</v>
+        <v>192700</v>
       </c>
       <c r="H10" s="3">
-        <v>177400</v>
+        <v>169000</v>
       </c>
       <c r="I10" s="3">
-        <v>184000</v>
+        <v>175400</v>
       </c>
       <c r="J10" s="3">
-        <v>140800</v>
+        <v>134200</v>
       </c>
       <c r="K10" s="3">
         <v>130900</v>
@@ -969,25 +969,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J12" s="3">
         <v>31000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>35300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>33300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>32100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>31200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>32500</v>
       </c>
       <c r="K12" s="3">
         <v>23900</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-64000</v>
+        <v>-61000</v>
       </c>
       <c r="J14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>-121200</v>
@@ -1155,25 +1155,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F15" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="G15" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H15" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I15" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J15" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K15" s="3">
         <v>4000</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>330100</v>
+        <v>314600</v>
       </c>
       <c r="E17" s="3">
-        <v>329600</v>
+        <v>314100</v>
       </c>
       <c r="F17" s="3">
-        <v>282500</v>
+        <v>269300</v>
       </c>
       <c r="G17" s="3">
-        <v>311400</v>
+        <v>296800</v>
       </c>
       <c r="H17" s="3">
-        <v>302600</v>
+        <v>288400</v>
       </c>
       <c r="I17" s="3">
-        <v>261700</v>
+        <v>249400</v>
       </c>
       <c r="J17" s="3">
-        <v>270100</v>
+        <v>257400</v>
       </c>
       <c r="K17" s="3">
         <v>129500</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>152500</v>
+        <v>145400</v>
       </c>
       <c r="E18" s="3">
-        <v>94900</v>
+        <v>90500</v>
       </c>
       <c r="F18" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="G18" s="3">
-        <v>107300</v>
+        <v>102200</v>
       </c>
       <c r="H18" s="3">
-        <v>95600</v>
+        <v>91200</v>
       </c>
       <c r="I18" s="3">
-        <v>160300</v>
+        <v>152800</v>
       </c>
       <c r="J18" s="3">
-        <v>62100</v>
+        <v>59200</v>
       </c>
       <c r="K18" s="3">
         <v>176600</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32600</v>
+        <v>31000</v>
       </c>
       <c r="E20" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F20" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="G20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="I20" s="3">
-        <v>-13500</v>
+        <v>-12800</v>
       </c>
       <c r="J20" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="K20" s="3">
         <v>-7000</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>209400</v>
+        <v>199600</v>
       </c>
       <c r="E21" s="3">
-        <v>134900</v>
+        <v>128500</v>
       </c>
       <c r="F21" s="3">
-        <v>114800</v>
+        <v>109400</v>
       </c>
       <c r="G21" s="3">
-        <v>138200</v>
+        <v>131700</v>
       </c>
       <c r="H21" s="3">
-        <v>130400</v>
+        <v>124300</v>
       </c>
       <c r="I21" s="3">
-        <v>177100</v>
+        <v>168800</v>
       </c>
       <c r="J21" s="3">
-        <v>106100</v>
+        <v>101200</v>
       </c>
       <c r="K21" s="3">
         <v>190100</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185100</v>
+        <v>176400</v>
       </c>
       <c r="E23" s="3">
-        <v>104800</v>
+        <v>99800</v>
       </c>
       <c r="F23" s="3">
-        <v>88900</v>
+        <v>84700</v>
       </c>
       <c r="G23" s="3">
-        <v>108600</v>
+        <v>103500</v>
       </c>
       <c r="H23" s="3">
-        <v>107000</v>
+        <v>101900</v>
       </c>
       <c r="I23" s="3">
-        <v>146800</v>
+        <v>139900</v>
       </c>
       <c r="J23" s="3">
-        <v>82700</v>
+        <v>78900</v>
       </c>
       <c r="K23" s="3">
         <v>169600</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35100</v>
+        <v>33400</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="F24" s="3">
-        <v>17700</v>
+        <v>16900</v>
       </c>
       <c r="G24" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="H24" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="I24" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="J24" s="3">
-        <v>17300</v>
+        <v>16400</v>
       </c>
       <c r="K24" s="3">
         <v>26600</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="E26" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="F26" s="3">
-        <v>71200</v>
+        <v>67800</v>
       </c>
       <c r="G26" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="H26" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="I26" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="J26" s="3">
-        <v>65500</v>
+        <v>62400</v>
       </c>
       <c r="K26" s="3">
         <v>143100</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="E27" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="F27" s="3">
-        <v>71200</v>
+        <v>67800</v>
       </c>
       <c r="G27" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="H27" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="I27" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="J27" s="3">
-        <v>65500</v>
+        <v>62400</v>
       </c>
       <c r="K27" s="3">
         <v>143100</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32600</v>
+        <v>-31000</v>
       </c>
       <c r="E32" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F32" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="I32" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="J32" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="K32" s="3">
         <v>7000</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="E33" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="F33" s="3">
-        <v>71200</v>
+        <v>67800</v>
       </c>
       <c r="G33" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="H33" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="I33" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="J33" s="3">
-        <v>65500</v>
+        <v>62400</v>
       </c>
       <c r="K33" s="3">
         <v>143100</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="E35" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="F35" s="3">
-        <v>71200</v>
+        <v>67800</v>
       </c>
       <c r="G35" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="H35" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="I35" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="J35" s="3">
-        <v>65500</v>
+        <v>62400</v>
       </c>
       <c r="K35" s="3">
         <v>143100</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>609900</v>
+        <v>581200</v>
       </c>
       <c r="E41" s="3">
-        <v>533100</v>
+        <v>508100</v>
       </c>
       <c r="F41" s="3">
-        <v>526100</v>
+        <v>501400</v>
       </c>
       <c r="G41" s="3">
-        <v>528600</v>
+        <v>503800</v>
       </c>
       <c r="H41" s="3">
-        <v>647700</v>
+        <v>617200</v>
       </c>
       <c r="I41" s="3">
-        <v>609900</v>
+        <v>581200</v>
       </c>
       <c r="J41" s="3">
-        <v>588100</v>
+        <v>560500</v>
       </c>
       <c r="K41" s="3">
         <v>448800</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>377400</v>
+        <v>359600</v>
       </c>
       <c r="E43" s="3">
-        <v>343700</v>
+        <v>327600</v>
       </c>
       <c r="F43" s="3">
-        <v>315100</v>
+        <v>300300</v>
       </c>
       <c r="G43" s="3">
-        <v>300300</v>
+        <v>286200</v>
       </c>
       <c r="H43" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="I43" s="3">
-        <v>245900</v>
+        <v>234400</v>
       </c>
       <c r="J43" s="3">
-        <v>298400</v>
+        <v>284400</v>
       </c>
       <c r="K43" s="3">
         <v>309100</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>208900</v>
+        <v>199000</v>
       </c>
       <c r="E44" s="3">
-        <v>198700</v>
+        <v>189400</v>
       </c>
       <c r="F44" s="3">
-        <v>216100</v>
+        <v>206000</v>
       </c>
       <c r="G44" s="3">
-        <v>215400</v>
+        <v>205300</v>
       </c>
       <c r="H44" s="3">
-        <v>198700</v>
+        <v>189300</v>
       </c>
       <c r="I44" s="3">
-        <v>212200</v>
+        <v>202200</v>
       </c>
       <c r="J44" s="3">
-        <v>216800</v>
+        <v>206600</v>
       </c>
       <c r="K44" s="3">
         <v>200400</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65000</v>
+        <v>62000</v>
       </c>
       <c r="E45" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="F45" s="3">
-        <v>91600</v>
+        <v>87300</v>
       </c>
       <c r="G45" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="H45" s="3">
-        <v>108300</v>
+        <v>103200</v>
       </c>
       <c r="I45" s="3">
-        <v>90000</v>
+        <v>85800</v>
       </c>
       <c r="J45" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="K45" s="3">
         <v>54600</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1261100</v>
+        <v>1201800</v>
       </c>
       <c r="E46" s="3">
-        <v>1164900</v>
+        <v>1110200</v>
       </c>
       <c r="F46" s="3">
-        <v>1149000</v>
+        <v>1095000</v>
       </c>
       <c r="G46" s="3">
-        <v>1146600</v>
+        <v>1092700</v>
       </c>
       <c r="H46" s="3">
-        <v>1186100</v>
+        <v>1130300</v>
       </c>
       <c r="I46" s="3">
-        <v>1158000</v>
+        <v>1103500</v>
       </c>
       <c r="J46" s="3">
-        <v>1170100</v>
+        <v>1115100</v>
       </c>
       <c r="K46" s="3">
         <v>1013000</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>957400</v>
+        <v>912400</v>
       </c>
       <c r="E47" s="3">
-        <v>909800</v>
+        <v>867100</v>
       </c>
       <c r="F47" s="3">
-        <v>914600</v>
+        <v>871600</v>
       </c>
       <c r="G47" s="3">
-        <v>950700</v>
+        <v>906100</v>
       </c>
       <c r="H47" s="3">
-        <v>969800</v>
+        <v>924200</v>
       </c>
       <c r="I47" s="3">
-        <v>953400</v>
+        <v>908600</v>
       </c>
       <c r="J47" s="3">
-        <v>971800</v>
+        <v>926100</v>
       </c>
       <c r="K47" s="3">
         <v>914300</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>391500</v>
+        <v>373100</v>
       </c>
       <c r="E48" s="3">
-        <v>375900</v>
+        <v>358200</v>
       </c>
       <c r="F48" s="3">
-        <v>356600</v>
+        <v>339800</v>
       </c>
       <c r="G48" s="3">
-        <v>347700</v>
+        <v>331400</v>
       </c>
       <c r="H48" s="3">
-        <v>333000</v>
+        <v>317300</v>
       </c>
       <c r="I48" s="3">
-        <v>293600</v>
+        <v>279800</v>
       </c>
       <c r="J48" s="3">
-        <v>286000</v>
+        <v>272600</v>
       </c>
       <c r="K48" s="3">
         <v>257500</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>291400</v>
+        <v>277700</v>
       </c>
       <c r="E49" s="3">
-        <v>271000</v>
+        <v>258200</v>
       </c>
       <c r="F49" s="3">
-        <v>266800</v>
+        <v>254300</v>
       </c>
       <c r="G49" s="3">
-        <v>263500</v>
+        <v>251100</v>
       </c>
       <c r="H49" s="3">
-        <v>260200</v>
+        <v>248000</v>
       </c>
       <c r="I49" s="3">
-        <v>245600</v>
+        <v>234100</v>
       </c>
       <c r="J49" s="3">
-        <v>244500</v>
+        <v>233000</v>
       </c>
       <c r="K49" s="3">
         <v>218900</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="E52" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="F52" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="H52" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="I52" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="J52" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="K52" s="3">
         <v>17500</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2911300</v>
+        <v>2774500</v>
       </c>
       <c r="E54" s="3">
-        <v>2731700</v>
+        <v>2603300</v>
       </c>
       <c r="F54" s="3">
-        <v>2702000</v>
+        <v>2575000</v>
       </c>
       <c r="G54" s="3">
-        <v>2723600</v>
+        <v>2595600</v>
       </c>
       <c r="H54" s="3">
-        <v>2764100</v>
+        <v>2634100</v>
       </c>
       <c r="I54" s="3">
-        <v>2664500</v>
+        <v>2539300</v>
       </c>
       <c r="J54" s="3">
-        <v>2691000</v>
+        <v>2564500</v>
       </c>
       <c r="K54" s="3">
         <v>2421200</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185600</v>
+        <v>176900</v>
       </c>
       <c r="E57" s="3">
-        <v>152500</v>
+        <v>145400</v>
       </c>
       <c r="F57" s="3">
-        <v>143000</v>
+        <v>136300</v>
       </c>
       <c r="G57" s="3">
-        <v>159300</v>
+        <v>151800</v>
       </c>
       <c r="H57" s="3">
-        <v>162100</v>
+        <v>154400</v>
       </c>
       <c r="I57" s="3">
-        <v>146600</v>
+        <v>139800</v>
       </c>
       <c r="J57" s="3">
-        <v>132700</v>
+        <v>126500</v>
       </c>
       <c r="K57" s="3">
         <v>110000</v>
@@ -3486,7 +3486,7 @@
         <v>11</v>
       </c>
       <c r="I58" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>236500</v>
+        <v>225300</v>
       </c>
       <c r="E59" s="3">
-        <v>264300</v>
+        <v>251900</v>
       </c>
       <c r="F59" s="3">
-        <v>260700</v>
+        <v>248500</v>
       </c>
       <c r="G59" s="3">
-        <v>248100</v>
+        <v>236400</v>
       </c>
       <c r="H59" s="3">
-        <v>223300</v>
+        <v>212800</v>
       </c>
       <c r="I59" s="3">
-        <v>237500</v>
+        <v>226300</v>
       </c>
       <c r="J59" s="3">
-        <v>208600</v>
+        <v>198800</v>
       </c>
       <c r="K59" s="3">
         <v>184800</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>422100</v>
+        <v>402200</v>
       </c>
       <c r="E60" s="3">
-        <v>416800</v>
+        <v>397200</v>
       </c>
       <c r="F60" s="3">
-        <v>403700</v>
+        <v>384700</v>
       </c>
       <c r="G60" s="3">
-        <v>407400</v>
+        <v>388200</v>
       </c>
       <c r="H60" s="3">
-        <v>385400</v>
+        <v>367200</v>
       </c>
       <c r="I60" s="3">
-        <v>392700</v>
+        <v>374200</v>
       </c>
       <c r="J60" s="3">
-        <v>341400</v>
+        <v>325300</v>
       </c>
       <c r="K60" s="3">
         <v>294800</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48200</v>
+        <v>46000</v>
       </c>
       <c r="E62" s="3">
-        <v>42800</v>
+        <v>40800</v>
       </c>
       <c r="F62" s="3">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="3">
-        <v>44400</v>
+        <v>42300</v>
       </c>
       <c r="H62" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="I62" s="3">
-        <v>24700</v>
+        <v>23500</v>
       </c>
       <c r="J62" s="3">
-        <v>37000</v>
+        <v>35300</v>
       </c>
       <c r="K62" s="3">
         <v>35500</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>470300</v>
+        <v>448200</v>
       </c>
       <c r="E66" s="3">
-        <v>459600</v>
+        <v>438000</v>
       </c>
       <c r="F66" s="3">
-        <v>445700</v>
+        <v>424800</v>
       </c>
       <c r="G66" s="3">
-        <v>451800</v>
+        <v>430500</v>
       </c>
       <c r="H66" s="3">
-        <v>427900</v>
+        <v>407800</v>
       </c>
       <c r="I66" s="3">
-        <v>436700</v>
+        <v>416200</v>
       </c>
       <c r="J66" s="3">
-        <v>378400</v>
+        <v>360600</v>
       </c>
       <c r="K66" s="3">
         <v>330300</v>
@@ -4304,19 +4304,19 @@
         <v>11</v>
       </c>
       <c r="E72" s="3">
-        <v>2355900</v>
+        <v>2245200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>2428300</v>
+        <v>2314200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="3">
-        <v>2379700</v>
+        <v>2267800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2441000</v>
+        <v>2326300</v>
       </c>
       <c r="E76" s="3">
-        <v>2272000</v>
+        <v>2165200</v>
       </c>
       <c r="F76" s="3">
-        <v>2256200</v>
+        <v>2150200</v>
       </c>
       <c r="G76" s="3">
-        <v>2271900</v>
+        <v>2165100</v>
       </c>
       <c r="H76" s="3">
-        <v>2336100</v>
+        <v>2226300</v>
       </c>
       <c r="I76" s="3">
-        <v>2227800</v>
+        <v>2123100</v>
       </c>
       <c r="J76" s="3">
-        <v>2312600</v>
+        <v>2203900</v>
       </c>
       <c r="K76" s="3">
         <v>2090900</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="E81" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="F81" s="3">
-        <v>71200</v>
+        <v>67800</v>
       </c>
       <c r="G81" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="H81" s="3">
-        <v>90800</v>
+        <v>86500</v>
       </c>
       <c r="I81" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="J81" s="3">
-        <v>65500</v>
+        <v>62400</v>
       </c>
       <c r="K81" s="3">
         <v>143100</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24400</v>
+        <v>23200</v>
       </c>
       <c r="E83" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="F83" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="G83" s="3">
-        <v>29500</v>
+        <v>28100</v>
       </c>
       <c r="H83" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="I83" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="J83" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="K83" s="3">
         <v>20600</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>141600</v>
+        <v>135000</v>
       </c>
       <c r="E89" s="3">
-        <v>116900</v>
+        <v>111400</v>
       </c>
       <c r="F89" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="G89" s="3">
-        <v>43500</v>
+        <v>41500</v>
       </c>
       <c r="H89" s="3">
-        <v>99800</v>
+        <v>95100</v>
       </c>
       <c r="I89" s="3">
-        <v>256400</v>
+        <v>244400</v>
       </c>
       <c r="J89" s="3">
-        <v>115300</v>
+        <v>109900</v>
       </c>
       <c r="K89" s="3">
         <v>156800</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-11000</v>
       </c>
       <c r="E91" s="3">
-        <v>-41400</v>
+        <v>-39500</v>
       </c>
       <c r="F91" s="3">
-        <v>-23000</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
-        <v>-23100</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3">
-        <v>-29400</v>
+        <v>-28000</v>
       </c>
       <c r="I91" s="3">
-        <v>-20500</v>
+        <v>-19600</v>
       </c>
       <c r="J91" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="K91" s="3">
         <v>-10800</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33000</v>
+        <v>-31500</v>
       </c>
       <c r="E94" s="3">
-        <v>-59800</v>
+        <v>-57000</v>
       </c>
       <c r="F94" s="3">
-        <v>-33900</v>
+        <v>-32300</v>
       </c>
       <c r="G94" s="3">
-        <v>-33800</v>
+        <v>-32300</v>
       </c>
       <c r="H94" s="3">
-        <v>-49200</v>
+        <v>-46900</v>
       </c>
       <c r="I94" s="3">
-        <v>-38900</v>
+        <v>-37100</v>
       </c>
       <c r="J94" s="3">
-        <v>-9900</v>
+        <v>-9500</v>
       </c>
       <c r="K94" s="3">
         <v>-11600</v>
@@ -5565,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-120200</v>
+        <v>-114500</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-61000</v>
+        <v>-58100</v>
       </c>
       <c r="J96" s="3">
         <v>-200</v>
@@ -5804,22 +5804,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-48100</v>
+        <v>-45800</v>
       </c>
       <c r="E100" s="3">
-        <v>-36300</v>
+        <v>-34600</v>
       </c>
       <c r="F100" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="G100" s="3">
-        <v>-131000</v>
+        <v>-124900</v>
       </c>
       <c r="H100" s="3">
-        <v>-7500</v>
+        <v>-7100</v>
       </c>
       <c r="I100" s="3">
-        <v>-192500</v>
+        <v>-183500</v>
       </c>
       <c r="J100" s="3">
         <v>1300</v>
@@ -5866,25 +5866,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="E101" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-9500</v>
       </c>
       <c r="J101" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="K101" s="3">
         <v>-4600</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76700</v>
+        <v>73100</v>
       </c>
       <c r="E102" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G102" s="3">
-        <v>-119100</v>
+        <v>-113500</v>
       </c>
       <c r="H102" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="I102" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="J102" s="3">
-        <v>120800</v>
+        <v>115100</v>
       </c>
       <c r="K102" s="3">
         <v>81200</v>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>460000</v>
+        <v>488800</v>
       </c>
       <c r="E8" s="3">
-        <v>404600</v>
+        <v>464900</v>
       </c>
       <c r="F8" s="3">
-        <v>367300</v>
+        <v>444900</v>
       </c>
       <c r="G8" s="3">
-        <v>399000</v>
+        <v>391300</v>
       </c>
       <c r="H8" s="3">
-        <v>379500</v>
+        <v>355200</v>
       </c>
       <c r="I8" s="3">
+        <v>385900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>367100</v>
+      </c>
+      <c r="K8" s="3">
         <v>402200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>316600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>306100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>297600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>301300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>231500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>229200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>174600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>230700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>199800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>240700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>184100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>202600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>232300</v>
+        <v>258300</v>
       </c>
       <c r="E9" s="3">
-        <v>221800</v>
+        <v>241400</v>
       </c>
       <c r="F9" s="3">
-        <v>183900</v>
+        <v>224700</v>
       </c>
       <c r="G9" s="3">
-        <v>206300</v>
+        <v>214500</v>
       </c>
       <c r="H9" s="3">
-        <v>210500</v>
+        <v>177900</v>
       </c>
       <c r="I9" s="3">
+        <v>199500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K9" s="3">
         <v>226800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>182400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>175200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>174600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>175600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>136900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>132700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>108500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>140100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>122200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>136100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>104900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>111600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>227700</v>
+        <v>230500</v>
       </c>
       <c r="E10" s="3">
-        <v>182800</v>
+        <v>223500</v>
       </c>
       <c r="F10" s="3">
-        <v>183400</v>
+        <v>220200</v>
       </c>
       <c r="G10" s="3">
-        <v>192700</v>
+        <v>176800</v>
       </c>
       <c r="H10" s="3">
-        <v>169000</v>
+        <v>177400</v>
       </c>
       <c r="I10" s="3">
+        <v>186400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K10" s="3">
         <v>175400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>134200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>130900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>123000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>125700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>94600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>96500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>66100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>90600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>77600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>104600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>79100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>91000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29500</v>
+        <v>36000</v>
       </c>
       <c r="E12" s="3">
-        <v>33600</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>31700</v>
+        <v>28600</v>
       </c>
       <c r="G12" s="3">
-        <v>30600</v>
+        <v>32500</v>
       </c>
       <c r="H12" s="3">
-        <v>29700</v>
+        <v>30700</v>
       </c>
       <c r="I12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K12" s="3">
         <v>31100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>23900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>22400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>18800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>20000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>16700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>21500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>22700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>24600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>28200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,123 +1136,135 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5700</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-61000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-121200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>5400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>4200</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>314600</v>
+        <v>356300</v>
       </c>
       <c r="E17" s="3">
-        <v>314100</v>
+        <v>331200</v>
       </c>
       <c r="F17" s="3">
-        <v>269300</v>
+        <v>304300</v>
       </c>
       <c r="G17" s="3">
-        <v>296800</v>
+        <v>303800</v>
       </c>
       <c r="H17" s="3">
-        <v>288400</v>
+        <v>260400</v>
       </c>
       <c r="I17" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>278900</v>
+      </c>
+      <c r="K17" s="3">
         <v>249400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>257400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>129500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>241300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>246600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>198400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>187100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>161600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>191500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>176500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>192700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>161300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>167400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>145400</v>
+        <v>132500</v>
       </c>
       <c r="E18" s="3">
-        <v>90500</v>
+        <v>133600</v>
       </c>
       <c r="F18" s="3">
-        <v>98000</v>
+        <v>140600</v>
       </c>
       <c r="G18" s="3">
-        <v>102200</v>
+        <v>87500</v>
       </c>
       <c r="H18" s="3">
-        <v>91200</v>
+        <v>94800</v>
       </c>
       <c r="I18" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K18" s="3">
         <v>152800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>59200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>176600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>56300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>54700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>33100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>42000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>39200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>47900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>22700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>35200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31000</v>
+        <v>41600</v>
       </c>
       <c r="E20" s="3">
-        <v>9400</v>
+        <v>15300</v>
       </c>
       <c r="F20" s="3">
-        <v>-13300</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
-        <v>10800</v>
+        <v>-12900</v>
       </c>
       <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>19700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>17100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>28500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>230700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>21400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>128100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>26300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>36000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199600</v>
+        <v>200600</v>
       </c>
       <c r="E21" s="3">
-        <v>128500</v>
+        <v>177200</v>
       </c>
       <c r="F21" s="3">
-        <v>109400</v>
+        <v>193100</v>
       </c>
       <c r="G21" s="3">
-        <v>131700</v>
+        <v>124300</v>
       </c>
       <c r="H21" s="3">
-        <v>124300</v>
+        <v>105800</v>
       </c>
       <c r="I21" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K21" s="3">
         <v>168800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>101200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>190100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>81500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>78800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>66600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>84900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>30400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>287100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>57300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>191400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>62900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>89000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,141 +1637,159 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>11</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>176400</v>
+        <v>174000</v>
       </c>
       <c r="E23" s="3">
-        <v>99800</v>
+        <v>149000</v>
       </c>
       <c r="F23" s="3">
-        <v>84700</v>
+        <v>170600</v>
       </c>
       <c r="G23" s="3">
-        <v>103500</v>
+        <v>96600</v>
       </c>
       <c r="H23" s="3">
-        <v>101900</v>
+        <v>81900</v>
       </c>
       <c r="I23" s="3">
+        <v>100100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K23" s="3">
         <v>139900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>78900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>169600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>61100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>58800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>50200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>70500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>17800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>269900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>176100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>49000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>71200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33400</v>
+        <v>28500</v>
       </c>
       <c r="E24" s="3">
-        <v>7600</v>
+        <v>26600</v>
       </c>
       <c r="F24" s="3">
-        <v>16900</v>
+        <v>32300</v>
       </c>
       <c r="G24" s="3">
-        <v>17000</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>15400</v>
+        <v>16300</v>
       </c>
       <c r="I24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K24" s="3">
         <v>17900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>26600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143000</v>
+        <v>145500</v>
       </c>
       <c r="E26" s="3">
-        <v>92300</v>
+        <v>122400</v>
       </c>
       <c r="F26" s="3">
-        <v>67800</v>
+        <v>138300</v>
       </c>
       <c r="G26" s="3">
-        <v>86500</v>
+        <v>89300</v>
       </c>
       <c r="H26" s="3">
-        <v>86500</v>
+        <v>65600</v>
       </c>
       <c r="I26" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K26" s="3">
         <v>122000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>62400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>143100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>59100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>51700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>46200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>65200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>271800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>41800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>173400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>47400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>72200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143000</v>
+        <v>145500</v>
       </c>
       <c r="E27" s="3">
-        <v>92300</v>
+        <v>122400</v>
       </c>
       <c r="F27" s="3">
-        <v>67800</v>
+        <v>138300</v>
       </c>
       <c r="G27" s="3">
-        <v>86500</v>
+        <v>89300</v>
       </c>
       <c r="H27" s="3">
-        <v>86500</v>
+        <v>65600</v>
       </c>
       <c r="I27" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K27" s="3">
         <v>122000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>62400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>143100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>59100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>51700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>46200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>65200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>271800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>41800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>173400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>47400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>72200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1991,17 +2113,23 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>11</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31000</v>
+        <v>-41600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9400</v>
+        <v>-15300</v>
       </c>
       <c r="F32" s="3">
-        <v>13300</v>
+        <v>-30000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10800</v>
+        <v>12900</v>
       </c>
       <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K32" s="3">
         <v>12800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-19700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-17100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-28500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-230700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-21400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-128100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-26300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-36000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143000</v>
+        <v>145500</v>
       </c>
       <c r="E33" s="3">
-        <v>92300</v>
+        <v>122400</v>
       </c>
       <c r="F33" s="3">
-        <v>67800</v>
+        <v>138300</v>
       </c>
       <c r="G33" s="3">
-        <v>86500</v>
+        <v>89300</v>
       </c>
       <c r="H33" s="3">
-        <v>86500</v>
+        <v>65600</v>
       </c>
       <c r="I33" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K33" s="3">
         <v>122000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>62400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>143100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>59100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>51700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>46200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>65200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>271800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>41800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>173400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>47400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>72200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143000</v>
+        <v>145500</v>
       </c>
       <c r="E35" s="3">
-        <v>92300</v>
+        <v>122400</v>
       </c>
       <c r="F35" s="3">
-        <v>67800</v>
+        <v>138300</v>
       </c>
       <c r="G35" s="3">
-        <v>86500</v>
+        <v>89300</v>
       </c>
       <c r="H35" s="3">
-        <v>86500</v>
+        <v>65600</v>
       </c>
       <c r="I35" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K35" s="3">
         <v>122000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>62400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>143100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>59100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>51700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>46200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>65200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>271800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>41800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>173400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>47400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>72200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>592800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>525200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>562100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>491400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>485000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>487200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>597000</v>
+      </c>
+      <c r="K41" s="3">
         <v>581200</v>
       </c>
-      <c r="E41" s="3">
-        <v>508100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>501400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>503800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>617200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>581200</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>560500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>448800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>373800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>338200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>314200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>715000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>813700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>938500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>589300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>586600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>444800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>443900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2791,490 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>359600</v>
+        <v>421500</v>
       </c>
       <c r="E43" s="3">
-        <v>327600</v>
+        <v>367500</v>
       </c>
       <c r="F43" s="3">
-        <v>300300</v>
+        <v>347800</v>
       </c>
       <c r="G43" s="3">
-        <v>286200</v>
+        <v>316800</v>
       </c>
       <c r="H43" s="3">
-        <v>220500</v>
+        <v>290400</v>
       </c>
       <c r="I43" s="3">
+        <v>276800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>213300</v>
+      </c>
+      <c r="K43" s="3">
         <v>234400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>284400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>309100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>236900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>210400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>210500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>187500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>141400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>184500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>145300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>166600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>121400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>161300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>199000</v>
+        <v>210600</v>
       </c>
       <c r="E44" s="3">
-        <v>189400</v>
+        <v>195100</v>
       </c>
       <c r="F44" s="3">
-        <v>206000</v>
+        <v>192500</v>
       </c>
       <c r="G44" s="3">
-        <v>205300</v>
+        <v>183100</v>
       </c>
       <c r="H44" s="3">
-        <v>189300</v>
+        <v>199200</v>
       </c>
       <c r="I44" s="3">
+        <v>198600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K44" s="3">
         <v>202200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>206600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>208200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>203300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>218400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>183000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>166600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>160300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>168500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>168500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>165800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>131900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62000</v>
+        <v>83600</v>
       </c>
       <c r="E45" s="3">
-        <v>85200</v>
+        <v>88000</v>
       </c>
       <c r="F45" s="3">
-        <v>87300</v>
+        <v>59900</v>
       </c>
       <c r="G45" s="3">
-        <v>97500</v>
+        <v>82400</v>
       </c>
       <c r="H45" s="3">
-        <v>103200</v>
+        <v>84400</v>
       </c>
       <c r="I45" s="3">
+        <v>94300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K45" s="3">
         <v>85800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>63600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>54600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>44900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>53200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>26900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>22800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>30300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>20600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>26800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1201800</v>
+        <v>1308400</v>
       </c>
       <c r="E46" s="3">
-        <v>1110200</v>
+        <v>1175900</v>
       </c>
       <c r="F46" s="3">
-        <v>1095000</v>
+        <v>1162400</v>
       </c>
       <c r="G46" s="3">
-        <v>1092700</v>
+        <v>1073800</v>
       </c>
       <c r="H46" s="3">
-        <v>1130300</v>
+        <v>1059000</v>
       </c>
       <c r="I46" s="3">
+        <v>1056900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1103500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1115100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1013000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>863800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>805100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>765400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1112300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1135800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1304600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>926000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>951900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>752600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>763800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>912400</v>
+        <v>912300</v>
       </c>
       <c r="E47" s="3">
-        <v>867100</v>
+        <v>868300</v>
       </c>
       <c r="F47" s="3">
-        <v>871600</v>
+        <v>882500</v>
       </c>
       <c r="G47" s="3">
-        <v>906100</v>
+        <v>838600</v>
       </c>
       <c r="H47" s="3">
-        <v>924200</v>
+        <v>843000</v>
       </c>
       <c r="I47" s="3">
+        <v>876300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>893900</v>
+      </c>
+      <c r="K47" s="3">
         <v>908600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>926100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>914300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>959400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>934000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>909800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>838400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>797200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>819700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1127300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1147200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1464800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1429700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>373100</v>
+        <v>369100</v>
       </c>
       <c r="E48" s="3">
-        <v>358200</v>
+        <v>358400</v>
       </c>
       <c r="F48" s="3">
-        <v>339800</v>
+        <v>360900</v>
       </c>
       <c r="G48" s="3">
-        <v>331400</v>
+        <v>346400</v>
       </c>
       <c r="H48" s="3">
-        <v>317300</v>
+        <v>328600</v>
       </c>
       <c r="I48" s="3">
+        <v>320500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>306900</v>
+      </c>
+      <c r="K48" s="3">
         <v>279800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>272600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>257500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>268100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>228800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>221800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>186700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>163600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>153000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>150300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>156300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>162700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>154500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>277700</v>
+        <v>299500</v>
       </c>
       <c r="E49" s="3">
-        <v>258200</v>
+        <v>280800</v>
       </c>
       <c r="F49" s="3">
-        <v>254300</v>
+        <v>268600</v>
       </c>
       <c r="G49" s="3">
-        <v>251100</v>
+        <v>249800</v>
       </c>
       <c r="H49" s="3">
-        <v>248000</v>
+        <v>246000</v>
       </c>
       <c r="I49" s="3">
+        <v>242900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>239800</v>
+      </c>
+      <c r="K49" s="3">
         <v>234100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>233000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>218900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>209300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>190700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>178400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>156900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>143500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>139800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>131100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>244600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>136700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>130800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9400</v>
+        <v>10000</v>
       </c>
       <c r="E52" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F52" s="3">
-        <v>14300</v>
+        <v>9100</v>
       </c>
       <c r="G52" s="3">
-        <v>14300</v>
+        <v>9300</v>
       </c>
       <c r="H52" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="I52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K52" s="3">
         <v>13300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>27400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>28600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>25300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>25800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>19000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>20200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>22000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2774500</v>
+        <v>2899300</v>
       </c>
       <c r="E54" s="3">
-        <v>2603300</v>
+        <v>2692700</v>
       </c>
       <c r="F54" s="3">
-        <v>2575000</v>
+        <v>2683400</v>
       </c>
       <c r="G54" s="3">
-        <v>2595600</v>
+        <v>2517800</v>
       </c>
       <c r="H54" s="3">
-        <v>2634100</v>
+        <v>2490500</v>
       </c>
       <c r="I54" s="3">
+        <v>2510400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2547700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2539300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2564500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2421200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2326600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2186000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2104100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2320900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2265400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2442800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2353700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2402200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2536900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2500900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176900</v>
+        <v>177300</v>
       </c>
       <c r="E57" s="3">
-        <v>145400</v>
+        <v>167700</v>
       </c>
       <c r="F57" s="3">
-        <v>136300</v>
+        <v>171100</v>
       </c>
       <c r="G57" s="3">
-        <v>151800</v>
+        <v>140600</v>
       </c>
       <c r="H57" s="3">
-        <v>154400</v>
+        <v>131800</v>
       </c>
       <c r="I57" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K57" s="3">
         <v>139800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>126500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>110000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>110100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>95400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>115000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>109100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>94500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>89000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>81000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>95100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>88500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>71500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3485,23 +3753,23 @@
       <c r="H58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="3">
-        <v>8200</v>
+      <c r="I58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L58" s="3">
-        <v>8400</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
+      <c r="N58" s="3">
+        <v>8400</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
@@ -3509,11 +3777,11 @@
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3527,132 +3795,150 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>225300</v>
+        <v>271600</v>
       </c>
       <c r="E59" s="3">
-        <v>251900</v>
+        <v>225200</v>
       </c>
       <c r="F59" s="3">
-        <v>248500</v>
+        <v>218000</v>
       </c>
       <c r="G59" s="3">
-        <v>236400</v>
+        <v>243600</v>
       </c>
       <c r="H59" s="3">
-        <v>212800</v>
+        <v>240300</v>
       </c>
       <c r="I59" s="3">
+        <v>228700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K59" s="3">
         <v>226300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>198800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>184800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>120100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>134400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>66100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>62200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>59700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>80900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>74900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>65600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>57600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>66900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>402200</v>
+        <v>448900</v>
       </c>
       <c r="E60" s="3">
-        <v>397200</v>
+        <v>392900</v>
       </c>
       <c r="F60" s="3">
-        <v>384700</v>
+        <v>389000</v>
       </c>
       <c r="G60" s="3">
-        <v>388200</v>
+        <v>384200</v>
       </c>
       <c r="H60" s="3">
-        <v>367200</v>
+        <v>372100</v>
       </c>
       <c r="I60" s="3">
+        <v>375500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>355200</v>
+      </c>
+      <c r="K60" s="3">
         <v>374200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>325300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>294800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>238600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>229800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>181100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>171400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>154200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>169900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>155900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>160600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>146100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>138400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3672,23 +3958,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>18400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>21500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3713,70 +3999,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46000</v>
+        <v>57400</v>
       </c>
       <c r="E62" s="3">
-        <v>40800</v>
+        <v>52200</v>
       </c>
       <c r="F62" s="3">
-        <v>40000</v>
+        <v>44500</v>
       </c>
       <c r="G62" s="3">
-        <v>42300</v>
+        <v>39400</v>
       </c>
       <c r="H62" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="I62" s="3">
+        <v>40900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K62" s="3">
         <v>23500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>35300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>35500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>16000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>14500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>16500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>17100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>448200</v>
+        <v>506300</v>
       </c>
       <c r="E66" s="3">
-        <v>438000</v>
+        <v>445100</v>
       </c>
       <c r="F66" s="3">
-        <v>424800</v>
+        <v>433500</v>
       </c>
       <c r="G66" s="3">
-        <v>430500</v>
+        <v>423700</v>
       </c>
       <c r="H66" s="3">
-        <v>407800</v>
+        <v>410800</v>
       </c>
       <c r="I66" s="3">
+        <v>416400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>394400</v>
+      </c>
+      <c r="K66" s="3">
         <v>416200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>360600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>330300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>274800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>244200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>198000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>187300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>169900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>185900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>171700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>175100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>162600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>155400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4652,67 @@
         <v>11</v>
       </c>
       <c r="E72" s="3">
-        <v>2245200</v>
+        <v>2357100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <v>2314200</v>
+        <v>2171500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="3">
-        <v>2267800</v>
+        <v>2238200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K72" s="3">
-        <v>2409100</v>
+        <v>2267800</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M72" s="3">
-        <v>2266900</v>
+        <v>2409100</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O72" s="3">
-        <v>2370200</v>
+        <v>2266900</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="3">
-        <v>2350700</v>
+        <v>2370200</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S72" s="3">
-        <v>2196500</v>
+        <v>2350700</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>11</v>
+      <c r="U72" s="3">
+        <v>2196500</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2326300</v>
+        <v>2393000</v>
       </c>
       <c r="E76" s="3">
-        <v>2165200</v>
+        <v>2247600</v>
       </c>
       <c r="F76" s="3">
-        <v>2150200</v>
+        <v>2250000</v>
       </c>
       <c r="G76" s="3">
-        <v>2165100</v>
+        <v>2094200</v>
       </c>
       <c r="H76" s="3">
-        <v>2226300</v>
+        <v>2079600</v>
       </c>
       <c r="I76" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2153300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2123100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2203900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2090900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2051900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1941800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1906100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2133700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2095500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2256900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2181900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2227100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2374300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2345400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143000</v>
+        <v>145500</v>
       </c>
       <c r="E81" s="3">
-        <v>92300</v>
+        <v>122400</v>
       </c>
       <c r="F81" s="3">
-        <v>67800</v>
+        <v>138300</v>
       </c>
       <c r="G81" s="3">
-        <v>86500</v>
+        <v>89300</v>
       </c>
       <c r="H81" s="3">
-        <v>86500</v>
+        <v>65600</v>
       </c>
       <c r="I81" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K81" s="3">
         <v>122000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>62400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>143100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>59100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>51700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>46200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>65200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>271800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>41800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>173400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>47400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>72200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23200</v>
+        <v>26600</v>
       </c>
       <c r="E83" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K83" s="3">
         <v>28700</v>
       </c>
-      <c r="F83" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>28100</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>22400</v>
       </c>
-      <c r="I83" s="3">
-        <v>28700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>22400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>17200</v>
       </c>
       <c r="R83" s="3">
         <v>12600</v>
       </c>
       <c r="S83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="U83" s="3">
         <v>15300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>17800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135000</v>
+        <v>135900</v>
       </c>
       <c r="E89" s="3">
-        <v>111400</v>
+        <v>90800</v>
       </c>
       <c r="F89" s="3">
-        <v>60700</v>
+        <v>130500</v>
       </c>
       <c r="G89" s="3">
-        <v>41500</v>
+        <v>107700</v>
       </c>
       <c r="H89" s="3">
-        <v>95100</v>
+        <v>58700</v>
       </c>
       <c r="I89" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K89" s="3">
         <v>244400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>109900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>156800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>62400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>110000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>36800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>33700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>49200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>9800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>39200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>34000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11000</v>
+        <v>-19100</v>
       </c>
       <c r="E91" s="3">
-        <v>-39500</v>
+        <v>-14700</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-10700</v>
       </c>
       <c r="G91" s="3">
-        <v>-22000</v>
+        <v>-38200</v>
       </c>
       <c r="H91" s="3">
-        <v>-28000</v>
+        <v>-21200</v>
       </c>
       <c r="I91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-22500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-24500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-13800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-9500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-19000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-16400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>50700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31500</v>
+        <v>-25800</v>
       </c>
       <c r="E94" s="3">
-        <v>-57000</v>
+        <v>-13100</v>
       </c>
       <c r="F94" s="3">
-        <v>-32300</v>
+        <v>-30400</v>
       </c>
       <c r="G94" s="3">
-        <v>-32300</v>
+        <v>-55100</v>
       </c>
       <c r="H94" s="3">
-        <v>-46900</v>
+        <v>-31200</v>
       </c>
       <c r="I94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-37100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>469800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>266200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-16400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-9200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,41 +6027,41 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-109400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-114500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-58100</v>
+        <v>-110800</v>
       </c>
       <c r="J96" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-58100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-58100</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-45800</v>
+        <v>-50900</v>
       </c>
       <c r="E100" s="3">
-        <v>-34600</v>
+        <v>-111800</v>
       </c>
       <c r="F100" s="3">
-        <v>-32400</v>
+        <v>-44300</v>
       </c>
       <c r="G100" s="3">
-        <v>-124900</v>
+        <v>-33500</v>
       </c>
       <c r="H100" s="3">
-        <v>-7100</v>
+        <v>-31300</v>
       </c>
       <c r="I100" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-183500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-57200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-50100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-452700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-83400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-111500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-150100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-36100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-87700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-27800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-13200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15500</v>
+        <v>8300</v>
       </c>
       <c r="E101" s="3">
-        <v>-13100</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>15800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>9600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-38600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>5800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73100</v>
+        <v>67600</v>
       </c>
       <c r="E102" s="3">
-        <v>6700</v>
+        <v>-37000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2400</v>
+        <v>70700</v>
       </c>
       <c r="G102" s="3">
-        <v>-113500</v>
+        <v>6500</v>
       </c>
       <c r="H102" s="3">
-        <v>36000</v>
+        <v>-2300</v>
       </c>
       <c r="I102" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K102" s="3">
         <v>20700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>115100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>81200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>24000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-456100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-98700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-104700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>349200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>161400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>17800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>488800</v>
+        <v>536000</v>
       </c>
       <c r="E8" s="3">
-        <v>464900</v>
+        <v>472300</v>
       </c>
       <c r="F8" s="3">
-        <v>444900</v>
+        <v>449100</v>
       </c>
       <c r="G8" s="3">
-        <v>391300</v>
+        <v>429800</v>
       </c>
       <c r="H8" s="3">
-        <v>355200</v>
+        <v>378100</v>
       </c>
       <c r="I8" s="3">
-        <v>385900</v>
+        <v>343200</v>
       </c>
       <c r="J8" s="3">
+        <v>372900</v>
+      </c>
+      <c r="K8" s="3">
         <v>367100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>316600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>297600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>301300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>231500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>230700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>199800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>240700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>184100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>202600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>258300</v>
+        <v>283900</v>
       </c>
       <c r="E9" s="3">
-        <v>241400</v>
+        <v>249500</v>
       </c>
       <c r="F9" s="3">
-        <v>224700</v>
+        <v>233200</v>
       </c>
       <c r="G9" s="3">
-        <v>214500</v>
+        <v>217100</v>
       </c>
       <c r="H9" s="3">
-        <v>177900</v>
+        <v>207300</v>
       </c>
       <c r="I9" s="3">
-        <v>199500</v>
+        <v>171800</v>
       </c>
       <c r="J9" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K9" s="3">
         <v>203600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>226800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>182400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>175200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>174600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>175600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>108500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>140100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>104900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>111600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>230500</v>
+        <v>252000</v>
       </c>
       <c r="E10" s="3">
-        <v>223500</v>
+        <v>222700</v>
       </c>
       <c r="F10" s="3">
-        <v>220200</v>
+        <v>215900</v>
       </c>
       <c r="G10" s="3">
-        <v>176800</v>
+        <v>212800</v>
       </c>
       <c r="H10" s="3">
-        <v>177400</v>
+        <v>170800</v>
       </c>
       <c r="I10" s="3">
-        <v>186400</v>
+        <v>171400</v>
       </c>
       <c r="J10" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K10" s="3">
         <v>163500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>175400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>134200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>130900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>123000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>94600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>96500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>66100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>90600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>77600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>104600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>79100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>91000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36000</v>
+        <v>43500</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>34800</v>
       </c>
       <c r="F12" s="3">
-        <v>28600</v>
+        <v>29400</v>
       </c>
       <c r="G12" s="3">
-        <v>32500</v>
+        <v>27600</v>
       </c>
       <c r="H12" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="I12" s="3">
         <v>29600</v>
       </c>
       <c r="J12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K12" s="3">
         <v>28800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-61000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-121200</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>200</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3400</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7000</v>
+        <v>8800</v>
       </c>
       <c r="E15" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="F15" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G15" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H15" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="I15" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="J15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K15" s="3">
         <v>6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4000</v>
       </c>
       <c r="M15" s="3">
         <v>4000</v>
       </c>
       <c r="N15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4200</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>356300</v>
+        <v>392800</v>
       </c>
       <c r="E17" s="3">
-        <v>331200</v>
+        <v>344300</v>
       </c>
       <c r="F17" s="3">
-        <v>304300</v>
+        <v>320000</v>
       </c>
       <c r="G17" s="3">
-        <v>303800</v>
+        <v>294000</v>
       </c>
       <c r="H17" s="3">
-        <v>260400</v>
+        <v>293600</v>
       </c>
       <c r="I17" s="3">
-        <v>287000</v>
+        <v>251600</v>
       </c>
       <c r="J17" s="3">
+        <v>277300</v>
+      </c>
+      <c r="K17" s="3">
         <v>278900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>241300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>246600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>198400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>187100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>161600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>191500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>176500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>161300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>167400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>132500</v>
+        <v>143200</v>
       </c>
       <c r="E18" s="3">
-        <v>133600</v>
+        <v>128000</v>
       </c>
       <c r="F18" s="3">
-        <v>140600</v>
+        <v>129100</v>
       </c>
       <c r="G18" s="3">
-        <v>87500</v>
+        <v>135800</v>
       </c>
       <c r="H18" s="3">
-        <v>94800</v>
+        <v>84600</v>
       </c>
       <c r="I18" s="3">
-        <v>98900</v>
+        <v>91600</v>
       </c>
       <c r="J18" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K18" s="3">
         <v>88200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>176600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>54700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41600</v>
+        <v>31500</v>
       </c>
       <c r="E20" s="3">
-        <v>15300</v>
+        <v>40200</v>
       </c>
       <c r="F20" s="3">
-        <v>30000</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
-        <v>9100</v>
+        <v>29000</v>
       </c>
       <c r="H20" s="3">
-        <v>-12900</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>230700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>128100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200600</v>
+        <v>204300</v>
       </c>
       <c r="E21" s="3">
-        <v>177200</v>
+        <v>193800</v>
       </c>
       <c r="F21" s="3">
-        <v>193100</v>
+        <v>171200</v>
       </c>
       <c r="G21" s="3">
-        <v>124300</v>
+        <v>186500</v>
       </c>
       <c r="H21" s="3">
-        <v>105800</v>
+        <v>120100</v>
       </c>
       <c r="I21" s="3">
-        <v>127400</v>
+        <v>102300</v>
       </c>
       <c r="J21" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K21" s="3">
         <v>120200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>190100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>78800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>287100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>191400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>62900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>89000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1643,8 +1682,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>11</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>11</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174000</v>
+        <v>174700</v>
       </c>
       <c r="E23" s="3">
-        <v>149000</v>
+        <v>168100</v>
       </c>
       <c r="F23" s="3">
-        <v>170600</v>
+        <v>144000</v>
       </c>
       <c r="G23" s="3">
-        <v>96600</v>
+        <v>164800</v>
       </c>
       <c r="H23" s="3">
-        <v>81900</v>
+        <v>93300</v>
       </c>
       <c r="I23" s="3">
-        <v>100100</v>
+        <v>79100</v>
       </c>
       <c r="J23" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K23" s="3">
         <v>98600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>269900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>176100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>71200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="E24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N24" s="3">
         <v>26600</v>
       </c>
-      <c r="F24" s="3">
-        <v>32300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>17900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>16400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>145500</v>
+        <v>147200</v>
       </c>
       <c r="E26" s="3">
-        <v>122400</v>
+        <v>140600</v>
       </c>
       <c r="F26" s="3">
-        <v>138300</v>
+        <v>118300</v>
       </c>
       <c r="G26" s="3">
-        <v>89300</v>
+        <v>133600</v>
       </c>
       <c r="H26" s="3">
-        <v>65600</v>
+        <v>86200</v>
       </c>
       <c r="I26" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K26" s="3">
         <v>83700</v>
       </c>
-      <c r="J26" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>122000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>271800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>173400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>72200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>145500</v>
+        <v>147200</v>
       </c>
       <c r="E27" s="3">
-        <v>122400</v>
+        <v>140600</v>
       </c>
       <c r="F27" s="3">
-        <v>138300</v>
+        <v>118300</v>
       </c>
       <c r="G27" s="3">
-        <v>89300</v>
+        <v>133600</v>
       </c>
       <c r="H27" s="3">
-        <v>65600</v>
+        <v>86200</v>
       </c>
       <c r="I27" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K27" s="3">
         <v>83700</v>
       </c>
-      <c r="J27" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>143100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>271800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>41800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>173400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>72200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2119,8 +2179,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>11</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>11</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41600</v>
+        <v>-31500</v>
       </c>
       <c r="E32" s="3">
-        <v>-15300</v>
+        <v>-40200</v>
       </c>
       <c r="F32" s="3">
-        <v>-30000</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-9100</v>
+        <v>-29000</v>
       </c>
       <c r="H32" s="3">
-        <v>12900</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-230700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-128100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>145500</v>
+        <v>147200</v>
       </c>
       <c r="E33" s="3">
-        <v>122400</v>
+        <v>140600</v>
       </c>
       <c r="F33" s="3">
-        <v>138300</v>
+        <v>118300</v>
       </c>
       <c r="G33" s="3">
-        <v>89300</v>
+        <v>133600</v>
       </c>
       <c r="H33" s="3">
-        <v>65600</v>
+        <v>86200</v>
       </c>
       <c r="I33" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K33" s="3">
         <v>83700</v>
       </c>
-      <c r="J33" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>271800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>41800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>173400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>72200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>145500</v>
+        <v>147200</v>
       </c>
       <c r="E35" s="3">
-        <v>122400</v>
+        <v>140600</v>
       </c>
       <c r="F35" s="3">
-        <v>138300</v>
+        <v>118300</v>
       </c>
       <c r="G35" s="3">
-        <v>89300</v>
+        <v>133600</v>
       </c>
       <c r="H35" s="3">
-        <v>65600</v>
+        <v>86200</v>
       </c>
       <c r="I35" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K35" s="3">
         <v>83700</v>
       </c>
-      <c r="J35" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>271800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>41800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>173400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>72200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>592800</v>
+        <v>536200</v>
       </c>
       <c r="E41" s="3">
-        <v>525200</v>
+        <v>572700</v>
       </c>
       <c r="F41" s="3">
-        <v>562100</v>
+        <v>507400</v>
       </c>
       <c r="G41" s="3">
-        <v>491400</v>
+        <v>543100</v>
       </c>
       <c r="H41" s="3">
-        <v>485000</v>
+        <v>474800</v>
       </c>
       <c r="I41" s="3">
-        <v>487200</v>
+        <v>468600</v>
       </c>
       <c r="J41" s="3">
+        <v>470800</v>
+      </c>
+      <c r="K41" s="3">
         <v>597000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>581200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>560500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>448800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>373800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>338200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>314200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>715000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>813700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>938500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>589300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>586600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>444800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>443900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>421500</v>
+        <v>507600</v>
       </c>
       <c r="E43" s="3">
-        <v>367500</v>
+        <v>407200</v>
       </c>
       <c r="F43" s="3">
-        <v>347800</v>
+        <v>355100</v>
       </c>
       <c r="G43" s="3">
-        <v>316800</v>
+        <v>336100</v>
       </c>
       <c r="H43" s="3">
-        <v>290400</v>
+        <v>306100</v>
       </c>
       <c r="I43" s="3">
-        <v>276800</v>
+        <v>280600</v>
       </c>
       <c r="J43" s="3">
+        <v>267500</v>
+      </c>
+      <c r="K43" s="3">
         <v>213300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>234400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>309100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>236900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>210400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>210500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>187500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>141400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>184500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>145300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>166600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>121400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>161300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>210600</v>
+        <v>231100</v>
       </c>
       <c r="E44" s="3">
-        <v>195100</v>
+        <v>203500</v>
       </c>
       <c r="F44" s="3">
+        <v>188500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>186000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>176900</v>
+      </c>
+      <c r="I44" s="3">
         <v>192500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K44" s="3">
         <v>183100</v>
       </c>
-      <c r="H44" s="3">
-        <v>199200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>198600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>183100</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>202200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>208200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>203300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>218400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>183000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>166600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>160300</v>
-      </c>
-      <c r="T44" s="3">
-        <v>168500</v>
       </c>
       <c r="U44" s="3">
         <v>168500</v>
       </c>
       <c r="V44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="W44" s="3">
         <v>165800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>131900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83600</v>
+        <v>55600</v>
       </c>
       <c r="E45" s="3">
-        <v>88000</v>
+        <v>80800</v>
       </c>
       <c r="F45" s="3">
-        <v>59900</v>
+        <v>85000</v>
       </c>
       <c r="G45" s="3">
-        <v>82400</v>
+        <v>57900</v>
       </c>
       <c r="H45" s="3">
-        <v>84400</v>
+        <v>79600</v>
       </c>
       <c r="I45" s="3">
-        <v>94300</v>
+        <v>81600</v>
       </c>
       <c r="J45" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K45" s="3">
         <v>99800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1308400</v>
+        <v>1330500</v>
       </c>
       <c r="E46" s="3">
-        <v>1175900</v>
+        <v>1264200</v>
       </c>
       <c r="F46" s="3">
-        <v>1162400</v>
+        <v>1136100</v>
       </c>
       <c r="G46" s="3">
-        <v>1073800</v>
+        <v>1123100</v>
       </c>
       <c r="H46" s="3">
-        <v>1059000</v>
+        <v>1037400</v>
       </c>
       <c r="I46" s="3">
-        <v>1056900</v>
+        <v>1023200</v>
       </c>
       <c r="J46" s="3">
+        <v>1021100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1093200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1103500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1115100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1013000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>863800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>805100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>765400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1112300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1135800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1304600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>926000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>951900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>752600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>763800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>912300</v>
+        <v>926000</v>
       </c>
       <c r="E47" s="3">
-        <v>868300</v>
+        <v>881500</v>
       </c>
       <c r="F47" s="3">
-        <v>882500</v>
+        <v>838900</v>
       </c>
       <c r="G47" s="3">
-        <v>838600</v>
+        <v>852600</v>
       </c>
       <c r="H47" s="3">
-        <v>843000</v>
+        <v>810200</v>
       </c>
       <c r="I47" s="3">
-        <v>876300</v>
+        <v>814500</v>
       </c>
       <c r="J47" s="3">
+        <v>846700</v>
+      </c>
+      <c r="K47" s="3">
         <v>893900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>908600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>926100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>914300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>959400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>934000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>909800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>838400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>797200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>819700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1127300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1147200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1464800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1429700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>369100</v>
+        <v>379300</v>
       </c>
       <c r="E48" s="3">
-        <v>358400</v>
+        <v>356600</v>
       </c>
       <c r="F48" s="3">
-        <v>360900</v>
+        <v>346300</v>
       </c>
       <c r="G48" s="3">
-        <v>346400</v>
+        <v>348600</v>
       </c>
       <c r="H48" s="3">
-        <v>328600</v>
+        <v>334700</v>
       </c>
       <c r="I48" s="3">
-        <v>320500</v>
+        <v>317500</v>
       </c>
       <c r="J48" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K48" s="3">
         <v>306900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>279800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>272600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>257500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>268100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>228800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>221800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>186700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>163600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>153000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>150300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>156300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>162700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>154500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>299500</v>
+        <v>312100</v>
       </c>
       <c r="E49" s="3">
-        <v>280800</v>
+        <v>289300</v>
       </c>
       <c r="F49" s="3">
-        <v>268600</v>
+        <v>271300</v>
       </c>
       <c r="G49" s="3">
-        <v>249800</v>
+        <v>259500</v>
       </c>
       <c r="H49" s="3">
-        <v>246000</v>
+        <v>241300</v>
       </c>
       <c r="I49" s="3">
-        <v>242900</v>
+        <v>237600</v>
       </c>
       <c r="J49" s="3">
+        <v>234700</v>
+      </c>
+      <c r="K49" s="3">
         <v>239800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>234100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>233000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>218900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>209300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>190700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>178400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>156900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>143500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>139800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>131100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>244600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>136700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>130800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="E52" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="F52" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G52" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="H52" s="3">
-        <v>13900</v>
+        <v>9000</v>
       </c>
       <c r="I52" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="J52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K52" s="3">
         <v>13800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2899300</v>
+        <v>2957600</v>
       </c>
       <c r="E54" s="3">
-        <v>2692700</v>
+        <v>2801200</v>
       </c>
       <c r="F54" s="3">
-        <v>2683400</v>
+        <v>2601600</v>
       </c>
       <c r="G54" s="3">
-        <v>2517800</v>
+        <v>2592700</v>
       </c>
       <c r="H54" s="3">
-        <v>2490500</v>
+        <v>2432700</v>
       </c>
       <c r="I54" s="3">
-        <v>2510400</v>
+        <v>2406200</v>
       </c>
       <c r="J54" s="3">
+        <v>2425500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2547700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2539300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2564500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2421200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2326600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2186000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2104100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2320900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2265400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2442800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2353700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2402200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2536900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2500900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177300</v>
+        <v>191400</v>
       </c>
       <c r="E57" s="3">
-        <v>167700</v>
+        <v>171300</v>
       </c>
       <c r="F57" s="3">
-        <v>171100</v>
+        <v>162000</v>
       </c>
       <c r="G57" s="3">
-        <v>140600</v>
+        <v>165300</v>
       </c>
       <c r="H57" s="3">
-        <v>131800</v>
+        <v>135800</v>
       </c>
       <c r="I57" s="3">
-        <v>146800</v>
+        <v>127300</v>
       </c>
       <c r="J57" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K57" s="3">
         <v>149400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>110000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>110100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>95400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>115000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>109100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>94500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>89000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>81000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>95100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>88500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>71500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8200</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="3">
         <v>8400</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>11</v>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271600</v>
+        <v>253400</v>
       </c>
       <c r="E59" s="3">
-        <v>225200</v>
+        <v>262400</v>
       </c>
       <c r="F59" s="3">
-        <v>218000</v>
+        <v>217600</v>
       </c>
       <c r="G59" s="3">
-        <v>243600</v>
+        <v>210600</v>
       </c>
       <c r="H59" s="3">
-        <v>240300</v>
+        <v>235400</v>
       </c>
       <c r="I59" s="3">
-        <v>228700</v>
+        <v>232200</v>
       </c>
       <c r="J59" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K59" s="3">
         <v>205800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>184800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>134400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>74900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>66900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>448900</v>
+        <v>444800</v>
       </c>
       <c r="E60" s="3">
-        <v>392900</v>
+        <v>433700</v>
       </c>
       <c r="F60" s="3">
-        <v>389000</v>
+        <v>379600</v>
       </c>
       <c r="G60" s="3">
-        <v>384200</v>
+        <v>375900</v>
       </c>
       <c r="H60" s="3">
-        <v>372100</v>
+        <v>371200</v>
       </c>
       <c r="I60" s="3">
-        <v>375500</v>
+        <v>359500</v>
       </c>
       <c r="J60" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K60" s="3">
         <v>355200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>374200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>325300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>294800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>238600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>229800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>181100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>171400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>154200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>169900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>155900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>160600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>146100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>138400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3964,20 +4106,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>18400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>21500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57400</v>
+        <v>67200</v>
       </c>
       <c r="E62" s="3">
-        <v>52200</v>
+        <v>55500</v>
       </c>
       <c r="F62" s="3">
-        <v>44500</v>
+        <v>50400</v>
       </c>
       <c r="G62" s="3">
-        <v>39400</v>
+        <v>43000</v>
       </c>
       <c r="H62" s="3">
-        <v>38700</v>
+        <v>38100</v>
       </c>
       <c r="I62" s="3">
-        <v>40900</v>
+        <v>37400</v>
       </c>
       <c r="J62" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K62" s="3">
         <v>39200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>506300</v>
+        <v>512000</v>
       </c>
       <c r="E66" s="3">
-        <v>445100</v>
+        <v>489200</v>
       </c>
       <c r="F66" s="3">
-        <v>433500</v>
+        <v>430000</v>
       </c>
       <c r="G66" s="3">
-        <v>423700</v>
+        <v>418800</v>
       </c>
       <c r="H66" s="3">
-        <v>410800</v>
+        <v>409300</v>
       </c>
       <c r="I66" s="3">
-        <v>416400</v>
+        <v>396900</v>
       </c>
       <c r="J66" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K66" s="3">
         <v>394400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>416200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>360600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>330300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>274800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>244200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>198000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>185900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>171700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>175100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>162600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>155400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,67 +4813,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>2585300</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3">
-        <v>2357100</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
-        <v>2171500</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
-        <v>2238200</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>2162500</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2267800</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2409100</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2266900</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2370200</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2350700</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>11</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2393000</v>
+        <v>2445600</v>
       </c>
       <c r="E76" s="3">
-        <v>2247600</v>
+        <v>2312100</v>
       </c>
       <c r="F76" s="3">
-        <v>2250000</v>
+        <v>2171600</v>
       </c>
       <c r="G76" s="3">
-        <v>2094200</v>
+        <v>2173900</v>
       </c>
       <c r="H76" s="3">
-        <v>2079600</v>
+        <v>2023300</v>
       </c>
       <c r="I76" s="3">
-        <v>2094000</v>
+        <v>2009300</v>
       </c>
       <c r="J76" s="3">
+        <v>2023200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2153300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2123100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2203900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2090900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2051900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1941800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1906100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2133700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2095500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2256900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2181900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2227100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2374300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2345400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>145500</v>
+        <v>147200</v>
       </c>
       <c r="E81" s="3">
-        <v>122400</v>
+        <v>140600</v>
       </c>
       <c r="F81" s="3">
-        <v>138300</v>
+        <v>118300</v>
       </c>
       <c r="G81" s="3">
-        <v>89300</v>
+        <v>133600</v>
       </c>
       <c r="H81" s="3">
-        <v>65600</v>
+        <v>86200</v>
       </c>
       <c r="I81" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K81" s="3">
         <v>83700</v>
       </c>
-      <c r="J81" s="3">
-        <v>83700</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>271800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>41800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>173400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>72200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26600</v>
+        <v>29600</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="F83" s="3">
-        <v>22500</v>
+        <v>27300</v>
       </c>
       <c r="G83" s="3">
-        <v>27700</v>
+        <v>21700</v>
       </c>
       <c r="H83" s="3">
-        <v>23900</v>
+        <v>26800</v>
       </c>
       <c r="I83" s="3">
-        <v>27200</v>
+        <v>23100</v>
       </c>
       <c r="J83" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>17800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135900</v>
+        <v>70100</v>
       </c>
       <c r="E89" s="3">
-        <v>90800</v>
+        <v>131300</v>
       </c>
       <c r="F89" s="3">
-        <v>130500</v>
+        <v>87700</v>
       </c>
       <c r="G89" s="3">
-        <v>107700</v>
+        <v>126100</v>
       </c>
       <c r="H89" s="3">
-        <v>58700</v>
+        <v>104100</v>
       </c>
       <c r="I89" s="3">
-        <v>40100</v>
+        <v>56700</v>
       </c>
       <c r="J89" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K89" s="3">
         <v>92000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>244400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>109900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>156800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>49200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>34000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19100</v>
+        <v>-35800</v>
       </c>
       <c r="E91" s="3">
-        <v>-14700</v>
+        <v>-18500</v>
       </c>
       <c r="F91" s="3">
-        <v>-10700</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-38200</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
-        <v>-21200</v>
+        <v>-36900</v>
       </c>
       <c r="I91" s="3">
-        <v>-21300</v>
+        <v>-20500</v>
       </c>
       <c r="J91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-27100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>50700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25800</v>
+        <v>-57800</v>
       </c>
       <c r="E94" s="3">
-        <v>-13100</v>
+        <v>-24900</v>
       </c>
       <c r="F94" s="3">
-        <v>-30400</v>
+        <v>-12600</v>
       </c>
       <c r="G94" s="3">
-        <v>-55100</v>
+        <v>-29400</v>
       </c>
       <c r="H94" s="3">
-        <v>-31200</v>
+        <v>-53300</v>
       </c>
       <c r="I94" s="3">
-        <v>-31200</v>
+        <v>-30200</v>
       </c>
       <c r="J94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-45400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>469800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>266200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-109400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-105700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6039,32 +6272,32 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-110800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-58100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-58100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6084,10 +6317,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-50900</v>
+        <v>-62100</v>
       </c>
       <c r="E100" s="3">
-        <v>-111800</v>
+        <v>-49200</v>
       </c>
       <c r="F100" s="3">
-        <v>-44300</v>
+        <v>-108000</v>
       </c>
       <c r="G100" s="3">
-        <v>-33500</v>
+        <v>-42800</v>
       </c>
       <c r="H100" s="3">
-        <v>-31300</v>
+        <v>-32300</v>
       </c>
       <c r="I100" s="3">
-        <v>-120800</v>
+        <v>-30300</v>
       </c>
       <c r="J100" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-183500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-452700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-83400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-111500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-150100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-87700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8300</v>
+        <v>13300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>-2800</v>
       </c>
       <c r="G101" s="3">
-        <v>-12700</v>
+        <v>14500</v>
       </c>
       <c r="H101" s="3">
-        <v>1600</v>
+        <v>-12200</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>9600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-38600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67600</v>
+        <v>-36500</v>
       </c>
       <c r="E102" s="3">
-        <v>-37000</v>
+        <v>65300</v>
       </c>
       <c r="F102" s="3">
-        <v>70700</v>
+        <v>-35700</v>
       </c>
       <c r="G102" s="3">
-        <v>6500</v>
+        <v>68300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2300</v>
+        <v>6200</v>
       </c>
       <c r="I102" s="3">
-        <v>-109700</v>
+        <v>-2200</v>
       </c>
       <c r="J102" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="K102" s="3">
         <v>34800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-456100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-98700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-104700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>349200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>161400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>536000</v>
+        <v>536500</v>
       </c>
       <c r="E8" s="3">
-        <v>472300</v>
+        <v>509900</v>
       </c>
       <c r="F8" s="3">
-        <v>449100</v>
+        <v>449300</v>
       </c>
       <c r="G8" s="3">
-        <v>429800</v>
+        <v>427300</v>
       </c>
       <c r="H8" s="3">
-        <v>378100</v>
+        <v>408900</v>
       </c>
       <c r="I8" s="3">
-        <v>343200</v>
+        <v>359700</v>
       </c>
       <c r="J8" s="3">
+        <v>326500</v>
+      </c>
+      <c r="K8" s="3">
         <v>372900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>367100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>316600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>297600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>301300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>231500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>230700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>199800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>240700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>184100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>202600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>283900</v>
+        <v>280000</v>
       </c>
       <c r="E9" s="3">
-        <v>249500</v>
+        <v>270100</v>
       </c>
       <c r="F9" s="3">
-        <v>233200</v>
+        <v>237400</v>
       </c>
       <c r="G9" s="3">
-        <v>217100</v>
+        <v>221900</v>
       </c>
       <c r="H9" s="3">
-        <v>207300</v>
+        <v>206500</v>
       </c>
       <c r="I9" s="3">
-        <v>171800</v>
+        <v>197200</v>
       </c>
       <c r="J9" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K9" s="3">
         <v>192800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>203600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>226800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>182400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>175200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>174600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>175600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>108500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>140100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>122200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>104900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>111600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>252000</v>
+        <v>256500</v>
       </c>
       <c r="E10" s="3">
-        <v>222700</v>
+        <v>239800</v>
       </c>
       <c r="F10" s="3">
-        <v>215900</v>
+        <v>211900</v>
       </c>
       <c r="G10" s="3">
-        <v>212800</v>
+        <v>205400</v>
       </c>
       <c r="H10" s="3">
-        <v>170800</v>
+        <v>202400</v>
       </c>
       <c r="I10" s="3">
-        <v>171400</v>
+        <v>162500</v>
       </c>
       <c r="J10" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K10" s="3">
         <v>180100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>163500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>134200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>94600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>96500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>66100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>90600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>77600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>104600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>79100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>91000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>43500</v>
+        <v>45100</v>
       </c>
       <c r="E12" s="3">
-        <v>34800</v>
+        <v>41400</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>33100</v>
       </c>
       <c r="G12" s="3">
-        <v>27600</v>
+        <v>27900</v>
       </c>
       <c r="H12" s="3">
-        <v>31400</v>
+        <v>26300</v>
       </c>
       <c r="I12" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="J12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K12" s="3">
         <v>28600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="J14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-61000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-121200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>6800</v>
+        <v>8400</v>
       </c>
       <c r="F15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4000</v>
       </c>
       <c r="N15" s="3">
         <v>4000</v>
       </c>
       <c r="O15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4200</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>392800</v>
+        <v>388100</v>
       </c>
       <c r="E17" s="3">
-        <v>344300</v>
+        <v>373700</v>
       </c>
       <c r="F17" s="3">
-        <v>320000</v>
+        <v>327500</v>
       </c>
       <c r="G17" s="3">
-        <v>294000</v>
+        <v>304500</v>
       </c>
       <c r="H17" s="3">
-        <v>293600</v>
+        <v>279700</v>
       </c>
       <c r="I17" s="3">
-        <v>251600</v>
+        <v>279300</v>
       </c>
       <c r="J17" s="3">
+        <v>239400</v>
+      </c>
+      <c r="K17" s="3">
         <v>277300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>278900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>249400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>241300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>246600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>198400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>187100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>161600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>191500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>176500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>192700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>161300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>167400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>143200</v>
+        <v>148400</v>
       </c>
       <c r="E18" s="3">
-        <v>128000</v>
+        <v>136200</v>
       </c>
       <c r="F18" s="3">
-        <v>129100</v>
+        <v>121800</v>
       </c>
       <c r="G18" s="3">
-        <v>135800</v>
+        <v>122900</v>
       </c>
       <c r="H18" s="3">
-        <v>84600</v>
+        <v>129200</v>
       </c>
       <c r="I18" s="3">
-        <v>91600</v>
+        <v>80400</v>
       </c>
       <c r="J18" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K18" s="3">
         <v>95500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>176600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>54700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31500</v>
+        <v>30300</v>
       </c>
       <c r="E20" s="3">
-        <v>40200</v>
+        <v>30000</v>
       </c>
       <c r="F20" s="3">
-        <v>14800</v>
+        <v>38200</v>
       </c>
       <c r="G20" s="3">
-        <v>29000</v>
+        <v>14100</v>
       </c>
       <c r="H20" s="3">
-        <v>8700</v>
+        <v>27600</v>
       </c>
       <c r="I20" s="3">
-        <v>-12400</v>
+        <v>8300</v>
       </c>
       <c r="J20" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>230700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>128100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>26300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>204300</v>
+        <v>205100</v>
       </c>
       <c r="E21" s="3">
-        <v>193800</v>
+        <v>194400</v>
       </c>
       <c r="F21" s="3">
-        <v>171200</v>
+        <v>184400</v>
       </c>
       <c r="G21" s="3">
-        <v>186500</v>
+        <v>162900</v>
       </c>
       <c r="H21" s="3">
-        <v>120100</v>
+        <v>177500</v>
       </c>
       <c r="I21" s="3">
-        <v>102300</v>
+        <v>114300</v>
       </c>
       <c r="J21" s="3">
+        <v>97300</v>
+      </c>
+      <c r="K21" s="3">
         <v>123000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>190100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>78800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>287100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>191400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>62900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>89000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1685,8 +1725,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>11</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>11</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174700</v>
+        <v>178700</v>
       </c>
       <c r="E23" s="3">
-        <v>168100</v>
+        <v>166200</v>
       </c>
       <c r="F23" s="3">
-        <v>144000</v>
+        <v>160000</v>
       </c>
       <c r="G23" s="3">
-        <v>164800</v>
+        <v>137000</v>
       </c>
       <c r="H23" s="3">
-        <v>93300</v>
+        <v>156800</v>
       </c>
       <c r="I23" s="3">
-        <v>79100</v>
+        <v>88800</v>
       </c>
       <c r="J23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K23" s="3">
         <v>96800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>169600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>70500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>269900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>176100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>71200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27500</v>
+        <v>30800</v>
       </c>
       <c r="E24" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="F24" s="3">
-        <v>25700</v>
+        <v>26200</v>
       </c>
       <c r="G24" s="3">
-        <v>31200</v>
+        <v>24400</v>
       </c>
       <c r="H24" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>26600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
-        <v>15700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>16400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>7100</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147200</v>
+        <v>147900</v>
       </c>
       <c r="E26" s="3">
-        <v>140600</v>
+        <v>140000</v>
       </c>
       <c r="F26" s="3">
-        <v>118300</v>
+        <v>133800</v>
       </c>
       <c r="G26" s="3">
-        <v>133600</v>
+        <v>112600</v>
       </c>
       <c r="H26" s="3">
-        <v>86200</v>
+        <v>127100</v>
       </c>
       <c r="I26" s="3">
-        <v>63400</v>
+        <v>82100</v>
       </c>
       <c r="J26" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K26" s="3">
         <v>80900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>122000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>143100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>51700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>271800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>41800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>173400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>72200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>147200</v>
+        <v>147900</v>
       </c>
       <c r="E27" s="3">
-        <v>140600</v>
+        <v>140000</v>
       </c>
       <c r="F27" s="3">
-        <v>118300</v>
+        <v>133800</v>
       </c>
       <c r="G27" s="3">
-        <v>133600</v>
+        <v>112600</v>
       </c>
       <c r="H27" s="3">
-        <v>86200</v>
+        <v>127100</v>
       </c>
       <c r="I27" s="3">
-        <v>63400</v>
+        <v>82100</v>
       </c>
       <c r="J27" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K27" s="3">
         <v>80900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>143100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>59100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>271800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>41800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>173400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>72200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2182,8 +2243,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>11</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>11</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31500</v>
+        <v>-30300</v>
       </c>
       <c r="E32" s="3">
-        <v>-40200</v>
+        <v>-30000</v>
       </c>
       <c r="F32" s="3">
-        <v>-14800</v>
+        <v>-38200</v>
       </c>
       <c r="G32" s="3">
-        <v>-29000</v>
+        <v>-14100</v>
       </c>
       <c r="H32" s="3">
-        <v>-8700</v>
+        <v>-27600</v>
       </c>
       <c r="I32" s="3">
-        <v>12400</v>
+        <v>-8300</v>
       </c>
       <c r="J32" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-230700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-128100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-26300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147200</v>
+        <v>147900</v>
       </c>
       <c r="E33" s="3">
-        <v>140600</v>
+        <v>140000</v>
       </c>
       <c r="F33" s="3">
-        <v>118300</v>
+        <v>133800</v>
       </c>
       <c r="G33" s="3">
-        <v>133600</v>
+        <v>112600</v>
       </c>
       <c r="H33" s="3">
-        <v>86200</v>
+        <v>127100</v>
       </c>
       <c r="I33" s="3">
-        <v>63400</v>
+        <v>82100</v>
       </c>
       <c r="J33" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K33" s="3">
         <v>80900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>59100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>271800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>41800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>173400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>72200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147200</v>
+        <v>147900</v>
       </c>
       <c r="E35" s="3">
-        <v>140600</v>
+        <v>140000</v>
       </c>
       <c r="F35" s="3">
-        <v>118300</v>
+        <v>133800</v>
       </c>
       <c r="G35" s="3">
-        <v>133600</v>
+        <v>112600</v>
       </c>
       <c r="H35" s="3">
-        <v>86200</v>
+        <v>127100</v>
       </c>
       <c r="I35" s="3">
-        <v>63400</v>
+        <v>82100</v>
       </c>
       <c r="J35" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K35" s="3">
         <v>80900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>59100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>271800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>41800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>173400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>72200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>536200</v>
+        <v>571200</v>
       </c>
       <c r="E41" s="3">
-        <v>572700</v>
+        <v>510100</v>
       </c>
       <c r="F41" s="3">
-        <v>507400</v>
+        <v>544900</v>
       </c>
       <c r="G41" s="3">
-        <v>543100</v>
+        <v>482800</v>
       </c>
       <c r="H41" s="3">
-        <v>474800</v>
+        <v>516700</v>
       </c>
       <c r="I41" s="3">
-        <v>468600</v>
+        <v>451700</v>
       </c>
       <c r="J41" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K41" s="3">
         <v>470800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>597000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>581200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>560500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>448800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>373800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>338200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>314200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>715000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>813700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>938500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>589300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>586600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>444800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>443900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>507600</v>
+        <v>540100</v>
       </c>
       <c r="E43" s="3">
-        <v>407200</v>
+        <v>483000</v>
       </c>
       <c r="F43" s="3">
-        <v>355100</v>
+        <v>387400</v>
       </c>
       <c r="G43" s="3">
-        <v>336100</v>
+        <v>337900</v>
       </c>
       <c r="H43" s="3">
-        <v>306100</v>
+        <v>319700</v>
       </c>
       <c r="I43" s="3">
-        <v>280600</v>
+        <v>291200</v>
       </c>
       <c r="J43" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K43" s="3">
         <v>267500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>213300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>234400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>284400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>309100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>236900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>210400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>210500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>187500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>141400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>184500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>145300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>166600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>121400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>161300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>231100</v>
+        <v>265500</v>
       </c>
       <c r="E44" s="3">
-        <v>203500</v>
+        <v>219900</v>
       </c>
       <c r="F44" s="3">
-        <v>188500</v>
+        <v>193600</v>
       </c>
       <c r="G44" s="3">
-        <v>186000</v>
+        <v>179400</v>
       </c>
       <c r="H44" s="3">
-        <v>176900</v>
+        <v>177000</v>
       </c>
       <c r="I44" s="3">
-        <v>192500</v>
+        <v>168300</v>
       </c>
       <c r="J44" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K44" s="3">
         <v>191800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>202200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>208200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>203300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>218400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>183000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>166600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>160300</v>
-      </c>
-      <c r="U44" s="3">
-        <v>168500</v>
       </c>
       <c r="V44" s="3">
         <v>168500</v>
       </c>
       <c r="W44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="X44" s="3">
         <v>165800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>131900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55600</v>
+        <v>59700</v>
       </c>
       <c r="E45" s="3">
-        <v>80800</v>
+        <v>52900</v>
       </c>
       <c r="F45" s="3">
-        <v>85000</v>
+        <v>76900</v>
       </c>
       <c r="G45" s="3">
-        <v>57900</v>
+        <v>80900</v>
       </c>
       <c r="H45" s="3">
-        <v>79600</v>
+        <v>55100</v>
       </c>
       <c r="I45" s="3">
-        <v>81600</v>
+        <v>75700</v>
       </c>
       <c r="J45" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K45" s="3">
         <v>91100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1330500</v>
+        <v>1436500</v>
       </c>
       <c r="E46" s="3">
-        <v>1264200</v>
+        <v>1265900</v>
       </c>
       <c r="F46" s="3">
-        <v>1136100</v>
+        <v>1202700</v>
       </c>
       <c r="G46" s="3">
-        <v>1123100</v>
+        <v>1080900</v>
       </c>
       <c r="H46" s="3">
-        <v>1037400</v>
+        <v>1068500</v>
       </c>
       <c r="I46" s="3">
-        <v>1023200</v>
+        <v>987000</v>
       </c>
       <c r="J46" s="3">
+        <v>973500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1021100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1093200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1103500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1115100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1013000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>863800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>805100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>765400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1112300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1135800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1304600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>926000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>951900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>752600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>763800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>926000</v>
+        <v>917100</v>
       </c>
       <c r="E47" s="3">
-        <v>881500</v>
+        <v>881000</v>
       </c>
       <c r="F47" s="3">
-        <v>838900</v>
+        <v>838700</v>
       </c>
       <c r="G47" s="3">
-        <v>852600</v>
+        <v>798200</v>
       </c>
       <c r="H47" s="3">
-        <v>810200</v>
+        <v>811200</v>
       </c>
       <c r="I47" s="3">
-        <v>814500</v>
+        <v>770900</v>
       </c>
       <c r="J47" s="3">
+        <v>774900</v>
+      </c>
+      <c r="K47" s="3">
         <v>846700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>893900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>908600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>926100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>914300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>959400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>934000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>909800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>838400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>797200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>819700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1127300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1147200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1464800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1429700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>379300</v>
+        <v>382700</v>
       </c>
       <c r="E48" s="3">
-        <v>356600</v>
+        <v>360800</v>
       </c>
       <c r="F48" s="3">
-        <v>346300</v>
+        <v>339300</v>
       </c>
       <c r="G48" s="3">
-        <v>348600</v>
+        <v>329500</v>
       </c>
       <c r="H48" s="3">
-        <v>334700</v>
+        <v>331700</v>
       </c>
       <c r="I48" s="3">
-        <v>317500</v>
+        <v>318500</v>
       </c>
       <c r="J48" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K48" s="3">
         <v>309600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>306900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>279800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>272600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>257500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>268100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>228800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>221800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>186700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>163600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>153000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>150300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>156300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>162700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>154500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>312100</v>
+        <v>358800</v>
       </c>
       <c r="E49" s="3">
-        <v>289300</v>
+        <v>296900</v>
       </c>
       <c r="F49" s="3">
-        <v>271300</v>
+        <v>275300</v>
       </c>
       <c r="G49" s="3">
-        <v>259500</v>
+        <v>258100</v>
       </c>
       <c r="H49" s="3">
-        <v>241300</v>
+        <v>246900</v>
       </c>
       <c r="I49" s="3">
-        <v>237600</v>
+        <v>229600</v>
       </c>
       <c r="J49" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K49" s="3">
         <v>234700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>239800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>234100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>233000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>218900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>209300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>190700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>178400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>156900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>143500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>139800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>131100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>244600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>136700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>130800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="F52" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G52" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="H52" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="I52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K52" s="3">
         <v>13400</v>
       </c>
-      <c r="J52" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2957600</v>
+        <v>3104000</v>
       </c>
       <c r="E54" s="3">
-        <v>2801200</v>
+        <v>2813800</v>
       </c>
       <c r="F54" s="3">
-        <v>2601600</v>
+        <v>2665100</v>
       </c>
       <c r="G54" s="3">
-        <v>2592700</v>
+        <v>2475200</v>
       </c>
       <c r="H54" s="3">
-        <v>2432700</v>
+        <v>2466700</v>
       </c>
       <c r="I54" s="3">
-        <v>2406200</v>
+        <v>2314500</v>
       </c>
       <c r="J54" s="3">
+        <v>2289300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2425500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2547700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2539300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2564500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2421200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2326600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2104100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2320900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2265400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2442800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2353700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2402200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2536900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2500900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>191400</v>
+        <v>219000</v>
       </c>
       <c r="E57" s="3">
-        <v>171300</v>
+        <v>182100</v>
       </c>
       <c r="F57" s="3">
-        <v>162000</v>
+        <v>163000</v>
       </c>
       <c r="G57" s="3">
-        <v>165300</v>
+        <v>154200</v>
       </c>
       <c r="H57" s="3">
-        <v>135800</v>
+        <v>157200</v>
       </c>
       <c r="I57" s="3">
-        <v>127300</v>
+        <v>129200</v>
       </c>
       <c r="J57" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K57" s="3">
         <v>141800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>110000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>110100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>95400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>115000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>109100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>94500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>89000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>81000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>95100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>88500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>71500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3892,23 +4026,23 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="3">
         <v>8400</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>11</v>
@@ -3919,8 +4053,8 @@
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3937,150 +4071,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>253400</v>
+        <v>313800</v>
       </c>
       <c r="E59" s="3">
-        <v>262400</v>
+        <v>241100</v>
       </c>
       <c r="F59" s="3">
-        <v>217600</v>
+        <v>249600</v>
       </c>
       <c r="G59" s="3">
-        <v>210600</v>
+        <v>207000</v>
       </c>
       <c r="H59" s="3">
-        <v>235400</v>
+        <v>200300</v>
       </c>
       <c r="I59" s="3">
-        <v>232200</v>
+        <v>223900</v>
       </c>
       <c r="J59" s="3">
+        <v>220900</v>
+      </c>
+      <c r="K59" s="3">
         <v>221000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>226300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>184800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>134400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>74900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>65600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>66900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>444800</v>
+        <v>532700</v>
       </c>
       <c r="E60" s="3">
-        <v>433700</v>
+        <v>423200</v>
       </c>
       <c r="F60" s="3">
-        <v>379600</v>
+        <v>412700</v>
       </c>
       <c r="G60" s="3">
-        <v>375900</v>
+        <v>361100</v>
       </c>
       <c r="H60" s="3">
-        <v>371200</v>
+        <v>357600</v>
       </c>
       <c r="I60" s="3">
-        <v>359500</v>
+        <v>353200</v>
       </c>
       <c r="J60" s="3">
+        <v>342000</v>
+      </c>
+      <c r="K60" s="3">
         <v>362800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>355200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>374200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>325300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>294800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>238600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>229800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>181100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>171400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>154200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>169900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>155900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>160600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>146100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>138400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4109,20 +4252,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>18400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>21500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67200</v>
+        <v>68100</v>
       </c>
       <c r="E62" s="3">
-        <v>55500</v>
+        <v>64000</v>
       </c>
       <c r="F62" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="G62" s="3">
-        <v>43000</v>
+        <v>48000</v>
       </c>
       <c r="H62" s="3">
-        <v>38100</v>
+        <v>40900</v>
       </c>
       <c r="I62" s="3">
-        <v>37400</v>
+        <v>36300</v>
       </c>
       <c r="J62" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K62" s="3">
         <v>39500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>512000</v>
+        <v>600800</v>
       </c>
       <c r="E66" s="3">
-        <v>489200</v>
+        <v>487100</v>
       </c>
       <c r="F66" s="3">
-        <v>430000</v>
+        <v>465400</v>
       </c>
       <c r="G66" s="3">
-        <v>418800</v>
+        <v>409100</v>
       </c>
       <c r="H66" s="3">
-        <v>409300</v>
+        <v>398500</v>
       </c>
       <c r="I66" s="3">
-        <v>396900</v>
+        <v>389400</v>
       </c>
       <c r="J66" s="3">
+        <v>377600</v>
+      </c>
+      <c r="K66" s="3">
         <v>402300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>394400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>416200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>360600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>330300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>274800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>244200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>198000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>171700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>175100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>162600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>155400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,70 +4987,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2585300</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="3">
-        <v>2277400</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>2459700</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>2098000</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2166700</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>1996100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
         <v>2162500</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2267800</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2409100</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2266900</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2370200</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2350700</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>11</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2445600</v>
+        <v>2503200</v>
       </c>
       <c r="E76" s="3">
-        <v>2312100</v>
+        <v>2326700</v>
       </c>
       <c r="F76" s="3">
-        <v>2171600</v>
+        <v>2199700</v>
       </c>
       <c r="G76" s="3">
-        <v>2173900</v>
+        <v>2066100</v>
       </c>
       <c r="H76" s="3">
-        <v>2023300</v>
+        <v>2068200</v>
       </c>
       <c r="I76" s="3">
-        <v>2009300</v>
+        <v>1925000</v>
       </c>
       <c r="J76" s="3">
+        <v>1911700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2023200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2153300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2123100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2203900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2090900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2051900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1941800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1906100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2133700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2095500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2256900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2181900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2227100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2374300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2345400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147200</v>
+        <v>147900</v>
       </c>
       <c r="E81" s="3">
-        <v>140600</v>
+        <v>140000</v>
       </c>
       <c r="F81" s="3">
-        <v>118300</v>
+        <v>133800</v>
       </c>
       <c r="G81" s="3">
-        <v>133600</v>
+        <v>112600</v>
       </c>
       <c r="H81" s="3">
-        <v>86200</v>
+        <v>127100</v>
       </c>
       <c r="I81" s="3">
-        <v>63400</v>
+        <v>82100</v>
       </c>
       <c r="J81" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K81" s="3">
         <v>80900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>59100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>271800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>41800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>173400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>72200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29600</v>
+        <v>26400</v>
       </c>
       <c r="E83" s="3">
-        <v>25700</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
-        <v>27300</v>
+        <v>24500</v>
       </c>
       <c r="G83" s="3">
-        <v>21700</v>
+        <v>25900</v>
       </c>
       <c r="H83" s="3">
-        <v>26800</v>
+        <v>20600</v>
       </c>
       <c r="I83" s="3">
-        <v>23100</v>
+        <v>25500</v>
       </c>
       <c r="J83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K83" s="3">
         <v>26300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>17800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70100</v>
+        <v>156300</v>
       </c>
       <c r="E89" s="3">
-        <v>131300</v>
+        <v>66700</v>
       </c>
       <c r="F89" s="3">
-        <v>87700</v>
+        <v>124900</v>
       </c>
       <c r="G89" s="3">
-        <v>126100</v>
+        <v>83400</v>
       </c>
       <c r="H89" s="3">
-        <v>104100</v>
+        <v>120000</v>
       </c>
       <c r="I89" s="3">
-        <v>56700</v>
+        <v>99000</v>
       </c>
       <c r="J89" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K89" s="3">
         <v>38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>244400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>109900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>156800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>49200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>34000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35800</v>
+        <v>-28300</v>
       </c>
       <c r="E91" s="3">
-        <v>-18500</v>
+        <v>-34000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-17600</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-36900</v>
+        <v>-9800</v>
       </c>
       <c r="I91" s="3">
-        <v>-20500</v>
+        <v>-35100</v>
       </c>
       <c r="J91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>50700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-57800</v>
+        <v>-93500</v>
       </c>
       <c r="E94" s="3">
-        <v>-24900</v>
+        <v>-55000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12600</v>
+        <v>-23700</v>
       </c>
       <c r="G94" s="3">
-        <v>-29400</v>
+        <v>-12000</v>
       </c>
       <c r="H94" s="3">
-        <v>-53300</v>
+        <v>-28000</v>
       </c>
       <c r="I94" s="3">
-        <v>-30200</v>
+        <v>-50700</v>
       </c>
       <c r="J94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>469800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>266200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6263,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-105700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6275,32 +6509,32 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-107000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-58100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-58100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6320,10 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62100</v>
+        <v>-2600</v>
       </c>
       <c r="E100" s="3">
-        <v>-49200</v>
+        <v>-59000</v>
       </c>
       <c r="F100" s="3">
-        <v>-108000</v>
+        <v>-46800</v>
       </c>
       <c r="G100" s="3">
-        <v>-42800</v>
+        <v>-102800</v>
       </c>
       <c r="H100" s="3">
-        <v>-32300</v>
+        <v>-40800</v>
       </c>
       <c r="I100" s="3">
-        <v>-30300</v>
+        <v>-30800</v>
       </c>
       <c r="J100" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-116700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-183500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-57200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-452700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-83400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-111500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-150100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-87700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13300</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>8100</v>
+        <v>12600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2800</v>
+        <v>7700</v>
       </c>
       <c r="G101" s="3">
-        <v>14500</v>
+        <v>-2600</v>
       </c>
       <c r="H101" s="3">
-        <v>-12200</v>
+        <v>13800</v>
       </c>
       <c r="I101" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>9600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-38600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36500</v>
+        <v>61100</v>
       </c>
       <c r="E102" s="3">
-        <v>65300</v>
+        <v>-34700</v>
       </c>
       <c r="F102" s="3">
-        <v>-35700</v>
+        <v>62100</v>
       </c>
       <c r="G102" s="3">
-        <v>68300</v>
+        <v>-34000</v>
       </c>
       <c r="H102" s="3">
-        <v>6200</v>
+        <v>65000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2200</v>
+        <v>5900</v>
       </c>
       <c r="J102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-106000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-456100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-98700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-104700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>349200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>161400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>536500</v>
+        <v>558000</v>
       </c>
       <c r="E8" s="3">
-        <v>509900</v>
+        <v>515600</v>
       </c>
       <c r="F8" s="3">
-        <v>449300</v>
+        <v>490000</v>
       </c>
       <c r="G8" s="3">
-        <v>427300</v>
+        <v>431800</v>
       </c>
       <c r="H8" s="3">
-        <v>408900</v>
+        <v>410600</v>
       </c>
       <c r="I8" s="3">
-        <v>359700</v>
+        <v>393000</v>
       </c>
       <c r="J8" s="3">
+        <v>345700</v>
+      </c>
+      <c r="K8" s="3">
         <v>326500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>372900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>367100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>316600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>306100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>297600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>301300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>231500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>229200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>230700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>199800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>240700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>184100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>202600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>280000</v>
+        <v>292700</v>
       </c>
       <c r="E9" s="3">
-        <v>270100</v>
+        <v>269100</v>
       </c>
       <c r="F9" s="3">
-        <v>237400</v>
+        <v>259600</v>
       </c>
       <c r="G9" s="3">
-        <v>221900</v>
+        <v>228200</v>
       </c>
       <c r="H9" s="3">
-        <v>206500</v>
+        <v>213200</v>
       </c>
       <c r="I9" s="3">
-        <v>197200</v>
+        <v>198400</v>
       </c>
       <c r="J9" s="3">
+        <v>189500</v>
+      </c>
+      <c r="K9" s="3">
         <v>163500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>192800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>203600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>226800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>182400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>175200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>174600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>175600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>132700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>108500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>140100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>122200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>136100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>104900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>111600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>256500</v>
+        <v>265300</v>
       </c>
       <c r="E10" s="3">
-        <v>239800</v>
+        <v>246500</v>
       </c>
       <c r="F10" s="3">
-        <v>211900</v>
+        <v>230400</v>
       </c>
       <c r="G10" s="3">
-        <v>205400</v>
+        <v>203600</v>
       </c>
       <c r="H10" s="3">
-        <v>202400</v>
+        <v>197400</v>
       </c>
       <c r="I10" s="3">
-        <v>162500</v>
+        <v>194500</v>
       </c>
       <c r="J10" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K10" s="3">
         <v>163000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>163500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>175400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>134200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>123000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>94600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>96500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>66100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>90600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>77600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>79100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>91000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45100</v>
+        <v>42900</v>
       </c>
       <c r="E12" s="3">
-        <v>41400</v>
+        <v>36100</v>
       </c>
       <c r="F12" s="3">
-        <v>33100</v>
+        <v>39800</v>
       </c>
       <c r="G12" s="3">
-        <v>27900</v>
+        <v>31800</v>
       </c>
       <c r="H12" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="I12" s="3">
-        <v>29900</v>
+        <v>25200</v>
       </c>
       <c r="J12" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K12" s="3">
         <v>28200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>28200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-61000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-121200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E15" s="3">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="F15" s="3">
-        <v>6400</v>
+        <v>8100</v>
       </c>
       <c r="G15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4000</v>
       </c>
       <c r="O15" s="3">
         <v>4000</v>
       </c>
       <c r="P15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4200</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>388100</v>
+        <v>410800</v>
       </c>
       <c r="E17" s="3">
-        <v>373700</v>
+        <v>373000</v>
       </c>
       <c r="F17" s="3">
-        <v>327500</v>
+        <v>359100</v>
       </c>
       <c r="G17" s="3">
-        <v>304500</v>
+        <v>314800</v>
       </c>
       <c r="H17" s="3">
-        <v>279700</v>
+        <v>292600</v>
       </c>
       <c r="I17" s="3">
-        <v>279300</v>
+        <v>268800</v>
       </c>
       <c r="J17" s="3">
+        <v>268400</v>
+      </c>
+      <c r="K17" s="3">
         <v>239400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>277300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>278900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>249400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>257400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>129500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>241300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>246600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>198400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>187100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>161600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>191500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>176500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>192700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>161300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>167400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>148400</v>
+        <v>147200</v>
       </c>
       <c r="E18" s="3">
-        <v>136200</v>
+        <v>142600</v>
       </c>
       <c r="F18" s="3">
-        <v>121800</v>
+        <v>130900</v>
       </c>
       <c r="G18" s="3">
-        <v>122900</v>
+        <v>117000</v>
       </c>
       <c r="H18" s="3">
-        <v>129200</v>
+        <v>118100</v>
       </c>
       <c r="I18" s="3">
-        <v>80400</v>
+        <v>124200</v>
       </c>
       <c r="J18" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K18" s="3">
         <v>87100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>176600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>54700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>47900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,179 +1548,186 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30300</v>
+        <v>50200</v>
       </c>
       <c r="E20" s="3">
-        <v>30000</v>
+        <v>29500</v>
       </c>
       <c r="F20" s="3">
-        <v>38200</v>
+        <v>28800</v>
       </c>
       <c r="G20" s="3">
-        <v>14100</v>
+        <v>36700</v>
       </c>
       <c r="H20" s="3">
-        <v>27600</v>
+        <v>13600</v>
       </c>
       <c r="I20" s="3">
-        <v>8300</v>
+        <v>26500</v>
       </c>
       <c r="J20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>230700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>21400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>128100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>26300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>36000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>205100</v>
+        <v>224500</v>
       </c>
       <c r="E21" s="3">
-        <v>194400</v>
+        <v>197400</v>
       </c>
       <c r="F21" s="3">
-        <v>184400</v>
+        <v>186800</v>
       </c>
       <c r="G21" s="3">
-        <v>162900</v>
+        <v>177200</v>
       </c>
       <c r="H21" s="3">
-        <v>177500</v>
+        <v>156500</v>
       </c>
       <c r="I21" s="3">
-        <v>114300</v>
+        <v>170500</v>
       </c>
       <c r="J21" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K21" s="3">
         <v>97300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>101200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>190100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>287100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>191400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>62900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>89000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1728,8 +1768,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>11</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>11</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>178700</v>
+        <v>197100</v>
       </c>
       <c r="E23" s="3">
-        <v>166200</v>
+        <v>171700</v>
       </c>
       <c r="F23" s="3">
-        <v>160000</v>
+        <v>159700</v>
       </c>
       <c r="G23" s="3">
-        <v>137000</v>
+        <v>153700</v>
       </c>
       <c r="H23" s="3">
-        <v>156800</v>
+        <v>131600</v>
       </c>
       <c r="I23" s="3">
-        <v>88800</v>
+        <v>150700</v>
       </c>
       <c r="J23" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K23" s="3">
         <v>75300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>96800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>169600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>70500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>269900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>176100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>49000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>71200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30800</v>
+        <v>37100</v>
       </c>
       <c r="E24" s="3">
-        <v>26200</v>
+        <v>29600</v>
       </c>
       <c r="F24" s="3">
-        <v>26200</v>
+        <v>25200</v>
       </c>
       <c r="G24" s="3">
-        <v>24400</v>
+        <v>25200</v>
       </c>
       <c r="H24" s="3">
-        <v>29700</v>
+        <v>23500</v>
       </c>
       <c r="I24" s="3">
-        <v>6700</v>
+        <v>28500</v>
       </c>
       <c r="J24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147900</v>
+        <v>160000</v>
       </c>
       <c r="E26" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="F26" s="3">
-        <v>133800</v>
+        <v>134500</v>
       </c>
       <c r="G26" s="3">
-        <v>112600</v>
+        <v>128600</v>
       </c>
       <c r="H26" s="3">
-        <v>127100</v>
+        <v>108200</v>
       </c>
       <c r="I26" s="3">
-        <v>82100</v>
+        <v>122200</v>
       </c>
       <c r="J26" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K26" s="3">
         <v>60300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>122000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>62400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>271800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>41800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>173400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>47400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>72200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>147900</v>
+        <v>160000</v>
       </c>
       <c r="E27" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="F27" s="3">
-        <v>133800</v>
+        <v>134500</v>
       </c>
       <c r="G27" s="3">
-        <v>112600</v>
+        <v>128600</v>
       </c>
       <c r="H27" s="3">
-        <v>127100</v>
+        <v>108200</v>
       </c>
       <c r="I27" s="3">
-        <v>82100</v>
+        <v>122200</v>
       </c>
       <c r="J27" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K27" s="3">
         <v>60300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>271800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>41800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>173400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>72200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2246,8 +2307,8 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>11</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>11</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30300</v>
+        <v>-50200</v>
       </c>
       <c r="E32" s="3">
-        <v>-30000</v>
+        <v>-29500</v>
       </c>
       <c r="F32" s="3">
-        <v>-38200</v>
+        <v>-28800</v>
       </c>
       <c r="G32" s="3">
-        <v>-14100</v>
+        <v>-36700</v>
       </c>
       <c r="H32" s="3">
-        <v>-27600</v>
+        <v>-13600</v>
       </c>
       <c r="I32" s="3">
-        <v>-8300</v>
+        <v>-26500</v>
       </c>
       <c r="J32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K32" s="3">
         <v>11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-230700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-21400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-128100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-26300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147900</v>
+        <v>160000</v>
       </c>
       <c r="E33" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="F33" s="3">
-        <v>133800</v>
+        <v>134500</v>
       </c>
       <c r="G33" s="3">
-        <v>112600</v>
+        <v>128600</v>
       </c>
       <c r="H33" s="3">
-        <v>127100</v>
+        <v>108200</v>
       </c>
       <c r="I33" s="3">
-        <v>82100</v>
+        <v>122200</v>
       </c>
       <c r="J33" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K33" s="3">
         <v>60300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>80900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>271800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>41800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>173400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>72200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147900</v>
+        <v>160000</v>
       </c>
       <c r="E35" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="F35" s="3">
-        <v>133800</v>
+        <v>134500</v>
       </c>
       <c r="G35" s="3">
-        <v>112600</v>
+        <v>128600</v>
       </c>
       <c r="H35" s="3">
-        <v>127100</v>
+        <v>108200</v>
       </c>
       <c r="I35" s="3">
-        <v>82100</v>
+        <v>122200</v>
       </c>
       <c r="J35" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K35" s="3">
         <v>60300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>80900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>271800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>41800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>173400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>72200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>571200</v>
+        <v>550600</v>
       </c>
       <c r="E41" s="3">
-        <v>510100</v>
+        <v>548900</v>
       </c>
       <c r="F41" s="3">
-        <v>544900</v>
+        <v>490200</v>
       </c>
       <c r="G41" s="3">
-        <v>482800</v>
+        <v>523600</v>
       </c>
       <c r="H41" s="3">
-        <v>516700</v>
+        <v>463900</v>
       </c>
       <c r="I41" s="3">
-        <v>451700</v>
+        <v>496600</v>
       </c>
       <c r="J41" s="3">
+        <v>434100</v>
+      </c>
+      <c r="K41" s="3">
         <v>445800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>470800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>597000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>581200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>560500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>448800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>373800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>338200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>314200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>715000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>813700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>938500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>589300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>586600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>444800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>443900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>540100</v>
+        <v>501700</v>
       </c>
       <c r="E43" s="3">
-        <v>483000</v>
+        <v>519100</v>
       </c>
       <c r="F43" s="3">
-        <v>387400</v>
+        <v>464100</v>
       </c>
       <c r="G43" s="3">
-        <v>337900</v>
+        <v>372300</v>
       </c>
       <c r="H43" s="3">
-        <v>319700</v>
+        <v>324700</v>
       </c>
       <c r="I43" s="3">
-        <v>291200</v>
+        <v>307300</v>
       </c>
       <c r="J43" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K43" s="3">
         <v>267000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>267500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>213300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>284400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>309100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>236900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>210400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>210500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>187500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>141400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>184500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>145300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>166600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>121400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>161300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>265500</v>
+        <v>339700</v>
       </c>
       <c r="E44" s="3">
-        <v>219900</v>
+        <v>255100</v>
       </c>
       <c r="F44" s="3">
-        <v>193600</v>
+        <v>211300</v>
       </c>
       <c r="G44" s="3">
-        <v>179400</v>
+        <v>186000</v>
       </c>
       <c r="H44" s="3">
-        <v>177000</v>
+        <v>172400</v>
       </c>
       <c r="I44" s="3">
-        <v>168300</v>
+        <v>170100</v>
       </c>
       <c r="J44" s="3">
+        <v>161800</v>
+      </c>
+      <c r="K44" s="3">
         <v>183100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>202200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>208200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>203300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>218400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>183000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>166600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>160300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>168500</v>
       </c>
       <c r="W44" s="3">
         <v>168500</v>
       </c>
       <c r="X44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="Y44" s="3">
         <v>165800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>131900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59700</v>
+        <v>60700</v>
       </c>
       <c r="E45" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>50800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>73900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>77700</v>
+      </c>
+      <c r="I45" s="3">
         <v>52900</v>
       </c>
-      <c r="F45" s="3">
-        <v>76900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>55100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>75700</v>
-      </c>
       <c r="J45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K45" s="3">
         <v>77600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>85800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1436500</v>
+        <v>1452700</v>
       </c>
       <c r="E46" s="3">
-        <v>1265900</v>
+        <v>1380500</v>
       </c>
       <c r="F46" s="3">
-        <v>1202700</v>
+        <v>1216500</v>
       </c>
       <c r="G46" s="3">
-        <v>1080900</v>
+        <v>1155800</v>
       </c>
       <c r="H46" s="3">
-        <v>1068500</v>
+        <v>1038700</v>
       </c>
       <c r="I46" s="3">
-        <v>987000</v>
+        <v>1026800</v>
       </c>
       <c r="J46" s="3">
+        <v>948500</v>
+      </c>
+      <c r="K46" s="3">
         <v>973500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1021100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1093200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1103500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1115100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1013000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>863800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>805100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>765400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1112300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1135800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1304600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>926000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>951900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>752600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>763800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>917100</v>
+        <v>915500</v>
       </c>
       <c r="E47" s="3">
-        <v>881000</v>
+        <v>881300</v>
       </c>
       <c r="F47" s="3">
-        <v>838700</v>
+        <v>846600</v>
       </c>
       <c r="G47" s="3">
-        <v>798200</v>
+        <v>805900</v>
       </c>
       <c r="H47" s="3">
-        <v>811200</v>
+        <v>767000</v>
       </c>
       <c r="I47" s="3">
-        <v>770900</v>
+        <v>779500</v>
       </c>
       <c r="J47" s="3">
+        <v>740800</v>
+      </c>
+      <c r="K47" s="3">
         <v>774900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>846700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>893900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>908600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>926100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>914300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>959400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>934000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>909800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>838400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>797200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>819700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1127300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1147200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1464800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1429700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>382700</v>
+        <v>376200</v>
       </c>
       <c r="E48" s="3">
-        <v>360800</v>
+        <v>367800</v>
       </c>
       <c r="F48" s="3">
-        <v>339300</v>
+        <v>346800</v>
       </c>
       <c r="G48" s="3">
-        <v>329500</v>
+        <v>326100</v>
       </c>
       <c r="H48" s="3">
-        <v>331700</v>
+        <v>316600</v>
       </c>
       <c r="I48" s="3">
-        <v>318500</v>
+        <v>318800</v>
       </c>
       <c r="J48" s="3">
+        <v>306000</v>
+      </c>
+      <c r="K48" s="3">
         <v>302100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>309600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>306900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>279800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>272600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>257500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>268100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>228800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>221800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>186700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>163600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>153000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>150300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>156300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>162700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>154500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>358800</v>
+        <v>377200</v>
       </c>
       <c r="E49" s="3">
-        <v>296900</v>
+        <v>344800</v>
       </c>
       <c r="F49" s="3">
-        <v>275300</v>
+        <v>285400</v>
       </c>
       <c r="G49" s="3">
-        <v>258100</v>
+        <v>264500</v>
       </c>
       <c r="H49" s="3">
-        <v>246900</v>
+        <v>248000</v>
       </c>
       <c r="I49" s="3">
-        <v>229600</v>
+        <v>237300</v>
       </c>
       <c r="J49" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K49" s="3">
         <v>226100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>234700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>239800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>234100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>233000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>218900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>209300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>190700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>178400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>156900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>143500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>139800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>131100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>244600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>136700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>130800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,73 +3777,76 @@
         <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>9200</v>
+        <v>8500</v>
       </c>
       <c r="F52" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="G52" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="H52" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I52" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="J52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>19000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>22000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3104000</v>
+        <v>3130400</v>
       </c>
       <c r="E54" s="3">
-        <v>2813800</v>
+        <v>2982900</v>
       </c>
       <c r="F54" s="3">
-        <v>2665100</v>
+        <v>2704000</v>
       </c>
       <c r="G54" s="3">
-        <v>2475200</v>
+        <v>2561100</v>
       </c>
       <c r="H54" s="3">
-        <v>2466700</v>
+        <v>2378600</v>
       </c>
       <c r="I54" s="3">
-        <v>2314500</v>
+        <v>2370400</v>
       </c>
       <c r="J54" s="3">
+        <v>2224100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2289300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2425500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2547700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2539300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2564500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2421200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2326600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2186000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2104100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2320900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2265400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2442800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2353700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2402200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2536900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2500900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>219000</v>
+        <v>245100</v>
       </c>
       <c r="E57" s="3">
-        <v>182100</v>
+        <v>210400</v>
       </c>
       <c r="F57" s="3">
-        <v>163000</v>
+        <v>175000</v>
       </c>
       <c r="G57" s="3">
-        <v>154200</v>
+        <v>156600</v>
       </c>
       <c r="H57" s="3">
-        <v>157200</v>
+        <v>148100</v>
       </c>
       <c r="I57" s="3">
-        <v>129200</v>
+        <v>151100</v>
       </c>
       <c r="J57" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K57" s="3">
         <v>121100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>141800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>126500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>110000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>110100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>95400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>115000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>109100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>94500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>89000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>81000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>95100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>88500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>71500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4029,23 +4163,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8200</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="3">
         <v>8400</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>11</v>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4074,179 +4208,188 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>313800</v>
+        <v>284800</v>
       </c>
       <c r="E59" s="3">
-        <v>241100</v>
+        <v>301500</v>
       </c>
       <c r="F59" s="3">
-        <v>249600</v>
+        <v>231700</v>
       </c>
       <c r="G59" s="3">
-        <v>207000</v>
+        <v>239900</v>
       </c>
       <c r="H59" s="3">
-        <v>200300</v>
+        <v>198900</v>
       </c>
       <c r="I59" s="3">
-        <v>223900</v>
+        <v>192500</v>
       </c>
       <c r="J59" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K59" s="3">
         <v>220900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>226300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>134400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>62200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>80900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>74900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>65600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>57600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>66900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>532700</v>
+        <v>529900</v>
       </c>
       <c r="E60" s="3">
-        <v>423200</v>
+        <v>511900</v>
       </c>
       <c r="F60" s="3">
-        <v>412700</v>
+        <v>406600</v>
       </c>
       <c r="G60" s="3">
-        <v>361100</v>
+        <v>396600</v>
       </c>
       <c r="H60" s="3">
-        <v>357600</v>
+        <v>347000</v>
       </c>
       <c r="I60" s="3">
-        <v>353200</v>
+        <v>343600</v>
       </c>
       <c r="J60" s="3">
+        <v>339400</v>
+      </c>
+      <c r="K60" s="3">
         <v>342000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>362800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>355200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>374200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>325300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>294800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>238600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>229800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>181100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>171400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>154200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>169900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>155900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>160600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>146100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>138400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4255,20 +4398,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>18400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>21500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68100</v>
+        <v>55500</v>
       </c>
       <c r="E62" s="3">
-        <v>64000</v>
+        <v>49400</v>
       </c>
       <c r="F62" s="3">
-        <v>52800</v>
+        <v>45600</v>
       </c>
       <c r="G62" s="3">
-        <v>48000</v>
+        <v>38700</v>
       </c>
       <c r="H62" s="3">
-        <v>40900</v>
+        <v>33600</v>
       </c>
       <c r="I62" s="3">
-        <v>36300</v>
+        <v>26100</v>
       </c>
       <c r="J62" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K62" s="3">
         <v>35600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4759,76 @@
         <v>600800</v>
       </c>
       <c r="E66" s="3">
-        <v>487100</v>
+        <v>577400</v>
       </c>
       <c r="F66" s="3">
-        <v>465400</v>
+        <v>468100</v>
       </c>
       <c r="G66" s="3">
-        <v>409100</v>
+        <v>447300</v>
       </c>
       <c r="H66" s="3">
-        <v>398500</v>
+        <v>393200</v>
       </c>
       <c r="I66" s="3">
-        <v>389400</v>
+        <v>382900</v>
       </c>
       <c r="J66" s="3">
+        <v>374200</v>
+      </c>
+      <c r="K66" s="3">
         <v>377600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>402300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>394400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>416200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>360600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>330300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>274800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>244200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>198000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>171700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>175100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>162600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>155400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,73 +5161,76 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>2645200</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3">
-        <v>2459700</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>2363700</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
-        <v>2166700</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>2082200</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
-        <v>1996100</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>1918200</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2162500</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2267800</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2409100</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2266900</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2370200</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2350700</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>11</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2503200</v>
+        <v>2529600</v>
       </c>
       <c r="E76" s="3">
-        <v>2326700</v>
+        <v>2405500</v>
       </c>
       <c r="F76" s="3">
-        <v>2199700</v>
+        <v>2235900</v>
       </c>
       <c r="G76" s="3">
-        <v>2066100</v>
+        <v>2113900</v>
       </c>
       <c r="H76" s="3">
-        <v>2068200</v>
+        <v>1985500</v>
       </c>
       <c r="I76" s="3">
-        <v>1925000</v>
+        <v>1987500</v>
       </c>
       <c r="J76" s="3">
+        <v>1849900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1911700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2023200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2153300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2123100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2203900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2090900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2051900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1941800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1906100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2133700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2095500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2256900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2181900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2227100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2374300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2345400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147900</v>
+        <v>160000</v>
       </c>
       <c r="E81" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="F81" s="3">
-        <v>133800</v>
+        <v>134500</v>
       </c>
       <c r="G81" s="3">
-        <v>112600</v>
+        <v>128600</v>
       </c>
       <c r="H81" s="3">
-        <v>127100</v>
+        <v>108200</v>
       </c>
       <c r="I81" s="3">
-        <v>82100</v>
+        <v>122200</v>
       </c>
       <c r="J81" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K81" s="3">
         <v>60300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>80900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>271800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>41800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>173400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>72200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26400</v>
+        <v>27100</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>25400</v>
       </c>
       <c r="F83" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J83" s="3">
         <v>24500</v>
       </c>
-      <c r="G83" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>26300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P83" s="3">
         <v>20600</v>
       </c>
-      <c r="I83" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>22000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>26300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>21600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>28700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>22400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>20600</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>156300</v>
+        <v>132200</v>
       </c>
       <c r="E89" s="3">
-        <v>66700</v>
+        <v>150200</v>
       </c>
       <c r="F89" s="3">
-        <v>124900</v>
+        <v>64100</v>
       </c>
       <c r="G89" s="3">
-        <v>83400</v>
+        <v>120100</v>
       </c>
       <c r="H89" s="3">
-        <v>120000</v>
+        <v>80200</v>
       </c>
       <c r="I89" s="3">
-        <v>99000</v>
+        <v>115300</v>
       </c>
       <c r="J89" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K89" s="3">
         <v>53900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>244400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>109900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>156800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>49200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28300</v>
+        <v>-15700</v>
       </c>
       <c r="E91" s="3">
-        <v>-34000</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-17600</v>
+        <v>-32700</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-16900</v>
       </c>
       <c r="H91" s="3">
-        <v>-9800</v>
+        <v>-13000</v>
       </c>
       <c r="I91" s="3">
-        <v>-35100</v>
+        <v>-9400</v>
       </c>
       <c r="J91" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>50700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93500</v>
+        <v>-11600</v>
       </c>
       <c r="E94" s="3">
-        <v>-55000</v>
+        <v>-89800</v>
       </c>
       <c r="F94" s="3">
-        <v>-23700</v>
+        <v>-52900</v>
       </c>
       <c r="G94" s="3">
-        <v>-12000</v>
+        <v>-23300</v>
       </c>
       <c r="H94" s="3">
-        <v>-28000</v>
+        <v>-11000</v>
       </c>
       <c r="I94" s="3">
-        <v>-50700</v>
+        <v>-26900</v>
       </c>
       <c r="J94" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-28700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>469800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>266200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,13 +6718,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-121300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6500,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-96600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6512,32 +6746,32 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-107000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-58100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2600</v>
+        <v>-124100</v>
       </c>
       <c r="E100" s="3">
-        <v>-59000</v>
+        <v>-2500</v>
       </c>
       <c r="F100" s="3">
-        <v>-46800</v>
+        <v>-56700</v>
       </c>
       <c r="G100" s="3">
-        <v>-102800</v>
+        <v>-45000</v>
       </c>
       <c r="H100" s="3">
-        <v>-40800</v>
+        <v>-98700</v>
       </c>
       <c r="I100" s="3">
-        <v>-30800</v>
+        <v>-39200</v>
       </c>
       <c r="J100" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-28800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-116700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-183500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-452700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-83400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-111500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-150100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-87700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>12600</v>
-      </c>
       <c r="F101" s="3">
-        <v>7700</v>
+        <v>12200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2600</v>
+        <v>7400</v>
       </c>
       <c r="H101" s="3">
-        <v>13800</v>
+        <v>-2500</v>
       </c>
       <c r="I101" s="3">
-        <v>-11600</v>
+        <v>13200</v>
       </c>
       <c r="J101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>9600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-38600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61100</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-34700</v>
+        <v>58700</v>
       </c>
       <c r="F102" s="3">
-        <v>62100</v>
+        <v>-33400</v>
       </c>
       <c r="G102" s="3">
-        <v>-34000</v>
+        <v>59700</v>
       </c>
       <c r="H102" s="3">
-        <v>65000</v>
+        <v>-32600</v>
       </c>
       <c r="I102" s="3">
-        <v>5900</v>
+        <v>62500</v>
       </c>
       <c r="J102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-106000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>24000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-456100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-98700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-104700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>349200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>161400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>558000</v>
+        <v>622500</v>
       </c>
       <c r="E8" s="3">
-        <v>515600</v>
+        <v>571100</v>
       </c>
       <c r="F8" s="3">
-        <v>490000</v>
+        <v>527700</v>
       </c>
       <c r="G8" s="3">
-        <v>431800</v>
+        <v>501500</v>
       </c>
       <c r="H8" s="3">
-        <v>410600</v>
+        <v>441900</v>
       </c>
       <c r="I8" s="3">
-        <v>393000</v>
+        <v>420300</v>
       </c>
       <c r="J8" s="3">
+        <v>402200</v>
+      </c>
+      <c r="K8" s="3">
         <v>345700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>326500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>372900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>367100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>316600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>306100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>297600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>301300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>231500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>229200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>174600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>230700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>199800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>240700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>184100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>202600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>292700</v>
+        <v>323100</v>
       </c>
       <c r="E9" s="3">
-        <v>269100</v>
+        <v>299600</v>
       </c>
       <c r="F9" s="3">
-        <v>259600</v>
+        <v>275400</v>
       </c>
       <c r="G9" s="3">
-        <v>228200</v>
+        <v>265700</v>
       </c>
       <c r="H9" s="3">
-        <v>213200</v>
+        <v>233500</v>
       </c>
       <c r="I9" s="3">
-        <v>198400</v>
+        <v>218200</v>
       </c>
       <c r="J9" s="3">
+        <v>203100</v>
+      </c>
+      <c r="K9" s="3">
         <v>189500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>226800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>182400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>175200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>174600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>175600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>132700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>108500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>140100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>122200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>136100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>104900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>111600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>265300</v>
+        <v>299400</v>
       </c>
       <c r="E10" s="3">
-        <v>246500</v>
+        <v>271500</v>
       </c>
       <c r="F10" s="3">
-        <v>230400</v>
+        <v>252300</v>
       </c>
       <c r="G10" s="3">
-        <v>203600</v>
+        <v>235800</v>
       </c>
       <c r="H10" s="3">
-        <v>197400</v>
+        <v>208400</v>
       </c>
       <c r="I10" s="3">
-        <v>194500</v>
+        <v>202000</v>
       </c>
       <c r="J10" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K10" s="3">
         <v>156200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>163000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>180100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>163500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>175400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>134200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>130900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>123000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>94600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>96500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>66100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>90600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>77600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>104600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>79100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>91000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42900</v>
+        <v>52800</v>
       </c>
       <c r="E12" s="3">
-        <v>36100</v>
+        <v>43900</v>
       </c>
       <c r="F12" s="3">
-        <v>39800</v>
+        <v>37000</v>
       </c>
       <c r="G12" s="3">
-        <v>31800</v>
+        <v>40700</v>
       </c>
       <c r="H12" s="3">
-        <v>26800</v>
+        <v>32500</v>
       </c>
       <c r="I12" s="3">
-        <v>25200</v>
+        <v>27500</v>
       </c>
       <c r="J12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K12" s="3">
         <v>28700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>16700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>28200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>328100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-61000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>9200</v>
       </c>
       <c r="E15" s="3">
-        <v>7200</v>
+        <v>8200</v>
       </c>
       <c r="F15" s="3">
-        <v>8100</v>
+        <v>7300</v>
       </c>
       <c r="G15" s="3">
-        <v>6200</v>
+        <v>8300</v>
       </c>
       <c r="H15" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="I15" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="J15" s="3">
         <v>5400</v>
       </c>
       <c r="K15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L15" s="3">
         <v>5200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4000</v>
       </c>
       <c r="P15" s="3">
         <v>4000</v>
       </c>
       <c r="Q15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>410800</v>
+        <v>787300</v>
       </c>
       <c r="E17" s="3">
-        <v>373000</v>
+        <v>420400</v>
       </c>
       <c r="F17" s="3">
-        <v>359100</v>
+        <v>381700</v>
       </c>
       <c r="G17" s="3">
-        <v>314800</v>
+        <v>367500</v>
       </c>
       <c r="H17" s="3">
-        <v>292600</v>
+        <v>322200</v>
       </c>
       <c r="I17" s="3">
-        <v>268800</v>
+        <v>299400</v>
       </c>
       <c r="J17" s="3">
+        <v>275100</v>
+      </c>
+      <c r="K17" s="3">
         <v>268400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>239400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>277300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>278900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>249400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>257400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>129500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>241300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>246600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>198400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>187100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>161600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>191500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>176500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>192700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>161300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>167400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147200</v>
+        <v>-164800</v>
       </c>
       <c r="E18" s="3">
-        <v>142600</v>
+        <v>150700</v>
       </c>
       <c r="F18" s="3">
-        <v>130900</v>
+        <v>145900</v>
       </c>
       <c r="G18" s="3">
-        <v>117000</v>
+        <v>134000</v>
       </c>
       <c r="H18" s="3">
-        <v>118100</v>
+        <v>119800</v>
       </c>
       <c r="I18" s="3">
-        <v>124200</v>
+        <v>120800</v>
       </c>
       <c r="J18" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K18" s="3">
         <v>77300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>176600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>56300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>54700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>47900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>22700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>35200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,173 +1582,180 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50200</v>
+        <v>42600</v>
       </c>
       <c r="E20" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30200</v>
+      </c>
+      <c r="G20" s="3">
         <v>29500</v>
       </c>
-      <c r="F20" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>36700</v>
-      </c>
       <c r="H20" s="3">
-        <v>13600</v>
+        <v>37600</v>
       </c>
       <c r="I20" s="3">
-        <v>26500</v>
+        <v>13900</v>
       </c>
       <c r="J20" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>230700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>21400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>128100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>26300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>36000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224500</v>
+        <v>-90000</v>
       </c>
       <c r="E21" s="3">
-        <v>197400</v>
+        <v>229800</v>
       </c>
       <c r="F21" s="3">
-        <v>186800</v>
+        <v>202100</v>
       </c>
       <c r="G21" s="3">
-        <v>177200</v>
+        <v>191200</v>
       </c>
       <c r="H21" s="3">
-        <v>156500</v>
+        <v>181400</v>
       </c>
       <c r="I21" s="3">
-        <v>170500</v>
+        <v>160200</v>
       </c>
       <c r="J21" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K21" s="3">
         <v>109800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>97300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>168800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>101200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>190100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>84900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>287100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>57300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>191400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>62900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>89000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1771,8 +1811,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>11</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>11</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197100</v>
+        <v>-122200</v>
       </c>
       <c r="E23" s="3">
-        <v>171700</v>
+        <v>201800</v>
       </c>
       <c r="F23" s="3">
-        <v>159700</v>
+        <v>175700</v>
       </c>
       <c r="G23" s="3">
-        <v>153700</v>
+        <v>163500</v>
       </c>
       <c r="H23" s="3">
-        <v>131600</v>
+        <v>157300</v>
       </c>
       <c r="I23" s="3">
-        <v>150700</v>
+        <v>134700</v>
       </c>
       <c r="J23" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K23" s="3">
         <v>85300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>96800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>78900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>169600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>70500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>269900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>176100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>49000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>71200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37100</v>
+        <v>31400</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>38000</v>
       </c>
       <c r="F24" s="3">
-        <v>25200</v>
+        <v>30300</v>
       </c>
       <c r="G24" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="H24" s="3">
-        <v>23500</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3">
-        <v>28500</v>
+        <v>24000</v>
       </c>
       <c r="J24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>160000</v>
+        <v>-153600</v>
       </c>
       <c r="E26" s="3">
-        <v>142100</v>
+        <v>163800</v>
       </c>
       <c r="F26" s="3">
-        <v>134500</v>
+        <v>145500</v>
       </c>
       <c r="G26" s="3">
-        <v>128600</v>
+        <v>137700</v>
       </c>
       <c r="H26" s="3">
-        <v>108200</v>
+        <v>131600</v>
       </c>
       <c r="I26" s="3">
-        <v>122200</v>
+        <v>110700</v>
       </c>
       <c r="J26" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K26" s="3">
         <v>78900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>122000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>62400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>271800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>41800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>173400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>47400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>72200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>160000</v>
+        <v>-153600</v>
       </c>
       <c r="E27" s="3">
-        <v>142100</v>
+        <v>163800</v>
       </c>
       <c r="F27" s="3">
-        <v>134500</v>
+        <v>145500</v>
       </c>
       <c r="G27" s="3">
-        <v>128600</v>
+        <v>137700</v>
       </c>
       <c r="H27" s="3">
-        <v>108200</v>
+        <v>131600</v>
       </c>
       <c r="I27" s="3">
-        <v>122200</v>
+        <v>110700</v>
       </c>
       <c r="J27" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K27" s="3">
         <v>78900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>62400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>271800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>41800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>173400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>47400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>72200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2310,8 +2371,8 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>11</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>11</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50200</v>
+        <v>-42600</v>
       </c>
       <c r="E32" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-29500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-36700</v>
-      </c>
       <c r="H32" s="3">
-        <v>-13600</v>
+        <v>-37600</v>
       </c>
       <c r="I32" s="3">
-        <v>-26500</v>
+        <v>-13900</v>
       </c>
       <c r="J32" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-230700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-21400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-128100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-26300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>160000</v>
+        <v>-153600</v>
       </c>
       <c r="E33" s="3">
-        <v>142100</v>
+        <v>163800</v>
       </c>
       <c r="F33" s="3">
-        <v>134500</v>
+        <v>145500</v>
       </c>
       <c r="G33" s="3">
-        <v>128600</v>
+        <v>137700</v>
       </c>
       <c r="H33" s="3">
-        <v>108200</v>
+        <v>131600</v>
       </c>
       <c r="I33" s="3">
-        <v>122200</v>
+        <v>110700</v>
       </c>
       <c r="J33" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K33" s="3">
         <v>78900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>80900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>62400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>271800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>41800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>173400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>47400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>72200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>160000</v>
+        <v>-153600</v>
       </c>
       <c r="E35" s="3">
-        <v>142100</v>
+        <v>163800</v>
       </c>
       <c r="F35" s="3">
-        <v>134500</v>
+        <v>145500</v>
       </c>
       <c r="G35" s="3">
-        <v>128600</v>
+        <v>137700</v>
       </c>
       <c r="H35" s="3">
-        <v>108200</v>
+        <v>131600</v>
       </c>
       <c r="I35" s="3">
-        <v>122200</v>
+        <v>110700</v>
       </c>
       <c r="J35" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K35" s="3">
         <v>78900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>80900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>62400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>271800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>41800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>173400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>47400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>72200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>550600</v>
+        <v>684200</v>
       </c>
       <c r="E41" s="3">
-        <v>548900</v>
+        <v>563500</v>
       </c>
       <c r="F41" s="3">
-        <v>490200</v>
+        <v>561800</v>
       </c>
       <c r="G41" s="3">
-        <v>523600</v>
+        <v>501700</v>
       </c>
       <c r="H41" s="3">
-        <v>463900</v>
+        <v>535900</v>
       </c>
       <c r="I41" s="3">
-        <v>496600</v>
+        <v>474800</v>
       </c>
       <c r="J41" s="3">
+        <v>508200</v>
+      </c>
+      <c r="K41" s="3">
         <v>434100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>445800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>470800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>597000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>581200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>560500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>448800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>373800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>338200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>314200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>715000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>813700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>938500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>589300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>586600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>444800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>443900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>501700</v>
+        <v>551200</v>
       </c>
       <c r="E43" s="3">
-        <v>519100</v>
+        <v>513500</v>
       </c>
       <c r="F43" s="3">
-        <v>464100</v>
+        <v>531200</v>
       </c>
       <c r="G43" s="3">
-        <v>372300</v>
+        <v>475000</v>
       </c>
       <c r="H43" s="3">
-        <v>324700</v>
+        <v>381000</v>
       </c>
       <c r="I43" s="3">
-        <v>307300</v>
+        <v>332300</v>
       </c>
       <c r="J43" s="3">
+        <v>314500</v>
+      </c>
+      <c r="K43" s="3">
         <v>279900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>267000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>267500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>213300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>234400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>284400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>309100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>236900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>210400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>210500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>187500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>141400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>184500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>145300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>166600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>121400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>161300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>339700</v>
+        <v>474000</v>
       </c>
       <c r="E44" s="3">
-        <v>255100</v>
+        <v>347700</v>
       </c>
       <c r="F44" s="3">
-        <v>211300</v>
+        <v>261100</v>
       </c>
       <c r="G44" s="3">
-        <v>186000</v>
+        <v>216200</v>
       </c>
       <c r="H44" s="3">
-        <v>172400</v>
+        <v>190400</v>
       </c>
       <c r="I44" s="3">
-        <v>170100</v>
+        <v>176400</v>
       </c>
       <c r="J44" s="3">
+        <v>174100</v>
+      </c>
+      <c r="K44" s="3">
         <v>161800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>202200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>206600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>208200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>203300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>218400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>183000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>166600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>160300</v>
-      </c>
-      <c r="W44" s="3">
-        <v>168500</v>
       </c>
       <c r="X44" s="3">
         <v>168500</v>
       </c>
       <c r="Y44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="Z44" s="3">
         <v>165800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>131900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60700</v>
+        <v>79500</v>
       </c>
       <c r="E45" s="3">
-        <v>57400</v>
+        <v>62100</v>
       </c>
       <c r="F45" s="3">
-        <v>50800</v>
+        <v>58700</v>
       </c>
       <c r="G45" s="3">
-        <v>73900</v>
+        <v>52000</v>
       </c>
       <c r="H45" s="3">
-        <v>77700</v>
+        <v>75600</v>
       </c>
       <c r="I45" s="3">
-        <v>52900</v>
+        <v>79600</v>
       </c>
       <c r="J45" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K45" s="3">
         <v>72800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>85800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>26800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1452700</v>
+        <v>1788900</v>
       </c>
       <c r="E46" s="3">
-        <v>1380500</v>
+        <v>1486800</v>
       </c>
       <c r="F46" s="3">
-        <v>1216500</v>
+        <v>1412800</v>
       </c>
       <c r="G46" s="3">
-        <v>1155800</v>
+        <v>1245000</v>
       </c>
       <c r="H46" s="3">
-        <v>1038700</v>
+        <v>1182900</v>
       </c>
       <c r="I46" s="3">
-        <v>1026800</v>
+        <v>1063100</v>
       </c>
       <c r="J46" s="3">
+        <v>1050900</v>
+      </c>
+      <c r="K46" s="3">
         <v>948500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>973500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1021100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1093200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1103500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1115100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>863800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>805100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>765400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1112300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1135800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1304600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>926000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>951900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>752600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>763800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>915500</v>
+        <v>650200</v>
       </c>
       <c r="E47" s="3">
-        <v>881300</v>
+        <v>937000</v>
       </c>
       <c r="F47" s="3">
-        <v>846600</v>
+        <v>902000</v>
       </c>
       <c r="G47" s="3">
-        <v>805900</v>
+        <v>866500</v>
       </c>
       <c r="H47" s="3">
-        <v>767000</v>
+        <v>824800</v>
       </c>
       <c r="I47" s="3">
-        <v>779500</v>
+        <v>785000</v>
       </c>
       <c r="J47" s="3">
+        <v>797800</v>
+      </c>
+      <c r="K47" s="3">
         <v>740800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>774900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>846700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>893900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>908600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>926100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>914300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>959400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>934000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>909800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>838400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>797200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>819700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1127300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1147200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1464800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1429700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>376200</v>
+        <v>415000</v>
       </c>
       <c r="E48" s="3">
-        <v>367800</v>
+        <v>385000</v>
       </c>
       <c r="F48" s="3">
-        <v>346800</v>
+        <v>376400</v>
       </c>
       <c r="G48" s="3">
-        <v>326100</v>
+        <v>354900</v>
       </c>
       <c r="H48" s="3">
-        <v>316600</v>
+        <v>333700</v>
       </c>
       <c r="I48" s="3">
-        <v>318800</v>
+        <v>324000</v>
       </c>
       <c r="J48" s="3">
+        <v>326200</v>
+      </c>
+      <c r="K48" s="3">
         <v>306000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>302100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>309600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>306900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>279800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>272600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>257500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>268100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>228800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>221800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>186700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>163600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>153000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>150300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>156300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>162700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>154500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>377200</v>
+        <v>423400</v>
       </c>
       <c r="E49" s="3">
-        <v>344800</v>
+        <v>386000</v>
       </c>
       <c r="F49" s="3">
-        <v>285400</v>
+        <v>352800</v>
       </c>
       <c r="G49" s="3">
-        <v>264500</v>
+        <v>292100</v>
       </c>
       <c r="H49" s="3">
-        <v>248000</v>
+        <v>270700</v>
       </c>
       <c r="I49" s="3">
-        <v>237300</v>
+        <v>253900</v>
       </c>
       <c r="J49" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K49" s="3">
         <v>220600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>226100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>234700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>239800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>234100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>233000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>218900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>209300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>190700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>178400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>156900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>143500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>139800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>131100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>244600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>136700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>130800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>8500</v>
+        <v>9100</v>
       </c>
       <c r="F52" s="3">
         <v>8800</v>
       </c>
       <c r="G52" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="H52" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="I52" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="J52" s="3">
         <v>8200</v>
       </c>
       <c r="K52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>25800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>22000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3130400</v>
+        <v>3286700</v>
       </c>
       <c r="E54" s="3">
-        <v>2982900</v>
+        <v>3203900</v>
       </c>
       <c r="F54" s="3">
-        <v>2704000</v>
+        <v>3052900</v>
       </c>
       <c r="G54" s="3">
-        <v>2561100</v>
+        <v>2767500</v>
       </c>
       <c r="H54" s="3">
-        <v>2378600</v>
+        <v>2621200</v>
       </c>
       <c r="I54" s="3">
-        <v>2370400</v>
+        <v>2434400</v>
       </c>
       <c r="J54" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2224100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2289300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2425500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2547700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2539300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2564500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2421200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2326600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2186000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2104100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2320900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2265400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2442800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2353700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2402200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2536900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2500900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>245100</v>
+        <v>254500</v>
       </c>
       <c r="E57" s="3">
-        <v>210400</v>
+        <v>250800</v>
       </c>
       <c r="F57" s="3">
-        <v>175000</v>
+        <v>215400</v>
       </c>
       <c r="G57" s="3">
-        <v>156600</v>
+        <v>179100</v>
       </c>
       <c r="H57" s="3">
-        <v>148100</v>
+        <v>160300</v>
       </c>
       <c r="I57" s="3">
-        <v>151100</v>
+        <v>151600</v>
       </c>
       <c r="J57" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K57" s="3">
         <v>124200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>121100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>141800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>126500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>110000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>110100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>95400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>115000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>109100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>94500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>89000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>81000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>95100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>88500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>71500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4166,23 +4300,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8200</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" s="3">
         <v>8400</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>11</v>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,189 +4345,198 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>284800</v>
+        <v>423300</v>
       </c>
       <c r="E59" s="3">
-        <v>301500</v>
+        <v>291500</v>
       </c>
       <c r="F59" s="3">
-        <v>231700</v>
+        <v>308600</v>
       </c>
       <c r="G59" s="3">
-        <v>239900</v>
+        <v>237100</v>
       </c>
       <c r="H59" s="3">
-        <v>198900</v>
+        <v>245500</v>
       </c>
       <c r="I59" s="3">
-        <v>192500</v>
+        <v>203600</v>
       </c>
       <c r="J59" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K59" s="3">
         <v>215200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>220900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>205800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>226300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>134400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>62200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>74900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>65600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>57600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>66900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>529900</v>
+        <v>677800</v>
       </c>
       <c r="E60" s="3">
-        <v>511900</v>
+        <v>542300</v>
       </c>
       <c r="F60" s="3">
-        <v>406600</v>
+        <v>524000</v>
       </c>
       <c r="G60" s="3">
-        <v>396600</v>
+        <v>416200</v>
       </c>
       <c r="H60" s="3">
-        <v>347000</v>
+        <v>405900</v>
       </c>
       <c r="I60" s="3">
-        <v>343600</v>
+        <v>355200</v>
       </c>
       <c r="J60" s="3">
+        <v>351700</v>
+      </c>
+      <c r="K60" s="3">
         <v>339400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>342000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>362800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>355200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>374200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>325300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>294800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>238600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>229800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>181100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>171400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>154200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>169900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>155900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>160600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>146100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>138400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15500</v>
+        <v>18100</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F61" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="G61" s="3">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="H61" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="I61" s="3">
-        <v>13100</v>
+        <v>12800</v>
       </c>
       <c r="J61" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K61" s="3">
         <v>13000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4401,20 +4544,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>18400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>21500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55500</v>
+        <v>68300</v>
       </c>
       <c r="E62" s="3">
-        <v>49400</v>
+        <v>56800</v>
       </c>
       <c r="F62" s="3">
-        <v>45600</v>
+        <v>50600</v>
       </c>
       <c r="G62" s="3">
-        <v>38700</v>
+        <v>46700</v>
       </c>
       <c r="H62" s="3">
-        <v>33600</v>
+        <v>39600</v>
       </c>
       <c r="I62" s="3">
-        <v>26100</v>
+        <v>34400</v>
       </c>
       <c r="J62" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K62" s="3">
         <v>21800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600800</v>
+        <v>764200</v>
       </c>
       <c r="E66" s="3">
-        <v>577400</v>
+        <v>614900</v>
       </c>
       <c r="F66" s="3">
-        <v>468100</v>
+        <v>590900</v>
       </c>
       <c r="G66" s="3">
-        <v>447300</v>
+        <v>479100</v>
       </c>
       <c r="H66" s="3">
-        <v>393200</v>
+        <v>457800</v>
       </c>
       <c r="I66" s="3">
-        <v>382900</v>
+        <v>402400</v>
       </c>
       <c r="J66" s="3">
+        <v>391900</v>
+      </c>
+      <c r="K66" s="3">
         <v>374200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>377600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>402300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>394400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>416200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>360600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>330300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>274800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>244200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>198000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>187300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>169900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>185900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>171700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>175100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>162600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>155400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,76 +5335,79 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2645200</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="3">
-        <v>2363700</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>2707200</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>2082200</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2419200</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>2131000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
         <v>1918200</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2162500</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2267800</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2409100</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2266900</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2370200</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2350700</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>11</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2529600</v>
+        <v>2522500</v>
       </c>
       <c r="E76" s="3">
-        <v>2405500</v>
+        <v>2588900</v>
       </c>
       <c r="F76" s="3">
-        <v>2235900</v>
+        <v>2461900</v>
       </c>
       <c r="G76" s="3">
-        <v>2113900</v>
+        <v>2288400</v>
       </c>
       <c r="H76" s="3">
-        <v>1985500</v>
+        <v>2163500</v>
       </c>
       <c r="I76" s="3">
-        <v>1987500</v>
+        <v>2032100</v>
       </c>
       <c r="J76" s="3">
+        <v>2034200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1849900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1911700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2023200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2153300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2123100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2203900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2090900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2051900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1941800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1906100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2133700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2095500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2256900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2181900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2227100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2374300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2345400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>160000</v>
+        <v>-153600</v>
       </c>
       <c r="E81" s="3">
-        <v>142100</v>
+        <v>163800</v>
       </c>
       <c r="F81" s="3">
-        <v>134500</v>
+        <v>145500</v>
       </c>
       <c r="G81" s="3">
-        <v>128600</v>
+        <v>137700</v>
       </c>
       <c r="H81" s="3">
-        <v>108200</v>
+        <v>131600</v>
       </c>
       <c r="I81" s="3">
-        <v>122200</v>
+        <v>110700</v>
       </c>
       <c r="J81" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K81" s="3">
         <v>78900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>80900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>62400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>271800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>41800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>173400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>47400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>72200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27100</v>
+        <v>32200</v>
       </c>
       <c r="E83" s="3">
-        <v>25400</v>
+        <v>27700</v>
       </c>
       <c r="F83" s="3">
-        <v>27100</v>
+        <v>26000</v>
       </c>
       <c r="G83" s="3">
-        <v>23500</v>
+        <v>27700</v>
       </c>
       <c r="H83" s="3">
-        <v>24900</v>
+        <v>24000</v>
       </c>
       <c r="I83" s="3">
-        <v>19800</v>
+        <v>25500</v>
       </c>
       <c r="J83" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K83" s="3">
         <v>24500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>17800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>132200</v>
+        <v>157800</v>
       </c>
       <c r="E89" s="3">
-        <v>150200</v>
+        <v>135300</v>
       </c>
       <c r="F89" s="3">
-        <v>64100</v>
+        <v>153700</v>
       </c>
       <c r="G89" s="3">
-        <v>120100</v>
+        <v>65600</v>
       </c>
       <c r="H89" s="3">
-        <v>80200</v>
+        <v>122900</v>
       </c>
       <c r="I89" s="3">
-        <v>115300</v>
+        <v>82100</v>
       </c>
       <c r="J89" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K89" s="3">
         <v>95200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>92000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>244400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>109900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>156800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>33700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>39200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>34000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15700</v>
+        <v>-21800</v>
       </c>
       <c r="E91" s="3">
-        <v>-27200</v>
+        <v>-16100</v>
       </c>
       <c r="F91" s="3">
-        <v>-32700</v>
+        <v>-27800</v>
       </c>
       <c r="G91" s="3">
-        <v>-16900</v>
+        <v>-33500</v>
       </c>
       <c r="H91" s="3">
-        <v>-13000</v>
+        <v>-17300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9400</v>
+        <v>-13300</v>
       </c>
       <c r="J91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>50700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-11600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-30100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-45400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>469800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>266200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,16 +6952,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-121300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-124200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6737,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-96600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-98900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6749,32 +6983,32 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-107000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-58100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-7700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6794,10 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-124100</v>
+        <v>-2900</v>
       </c>
       <c r="E100" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-56700</v>
-      </c>
       <c r="G100" s="3">
-        <v>-45000</v>
+        <v>-58100</v>
       </c>
       <c r="H100" s="3">
-        <v>-98700</v>
+        <v>-46000</v>
       </c>
       <c r="I100" s="3">
-        <v>-39200</v>
+        <v>-101100</v>
       </c>
       <c r="J100" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-116700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-183500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-452700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-83400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-111500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-150100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-36100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-87700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5200</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>12200</v>
-      </c>
       <c r="G101" s="3">
-        <v>7400</v>
+        <v>12400</v>
       </c>
       <c r="H101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>15800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>15800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>7800</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>9600</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-38600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>58700</v>
-      </c>
       <c r="F102" s="3">
+        <v>60100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>61100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-33400</v>
       </c>
-      <c r="G102" s="3">
-        <v>59700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>62500</v>
-      </c>
       <c r="J102" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-106000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-456100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-98700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-104700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>349200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>161400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>622500</v>
+        <v>766800</v>
       </c>
       <c r="E8" s="3">
-        <v>571100</v>
+        <v>645200</v>
       </c>
       <c r="F8" s="3">
-        <v>527700</v>
+        <v>592000</v>
       </c>
       <c r="G8" s="3">
-        <v>501500</v>
+        <v>546900</v>
       </c>
       <c r="H8" s="3">
-        <v>441900</v>
+        <v>519800</v>
       </c>
       <c r="I8" s="3">
-        <v>420300</v>
+        <v>458000</v>
       </c>
       <c r="J8" s="3">
+        <v>435600</v>
+      </c>
+      <c r="K8" s="3">
         <v>402200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>345700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>326500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>372900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>367100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>316600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>297600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>301300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>231500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>229200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>174600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>230700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>199800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>240700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>184100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>202600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>323100</v>
+        <v>410800</v>
       </c>
       <c r="E9" s="3">
-        <v>299600</v>
+        <v>334800</v>
       </c>
       <c r="F9" s="3">
+        <v>310500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>285400</v>
+      </c>
+      <c r="H9" s="3">
         <v>275400</v>
       </c>
-      <c r="G9" s="3">
-        <v>265700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>233500</v>
-      </c>
       <c r="I9" s="3">
-        <v>218200</v>
+        <v>242000</v>
       </c>
       <c r="J9" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K9" s="3">
         <v>203100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>189500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>192800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>203600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>226800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>182400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>175200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>174600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>175600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>132700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>108500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>140100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>122200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>136100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>104900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>111600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>299400</v>
+        <v>356100</v>
       </c>
       <c r="E10" s="3">
-        <v>271500</v>
+        <v>310300</v>
       </c>
       <c r="F10" s="3">
-        <v>252300</v>
+        <v>281400</v>
       </c>
       <c r="G10" s="3">
-        <v>235800</v>
+        <v>261400</v>
       </c>
       <c r="H10" s="3">
-        <v>208400</v>
+        <v>244400</v>
       </c>
       <c r="I10" s="3">
-        <v>202000</v>
+        <v>216000</v>
       </c>
       <c r="J10" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K10" s="3">
         <v>199100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>156200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>163000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>180100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>163500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>175400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>134200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>130900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>123000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>94600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>66100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>90600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>77600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>104600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>79100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>91000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52800</v>
+        <v>72000</v>
       </c>
       <c r="E12" s="3">
-        <v>43900</v>
+        <v>54700</v>
       </c>
       <c r="F12" s="3">
-        <v>37000</v>
+        <v>45500</v>
       </c>
       <c r="G12" s="3">
-        <v>40700</v>
+        <v>38300</v>
       </c>
       <c r="H12" s="3">
-        <v>32500</v>
+        <v>42200</v>
       </c>
       <c r="I12" s="3">
-        <v>27500</v>
+        <v>33700</v>
       </c>
       <c r="J12" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>16700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>28200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>328100</v>
+        <v>-112200</v>
       </c>
       <c r="E14" s="3">
+        <v>340100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-61000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-121200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>9200</v>
+        <v>11300</v>
       </c>
       <c r="E15" s="3">
-        <v>8200</v>
+        <v>9500</v>
       </c>
       <c r="F15" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="G15" s="3">
-        <v>8300</v>
+        <v>7600</v>
       </c>
       <c r="H15" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="I15" s="3">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="J15" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="K15" s="3">
         <v>5400</v>
       </c>
       <c r="L15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M15" s="3">
         <v>5200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4000</v>
       </c>
       <c r="Q15" s="3">
         <v>4000</v>
       </c>
       <c r="R15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>787300</v>
+        <v>462100</v>
       </c>
       <c r="E17" s="3">
-        <v>420400</v>
+        <v>816000</v>
       </c>
       <c r="F17" s="3">
-        <v>381700</v>
+        <v>435800</v>
       </c>
       <c r="G17" s="3">
-        <v>367500</v>
+        <v>395700</v>
       </c>
       <c r="H17" s="3">
-        <v>322200</v>
+        <v>380900</v>
       </c>
       <c r="I17" s="3">
-        <v>299400</v>
+        <v>333900</v>
       </c>
       <c r="J17" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K17" s="3">
         <v>275100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>268400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>239400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>277300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>278900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>249400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>257400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>129500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>241300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>246600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>198400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>187100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>161600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>191500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>176500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>192700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>161300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>167400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-164800</v>
+        <v>304700</v>
       </c>
       <c r="E18" s="3">
-        <v>150700</v>
+        <v>-170800</v>
       </c>
       <c r="F18" s="3">
-        <v>145900</v>
+        <v>156200</v>
       </c>
       <c r="G18" s="3">
-        <v>134000</v>
+        <v>151200</v>
       </c>
       <c r="H18" s="3">
-        <v>119800</v>
+        <v>138900</v>
       </c>
       <c r="I18" s="3">
-        <v>120800</v>
+        <v>124100</v>
       </c>
       <c r="J18" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K18" s="3">
         <v>127100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>176600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>56300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>54700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>22700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>35200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,182 +1615,189 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42600</v>
+        <v>-35000</v>
       </c>
       <c r="E20" s="3">
-        <v>51400</v>
+        <v>44200</v>
       </c>
       <c r="F20" s="3">
-        <v>30200</v>
+        <v>53300</v>
       </c>
       <c r="G20" s="3">
-        <v>29500</v>
+        <v>31300</v>
       </c>
       <c r="H20" s="3">
-        <v>37600</v>
+        <v>30600</v>
       </c>
       <c r="I20" s="3">
-        <v>13900</v>
+        <v>39000</v>
       </c>
       <c r="J20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K20" s="3">
         <v>27100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>230700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>21400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>128100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>26300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>36000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-90000</v>
+        <v>310200</v>
       </c>
       <c r="E21" s="3">
-        <v>229800</v>
+        <v>-93300</v>
       </c>
       <c r="F21" s="3">
-        <v>202100</v>
+        <v>238200</v>
       </c>
       <c r="G21" s="3">
-        <v>191200</v>
+        <v>209400</v>
       </c>
       <c r="H21" s="3">
-        <v>181400</v>
+        <v>198100</v>
       </c>
       <c r="I21" s="3">
-        <v>160200</v>
+        <v>188000</v>
       </c>
       <c r="J21" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K21" s="3">
         <v>174500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>97300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>123000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>168800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>101200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>190100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>81500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>287100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>57300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>191400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>62900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>89000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
+      <c r="G22" s="3">
+        <v>400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
@@ -1772,8 +1811,8 @@
       <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1814,8 +1853,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>11</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>11</v>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-122200</v>
+        <v>269700</v>
       </c>
       <c r="E23" s="3">
-        <v>201800</v>
+        <v>-126600</v>
       </c>
       <c r="F23" s="3">
-        <v>175700</v>
+        <v>209100</v>
       </c>
       <c r="G23" s="3">
-        <v>163500</v>
+        <v>182100</v>
       </c>
       <c r="H23" s="3">
-        <v>157300</v>
+        <v>169400</v>
       </c>
       <c r="I23" s="3">
-        <v>134700</v>
+        <v>163100</v>
       </c>
       <c r="J23" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K23" s="3">
         <v>154200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>78900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>169600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>70500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>269900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>176100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>49000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>71200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="G24" s="3">
         <v>31400</v>
       </c>
-      <c r="E24" s="3">
-        <v>38000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>30300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>25800</v>
-      </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="I24" s="3">
-        <v>24000</v>
+        <v>26700</v>
       </c>
       <c r="J24" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K24" s="3">
         <v>29200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-153600</v>
+        <v>250400</v>
       </c>
       <c r="E26" s="3">
-        <v>163800</v>
+        <v>-159200</v>
       </c>
       <c r="F26" s="3">
-        <v>145500</v>
+        <v>169800</v>
       </c>
       <c r="G26" s="3">
-        <v>137700</v>
+        <v>150800</v>
       </c>
       <c r="H26" s="3">
-        <v>131600</v>
+        <v>142700</v>
       </c>
       <c r="I26" s="3">
-        <v>110700</v>
+        <v>136400</v>
       </c>
       <c r="J26" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K26" s="3">
         <v>125000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>122000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>59100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>65200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>271800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>41800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>173400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>47400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>72200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-153600</v>
+        <v>250400</v>
       </c>
       <c r="E27" s="3">
-        <v>163800</v>
+        <v>-159200</v>
       </c>
       <c r="F27" s="3">
-        <v>145500</v>
+        <v>169800</v>
       </c>
       <c r="G27" s="3">
-        <v>137700</v>
+        <v>150800</v>
       </c>
       <c r="H27" s="3">
-        <v>131600</v>
+        <v>142700</v>
       </c>
       <c r="I27" s="3">
-        <v>110700</v>
+        <v>136400</v>
       </c>
       <c r="J27" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K27" s="3">
         <v>125000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>78900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>143100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>271800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>41800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>173400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>47400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>72200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2374,8 +2434,8 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>11</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>11</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42600</v>
+        <v>35000</v>
       </c>
       <c r="E32" s="3">
-        <v>-51400</v>
+        <v>-44200</v>
       </c>
       <c r="F32" s="3">
-        <v>-30200</v>
+        <v>-53300</v>
       </c>
       <c r="G32" s="3">
-        <v>-29500</v>
+        <v>-31300</v>
       </c>
       <c r="H32" s="3">
-        <v>-37600</v>
+        <v>-30600</v>
       </c>
       <c r="I32" s="3">
-        <v>-13900</v>
+        <v>-39000</v>
       </c>
       <c r="J32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-230700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-128100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-26300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-153600</v>
+        <v>250400</v>
       </c>
       <c r="E33" s="3">
-        <v>163800</v>
+        <v>-159200</v>
       </c>
       <c r="F33" s="3">
-        <v>145500</v>
+        <v>169800</v>
       </c>
       <c r="G33" s="3">
-        <v>137700</v>
+        <v>150800</v>
       </c>
       <c r="H33" s="3">
-        <v>131600</v>
+        <v>142700</v>
       </c>
       <c r="I33" s="3">
-        <v>110700</v>
+        <v>136400</v>
       </c>
       <c r="J33" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K33" s="3">
         <v>125000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>78900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>65200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>271800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>41800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>173400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>47400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>72200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-153600</v>
+        <v>250400</v>
       </c>
       <c r="E35" s="3">
-        <v>163800</v>
+        <v>-159200</v>
       </c>
       <c r="F35" s="3">
-        <v>145500</v>
+        <v>169800</v>
       </c>
       <c r="G35" s="3">
-        <v>137700</v>
+        <v>150800</v>
       </c>
       <c r="H35" s="3">
-        <v>131600</v>
+        <v>142700</v>
       </c>
       <c r="I35" s="3">
-        <v>110700</v>
+        <v>136400</v>
       </c>
       <c r="J35" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K35" s="3">
         <v>125000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>78900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>65200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>271800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>41800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>173400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>47400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>72200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>684200</v>
+        <v>443600</v>
       </c>
       <c r="E41" s="3">
-        <v>563500</v>
+        <v>709100</v>
       </c>
       <c r="F41" s="3">
-        <v>561800</v>
+        <v>584100</v>
       </c>
       <c r="G41" s="3">
-        <v>501700</v>
+        <v>582300</v>
       </c>
       <c r="H41" s="3">
-        <v>535900</v>
+        <v>520000</v>
       </c>
       <c r="I41" s="3">
-        <v>474800</v>
+        <v>555400</v>
       </c>
       <c r="J41" s="3">
+        <v>492100</v>
+      </c>
+      <c r="K41" s="3">
         <v>508200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>434100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>445800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>470800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>597000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>581200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>560500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>448800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>373800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>338200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>314200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>715000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>813700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>938500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>589300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>586600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>444800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>443900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>551200</v>
+        <v>634400</v>
       </c>
       <c r="E43" s="3">
-        <v>513500</v>
+        <v>571300</v>
       </c>
       <c r="F43" s="3">
-        <v>531200</v>
+        <v>532200</v>
       </c>
       <c r="G43" s="3">
-        <v>475000</v>
+        <v>550600</v>
       </c>
       <c r="H43" s="3">
-        <v>381000</v>
+        <v>492300</v>
       </c>
       <c r="I43" s="3">
-        <v>332300</v>
+        <v>394900</v>
       </c>
       <c r="J43" s="3">
+        <v>344400</v>
+      </c>
+      <c r="K43" s="3">
         <v>314500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>279900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>267000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>267500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>213300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>234400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>284400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>309100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>236900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>210400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>210500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>187500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>141400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>184500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>145300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>166600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>121400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>161300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>474000</v>
+        <v>569700</v>
       </c>
       <c r="E44" s="3">
-        <v>347700</v>
+        <v>491300</v>
       </c>
       <c r="F44" s="3">
-        <v>261100</v>
+        <v>360300</v>
       </c>
       <c r="G44" s="3">
-        <v>216200</v>
+        <v>270600</v>
       </c>
       <c r="H44" s="3">
-        <v>190400</v>
+        <v>224100</v>
       </c>
       <c r="I44" s="3">
-        <v>176400</v>
+        <v>197300</v>
       </c>
       <c r="J44" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K44" s="3">
         <v>174100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>183100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>202200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>206600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>208200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>203300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>218400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>183000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>166600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>160300</v>
-      </c>
-      <c r="X44" s="3">
-        <v>168500</v>
       </c>
       <c r="Y44" s="3">
         <v>168500</v>
       </c>
       <c r="Z44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="AA44" s="3">
         <v>165800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>131900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>79500</v>
+        <v>121200</v>
       </c>
       <c r="E45" s="3">
-        <v>62100</v>
+        <v>82400</v>
       </c>
       <c r="F45" s="3">
-        <v>58700</v>
+        <v>64300</v>
       </c>
       <c r="G45" s="3">
-        <v>52000</v>
+        <v>60900</v>
       </c>
       <c r="H45" s="3">
-        <v>75600</v>
+        <v>53900</v>
       </c>
       <c r="I45" s="3">
-        <v>79600</v>
+        <v>78300</v>
       </c>
       <c r="J45" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K45" s="3">
         <v>54200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>99800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>85800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>20600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>26800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1788900</v>
+        <v>1768800</v>
       </c>
       <c r="E46" s="3">
-        <v>1486800</v>
+        <v>1854100</v>
       </c>
       <c r="F46" s="3">
-        <v>1412800</v>
+        <v>1540900</v>
       </c>
       <c r="G46" s="3">
-        <v>1245000</v>
+        <v>1464300</v>
       </c>
       <c r="H46" s="3">
-        <v>1182900</v>
+        <v>1290400</v>
       </c>
       <c r="I46" s="3">
-        <v>1063100</v>
+        <v>1226000</v>
       </c>
       <c r="J46" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1050900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>948500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>973500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1021100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1093200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1103500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1115100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1013000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>863800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>805100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>765400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1112300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1135800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1304600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>926000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>951900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>752600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>763800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>650200</v>
+        <v>726100</v>
       </c>
       <c r="E47" s="3">
-        <v>937000</v>
+        <v>673900</v>
       </c>
       <c r="F47" s="3">
-        <v>902000</v>
+        <v>971200</v>
       </c>
       <c r="G47" s="3">
-        <v>866500</v>
+        <v>934900</v>
       </c>
       <c r="H47" s="3">
-        <v>824800</v>
+        <v>898000</v>
       </c>
       <c r="I47" s="3">
-        <v>785000</v>
+        <v>854900</v>
       </c>
       <c r="J47" s="3">
+        <v>813600</v>
+      </c>
+      <c r="K47" s="3">
         <v>797800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>740800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>774900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>846700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>893900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>908600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>926100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>914300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>959400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>934000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>909800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>838400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>797200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>819700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1127300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1147200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1464800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1429700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>415000</v>
+        <v>436300</v>
       </c>
       <c r="E48" s="3">
-        <v>385000</v>
+        <v>430100</v>
       </c>
       <c r="F48" s="3">
-        <v>376400</v>
+        <v>399000</v>
       </c>
       <c r="G48" s="3">
-        <v>354900</v>
+        <v>390100</v>
       </c>
       <c r="H48" s="3">
-        <v>333700</v>
+        <v>367800</v>
       </c>
       <c r="I48" s="3">
-        <v>324000</v>
+        <v>345900</v>
       </c>
       <c r="J48" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K48" s="3">
         <v>326200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>306000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>302100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>309600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>306900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>279800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>272600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>257500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>268100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>228800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>221800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>186700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>163600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>153000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>150300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>156300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>162700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>154500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>423400</v>
+        <v>1020500</v>
       </c>
       <c r="E49" s="3">
-        <v>386000</v>
+        <v>438900</v>
       </c>
       <c r="F49" s="3">
-        <v>352800</v>
+        <v>400100</v>
       </c>
       <c r="G49" s="3">
-        <v>292100</v>
+        <v>365700</v>
       </c>
       <c r="H49" s="3">
-        <v>270700</v>
+        <v>302700</v>
       </c>
       <c r="I49" s="3">
-        <v>253900</v>
+        <v>280600</v>
       </c>
       <c r="J49" s="3">
+        <v>263100</v>
+      </c>
+      <c r="K49" s="3">
         <v>242800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>220600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>226100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>234700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>239800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>234100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>233000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>218900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>209300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>190700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>178400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>156900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>143500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>139800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>131100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>244600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>136700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>130800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9000</v>
-      </c>
       <c r="H52" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="I52" s="3">
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="J52" s="3">
-        <v>8200</v>
+        <v>8700</v>
       </c>
       <c r="K52" s="3">
         <v>8200</v>
       </c>
       <c r="L52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>25300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>25800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>22000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3286700</v>
+        <v>3968300</v>
       </c>
       <c r="E54" s="3">
-        <v>3203900</v>
+        <v>3406500</v>
       </c>
       <c r="F54" s="3">
-        <v>3052900</v>
+        <v>3320600</v>
       </c>
       <c r="G54" s="3">
-        <v>2767500</v>
+        <v>3164100</v>
       </c>
       <c r="H54" s="3">
-        <v>2621200</v>
+        <v>2868300</v>
       </c>
       <c r="I54" s="3">
-        <v>2434400</v>
+        <v>2716700</v>
       </c>
       <c r="J54" s="3">
+        <v>2523200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2426000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2224100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2289300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2425500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2547700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2539300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2564500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2421200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2326600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2186000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2104100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2320900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2265400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2442800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2353700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2402200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2536900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2500900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4317,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>254500</v>
+        <v>257600</v>
       </c>
       <c r="E57" s="3">
-        <v>250800</v>
+        <v>263800</v>
       </c>
       <c r="F57" s="3">
-        <v>215400</v>
+        <v>260000</v>
       </c>
       <c r="G57" s="3">
-        <v>179100</v>
+        <v>223200</v>
       </c>
       <c r="H57" s="3">
-        <v>160300</v>
+        <v>185600</v>
       </c>
       <c r="I57" s="3">
-        <v>151600</v>
+        <v>166200</v>
       </c>
       <c r="J57" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K57" s="3">
         <v>154700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>124200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>121100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>141800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>149400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>126500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>110000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>110100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>95400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>109100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>94500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>89000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>81000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>95100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>88500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>71500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4303,23 +4436,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S58" s="3">
         <v>8400</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>11</v>
@@ -4330,8 +4463,8 @@
       <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4348,198 +4481,207 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>423300</v>
+        <v>568100</v>
       </c>
       <c r="E59" s="3">
-        <v>291500</v>
+        <v>438700</v>
       </c>
       <c r="F59" s="3">
-        <v>308600</v>
+        <v>302100</v>
       </c>
       <c r="G59" s="3">
-        <v>237100</v>
+        <v>319800</v>
       </c>
       <c r="H59" s="3">
-        <v>245500</v>
+        <v>245700</v>
       </c>
       <c r="I59" s="3">
-        <v>203600</v>
+        <v>254500</v>
       </c>
       <c r="J59" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K59" s="3">
         <v>197000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>215200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>220900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>205800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>226300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>134400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>66100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>74900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>65600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>57600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>66900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>677800</v>
+        <v>825700</v>
       </c>
       <c r="E60" s="3">
-        <v>542300</v>
+        <v>702500</v>
       </c>
       <c r="F60" s="3">
-        <v>524000</v>
+        <v>562100</v>
       </c>
       <c r="G60" s="3">
-        <v>416200</v>
+        <v>543000</v>
       </c>
       <c r="H60" s="3">
-        <v>405900</v>
+        <v>431300</v>
       </c>
       <c r="I60" s="3">
+        <v>420600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>368100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>351700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>339400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>342000</v>
+      </c>
+      <c r="N60" s="3">
+        <v>362800</v>
+      </c>
+      <c r="O60" s="3">
         <v>355200</v>
       </c>
-      <c r="J60" s="3">
-        <v>351700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>339400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>342000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>362800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>355200</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>374200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>325300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>294800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>238600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>229800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>181100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>171400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>154200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>169900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>155900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>160600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>146100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>138400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18100</v>
+        <v>19700</v>
       </c>
       <c r="E61" s="3">
-        <v>15800</v>
+        <v>18800</v>
       </c>
       <c r="F61" s="3">
         <v>16400</v>
       </c>
       <c r="G61" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="H61" s="3">
-        <v>12200</v>
+        <v>16800</v>
       </c>
       <c r="I61" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J61" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K61" s="3">
         <v>13400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4547,20 +4689,20 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>18400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>21500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4588,88 +4730,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68300</v>
+        <v>214200</v>
       </c>
       <c r="E62" s="3">
-        <v>56800</v>
+        <v>70800</v>
       </c>
       <c r="F62" s="3">
-        <v>50600</v>
+        <v>58900</v>
       </c>
       <c r="G62" s="3">
-        <v>46700</v>
+        <v>52400</v>
       </c>
       <c r="H62" s="3">
-        <v>39600</v>
+        <v>48400</v>
       </c>
       <c r="I62" s="3">
-        <v>34400</v>
+        <v>41100</v>
       </c>
       <c r="J62" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>14500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>764200</v>
+        <v>1059600</v>
       </c>
       <c r="E66" s="3">
-        <v>614900</v>
+        <v>792000</v>
       </c>
       <c r="F66" s="3">
-        <v>590900</v>
+        <v>637300</v>
       </c>
       <c r="G66" s="3">
-        <v>479100</v>
+        <v>612500</v>
       </c>
       <c r="H66" s="3">
-        <v>457800</v>
+        <v>496600</v>
       </c>
       <c r="I66" s="3">
-        <v>402400</v>
+        <v>474400</v>
       </c>
       <c r="J66" s="3">
+        <v>417000</v>
+      </c>
+      <c r="K66" s="3">
         <v>391900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>377600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>402300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>394400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>416200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>360600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>330300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>274800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>244200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>198000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>187300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>169900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>185900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>171700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>175100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>162600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>155400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,79 +5508,82 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>2859600</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3">
-        <v>2707200</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>2805900</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
-        <v>2419200</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>2507400</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
-        <v>2131000</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>2208700</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1918200</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2162500</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2267800</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2409100</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2266900</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2370200</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2350700</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>11</v>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2522500</v>
+        <v>2908800</v>
       </c>
       <c r="E76" s="3">
-        <v>2588900</v>
+        <v>2614400</v>
       </c>
       <c r="F76" s="3">
-        <v>2461900</v>
+        <v>2683300</v>
       </c>
       <c r="G76" s="3">
-        <v>2288400</v>
+        <v>2551700</v>
       </c>
       <c r="H76" s="3">
-        <v>2163500</v>
+        <v>2371800</v>
       </c>
       <c r="I76" s="3">
-        <v>2032100</v>
+        <v>2242300</v>
       </c>
       <c r="J76" s="3">
+        <v>2106100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2034200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1849900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1911700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2023200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2153300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2123100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2203900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2090900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2051900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1941800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1906100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2133700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2095500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2256900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2181900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2227100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2374300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2345400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-153600</v>
+        <v>250400</v>
       </c>
       <c r="E81" s="3">
-        <v>163800</v>
+        <v>-159200</v>
       </c>
       <c r="F81" s="3">
-        <v>145500</v>
+        <v>169800</v>
       </c>
       <c r="G81" s="3">
-        <v>137700</v>
+        <v>150800</v>
       </c>
       <c r="H81" s="3">
-        <v>131600</v>
+        <v>142700</v>
       </c>
       <c r="I81" s="3">
-        <v>110700</v>
+        <v>136400</v>
       </c>
       <c r="J81" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K81" s="3">
         <v>125000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>78900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>65200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>271800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>41800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>173400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>47400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>72200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32200</v>
+        <v>40500</v>
       </c>
       <c r="E83" s="3">
-        <v>27700</v>
+        <v>33400</v>
       </c>
       <c r="F83" s="3">
-        <v>26000</v>
+        <v>28700</v>
       </c>
       <c r="G83" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
       <c r="H83" s="3">
-        <v>24000</v>
+        <v>28700</v>
       </c>
       <c r="I83" s="3">
-        <v>25500</v>
+        <v>24900</v>
       </c>
       <c r="J83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K83" s="3">
         <v>20300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>17200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>17800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>157800</v>
+        <v>109800</v>
       </c>
       <c r="E89" s="3">
-        <v>135300</v>
+        <v>163500</v>
       </c>
       <c r="F89" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="G89" s="3">
-        <v>65600</v>
+        <v>159300</v>
       </c>
       <c r="H89" s="3">
-        <v>122900</v>
+        <v>68000</v>
       </c>
       <c r="I89" s="3">
-        <v>82100</v>
+        <v>127400</v>
       </c>
       <c r="J89" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K89" s="3">
         <v>118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>92000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>244400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>156800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>33700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>39200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>34000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21800</v>
+        <v>-38900</v>
       </c>
       <c r="E91" s="3">
-        <v>-16100</v>
+        <v>-22600</v>
       </c>
       <c r="F91" s="3">
-        <v>-27800</v>
+        <v>-16600</v>
       </c>
       <c r="G91" s="3">
-        <v>-33500</v>
+        <v>-28900</v>
       </c>
       <c r="H91" s="3">
-        <v>-17300</v>
+        <v>-34700</v>
       </c>
       <c r="I91" s="3">
-        <v>-13300</v>
+        <v>-17900</v>
       </c>
       <c r="J91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>50700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33100</v>
+        <v>-360500</v>
       </c>
       <c r="E94" s="3">
-        <v>-11900</v>
+        <v>-34300</v>
       </c>
       <c r="F94" s="3">
-        <v>-91900</v>
+        <v>-12300</v>
       </c>
       <c r="G94" s="3">
-        <v>-54200</v>
+        <v>-95300</v>
       </c>
       <c r="H94" s="3">
-        <v>-23800</v>
+        <v>-56200</v>
       </c>
       <c r="I94" s="3">
-        <v>-11300</v>
+        <v>-24700</v>
       </c>
       <c r="J94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-20500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>469800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>266200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-124200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-128700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6974,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-98900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-102500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6986,32 +7219,32 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-107000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-58100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7031,10 +7264,13 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,235 +7527,244 @@
         <v>-2900</v>
       </c>
       <c r="E100" s="3">
-        <v>-127000</v>
+        <v>-3100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2500</v>
+        <v>-131700</v>
       </c>
       <c r="G100" s="3">
-        <v>-58100</v>
+        <v>-2600</v>
       </c>
       <c r="H100" s="3">
-        <v>-46000</v>
+        <v>-60200</v>
       </c>
       <c r="I100" s="3">
-        <v>-101100</v>
+        <v>-47700</v>
       </c>
       <c r="J100" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-40100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-116700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-183500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-50100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-452700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-83400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-111500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-150100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-36100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-87700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>5400</v>
-      </c>
       <c r="F101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>12400</v>
-      </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>12900</v>
       </c>
       <c r="I101" s="3">
-        <v>-2600</v>
+        <v>7800</v>
       </c>
       <c r="J101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>9600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-38600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>120700</v>
+        <v>-265500</v>
       </c>
       <c r="E102" s="3">
-        <v>1700</v>
+        <v>125100</v>
       </c>
       <c r="F102" s="3">
-        <v>60100</v>
+        <v>1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-34200</v>
+        <v>62200</v>
       </c>
       <c r="H102" s="3">
-        <v>61100</v>
+        <v>-35400</v>
       </c>
       <c r="I102" s="3">
-        <v>-33400</v>
+        <v>63300</v>
       </c>
       <c r="J102" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K102" s="3">
         <v>63900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-106000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-456100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-98700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-104700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>349200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>161400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>17800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>766800</v>
+        <v>764600</v>
       </c>
       <c r="E8" s="3">
-        <v>645200</v>
+        <v>780500</v>
       </c>
       <c r="F8" s="3">
-        <v>592000</v>
+        <v>656700</v>
       </c>
       <c r="G8" s="3">
-        <v>546900</v>
+        <v>602500</v>
       </c>
       <c r="H8" s="3">
-        <v>519800</v>
+        <v>556600</v>
       </c>
       <c r="I8" s="3">
-        <v>458000</v>
+        <v>529100</v>
       </c>
       <c r="J8" s="3">
+        <v>466200</v>
+      </c>
+      <c r="K8" s="3">
         <v>435600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>345700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>326500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>372900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>367100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>316600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>306100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>297600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>301300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>231500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>229200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>174600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>230700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>199800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>240700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>184100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>202600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>410800</v>
+        <v>387100</v>
       </c>
       <c r="E9" s="3">
-        <v>334800</v>
+        <v>418100</v>
       </c>
       <c r="F9" s="3">
-        <v>310500</v>
+        <v>340800</v>
       </c>
       <c r="G9" s="3">
-        <v>285400</v>
+        <v>316100</v>
       </c>
       <c r="H9" s="3">
-        <v>275400</v>
+        <v>290500</v>
       </c>
       <c r="I9" s="3">
-        <v>242000</v>
+        <v>280300</v>
       </c>
       <c r="J9" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K9" s="3">
         <v>226200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>203100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>189500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>163500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>192800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>203600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>226800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>182400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>175200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>174600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>175600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>132700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>108500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>140100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>122200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>136100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>104900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>111600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>356100</v>
+        <v>377500</v>
       </c>
       <c r="E10" s="3">
-        <v>310300</v>
+        <v>362400</v>
       </c>
       <c r="F10" s="3">
-        <v>281400</v>
+        <v>315900</v>
       </c>
       <c r="G10" s="3">
-        <v>261400</v>
+        <v>286400</v>
       </c>
       <c r="H10" s="3">
-        <v>244400</v>
+        <v>266100</v>
       </c>
       <c r="I10" s="3">
-        <v>216000</v>
+        <v>248800</v>
       </c>
       <c r="J10" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K10" s="3">
         <v>209400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>199100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>156200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>163000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>180100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>163500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>134200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>123000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>125700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>94600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>66100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>90600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>77600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>104600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>79100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>91000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>72000</v>
+        <v>69600</v>
       </c>
       <c r="E12" s="3">
-        <v>54700</v>
+        <v>73300</v>
       </c>
       <c r="F12" s="3">
-        <v>45500</v>
+        <v>55700</v>
       </c>
       <c r="G12" s="3">
-        <v>38300</v>
+        <v>46300</v>
       </c>
       <c r="H12" s="3">
-        <v>42200</v>
+        <v>39000</v>
       </c>
       <c r="I12" s="3">
-        <v>33700</v>
+        <v>42900</v>
       </c>
       <c r="J12" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K12" s="3">
         <v>28500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>31000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>18800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>16700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>28200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-112200</v>
+        <v>-232000</v>
       </c>
       <c r="E14" s="3">
-        <v>340100</v>
+        <v>-114200</v>
       </c>
       <c r="F14" s="3">
+        <v>346200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-121200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3400</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E15" s="3">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="F15" s="3">
-        <v>8500</v>
+        <v>9700</v>
       </c>
       <c r="G15" s="3">
-        <v>7600</v>
+        <v>8600</v>
       </c>
       <c r="H15" s="3">
-        <v>8600</v>
+        <v>7800</v>
       </c>
       <c r="I15" s="3">
-        <v>6600</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K15" s="3">
         <v>6000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5400</v>
       </c>
       <c r="L15" s="3">
         <v>5400</v>
       </c>
       <c r="M15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N15" s="3">
         <v>5200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4000</v>
       </c>
       <c r="R15" s="3">
         <v>4000</v>
       </c>
       <c r="S15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T15" s="3">
         <v>3600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4200</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>462100</v>
+        <v>312800</v>
       </c>
       <c r="E17" s="3">
-        <v>816000</v>
+        <v>470400</v>
       </c>
       <c r="F17" s="3">
-        <v>435800</v>
+        <v>830600</v>
       </c>
       <c r="G17" s="3">
-        <v>395700</v>
+        <v>443500</v>
       </c>
       <c r="H17" s="3">
-        <v>380900</v>
+        <v>402700</v>
       </c>
       <c r="I17" s="3">
-        <v>333900</v>
+        <v>387700</v>
       </c>
       <c r="J17" s="3">
+        <v>339900</v>
+      </c>
+      <c r="K17" s="3">
         <v>310300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>275100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>268400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>239400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>277300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>278900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>249400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>257400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>129500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>241300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>246600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>198400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>187100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>161600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>191500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>176500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>192700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>161300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>167400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>304700</v>
+        <v>451800</v>
       </c>
       <c r="E18" s="3">
-        <v>-170800</v>
+        <v>310200</v>
       </c>
       <c r="F18" s="3">
-        <v>156200</v>
+        <v>-173900</v>
       </c>
       <c r="G18" s="3">
-        <v>151200</v>
+        <v>159000</v>
       </c>
       <c r="H18" s="3">
-        <v>138900</v>
+        <v>153900</v>
       </c>
       <c r="I18" s="3">
-        <v>124100</v>
+        <v>141300</v>
       </c>
       <c r="J18" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K18" s="3">
         <v>125200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>176600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>56300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>54700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>39200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>22700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>35200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,191 +1649,198 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35000</v>
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
-        <v>44200</v>
+        <v>-35700</v>
       </c>
       <c r="F20" s="3">
-        <v>53300</v>
+        <v>45000</v>
       </c>
       <c r="G20" s="3">
-        <v>31300</v>
+        <v>54200</v>
       </c>
       <c r="H20" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="I20" s="3">
-        <v>39000</v>
+        <v>31100</v>
       </c>
       <c r="J20" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>230700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>21400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>128100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>26300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>36000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>310200</v>
+        <v>496100</v>
       </c>
       <c r="E21" s="3">
-        <v>-93300</v>
+        <v>315700</v>
       </c>
       <c r="F21" s="3">
-        <v>238200</v>
+        <v>-94900</v>
       </c>
       <c r="G21" s="3">
-        <v>209400</v>
+        <v>242400</v>
       </c>
       <c r="H21" s="3">
-        <v>198100</v>
+        <v>213200</v>
       </c>
       <c r="I21" s="3">
-        <v>188000</v>
+        <v>201700</v>
       </c>
       <c r="J21" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K21" s="3">
         <v>166100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>174500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>97300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>123000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>120200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>168800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>101200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>190100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>78800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>30400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>287100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>57300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>191400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>62900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>89000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>1200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="3">
-        <v>400</v>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
+      <c r="H22" s="3">
+        <v>400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>11</v>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1856,8 +1896,8 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>11</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>11</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>269700</v>
+        <v>449900</v>
       </c>
       <c r="E23" s="3">
-        <v>-126600</v>
+        <v>274500</v>
       </c>
       <c r="F23" s="3">
-        <v>209100</v>
+        <v>-128900</v>
       </c>
       <c r="G23" s="3">
-        <v>182100</v>
+        <v>212800</v>
       </c>
       <c r="H23" s="3">
-        <v>169400</v>
+        <v>185400</v>
       </c>
       <c r="I23" s="3">
-        <v>163100</v>
+        <v>172500</v>
       </c>
       <c r="J23" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K23" s="3">
         <v>139600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>154200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>169600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>70500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>269900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>44700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>176100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>49000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>71200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19300</v>
+        <v>40300</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>19700</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>33100</v>
       </c>
       <c r="G24" s="3">
-        <v>31400</v>
+        <v>40100</v>
       </c>
       <c r="H24" s="3">
-        <v>26700</v>
+        <v>31900</v>
       </c>
       <c r="I24" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="J24" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K24" s="3">
         <v>24900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>250400</v>
+        <v>409600</v>
       </c>
       <c r="E26" s="3">
-        <v>-159200</v>
+        <v>254800</v>
       </c>
       <c r="F26" s="3">
-        <v>169800</v>
+        <v>-162000</v>
       </c>
       <c r="G26" s="3">
-        <v>150800</v>
+        <v>172800</v>
       </c>
       <c r="H26" s="3">
-        <v>142700</v>
+        <v>153500</v>
       </c>
       <c r="I26" s="3">
-        <v>136400</v>
+        <v>145300</v>
       </c>
       <c r="J26" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K26" s="3">
         <v>114700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>125000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>122000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>62400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>65200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>271800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>41800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>173400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>72200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>250400</v>
+        <v>409600</v>
       </c>
       <c r="E27" s="3">
-        <v>-159200</v>
+        <v>254800</v>
       </c>
       <c r="F27" s="3">
-        <v>169800</v>
+        <v>-162000</v>
       </c>
       <c r="G27" s="3">
-        <v>150800</v>
+        <v>172800</v>
       </c>
       <c r="H27" s="3">
-        <v>142700</v>
+        <v>153500</v>
       </c>
       <c r="I27" s="3">
-        <v>136400</v>
+        <v>145300</v>
       </c>
       <c r="J27" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K27" s="3">
         <v>114700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>125000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>78900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>80900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>122000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>65200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>271800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>41800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>173400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>47400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>72200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2437,8 +2498,8 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>11</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>11</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35000</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
-        <v>-44200</v>
+        <v>35700</v>
       </c>
       <c r="F32" s="3">
-        <v>-53300</v>
+        <v>-45000</v>
       </c>
       <c r="G32" s="3">
-        <v>-31300</v>
+        <v>-54200</v>
       </c>
       <c r="H32" s="3">
-        <v>-30600</v>
+        <v>-31800</v>
       </c>
       <c r="I32" s="3">
-        <v>-39000</v>
+        <v>-31100</v>
       </c>
       <c r="J32" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-230700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-128100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-26300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-36000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>250400</v>
+        <v>409600</v>
       </c>
       <c r="E33" s="3">
-        <v>-159200</v>
+        <v>254800</v>
       </c>
       <c r="F33" s="3">
-        <v>169800</v>
+        <v>-162000</v>
       </c>
       <c r="G33" s="3">
-        <v>150800</v>
+        <v>172800</v>
       </c>
       <c r="H33" s="3">
-        <v>142700</v>
+        <v>153500</v>
       </c>
       <c r="I33" s="3">
-        <v>136400</v>
+        <v>145300</v>
       </c>
       <c r="J33" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K33" s="3">
         <v>114700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>125000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>78900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>80900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>122000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>62400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>65200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>271800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>41800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>173400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>47400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>72200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>250400</v>
+        <v>409600</v>
       </c>
       <c r="E35" s="3">
-        <v>-159200</v>
+        <v>254800</v>
       </c>
       <c r="F35" s="3">
-        <v>169800</v>
+        <v>-162000</v>
       </c>
       <c r="G35" s="3">
-        <v>150800</v>
+        <v>172800</v>
       </c>
       <c r="H35" s="3">
-        <v>142700</v>
+        <v>153500</v>
       </c>
       <c r="I35" s="3">
-        <v>136400</v>
+        <v>145300</v>
       </c>
       <c r="J35" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K35" s="3">
         <v>114700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>125000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>78900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>80900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>122000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>62400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>65200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>271800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>41800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>173400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>47400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>72200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>443600</v>
+        <v>616600</v>
       </c>
       <c r="E41" s="3">
-        <v>709100</v>
+        <v>451600</v>
       </c>
       <c r="F41" s="3">
-        <v>584100</v>
+        <v>721800</v>
       </c>
       <c r="G41" s="3">
-        <v>582300</v>
+        <v>594500</v>
       </c>
       <c r="H41" s="3">
-        <v>520000</v>
+        <v>592700</v>
       </c>
       <c r="I41" s="3">
-        <v>555400</v>
+        <v>529300</v>
       </c>
       <c r="J41" s="3">
+        <v>565400</v>
+      </c>
+      <c r="K41" s="3">
         <v>492100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>508200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>434100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>445800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>470800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>597000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>581200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>560500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>448800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>373800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>338200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>314200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>715000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>813700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>938500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>589300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>586600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>444800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>443900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3350,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>634400</v>
+        <v>646500</v>
       </c>
       <c r="E43" s="3">
-        <v>571300</v>
+        <v>645700</v>
       </c>
       <c r="F43" s="3">
-        <v>532200</v>
+        <v>581500</v>
       </c>
       <c r="G43" s="3">
-        <v>550600</v>
+        <v>541700</v>
       </c>
       <c r="H43" s="3">
-        <v>492300</v>
+        <v>560400</v>
       </c>
       <c r="I43" s="3">
-        <v>394900</v>
+        <v>501100</v>
       </c>
       <c r="J43" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K43" s="3">
         <v>344400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>314500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>279900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>267000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>267500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>213300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>234400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>284400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>309100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>236900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>210400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>210500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>187500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>141400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>184500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>145300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>166600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>121400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>161300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>569700</v>
+        <v>619300</v>
       </c>
       <c r="E44" s="3">
-        <v>491300</v>
+        <v>579800</v>
       </c>
       <c r="F44" s="3">
-        <v>360300</v>
+        <v>500100</v>
       </c>
       <c r="G44" s="3">
-        <v>270600</v>
+        <v>366800</v>
       </c>
       <c r="H44" s="3">
-        <v>224100</v>
+        <v>275400</v>
       </c>
       <c r="I44" s="3">
-        <v>197300</v>
+        <v>228100</v>
       </c>
       <c r="J44" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K44" s="3">
         <v>182800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>174100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>183100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>202200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>206600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>208200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>203300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>218400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>183000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>166600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>160300</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>168500</v>
       </c>
       <c r="Z44" s="3">
         <v>168500</v>
       </c>
       <c r="AA44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="AB44" s="3">
         <v>165800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>131900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121200</v>
+        <v>105100</v>
       </c>
       <c r="E45" s="3">
-        <v>82400</v>
+        <v>123300</v>
       </c>
       <c r="F45" s="3">
-        <v>64300</v>
+        <v>83900</v>
       </c>
       <c r="G45" s="3">
-        <v>60900</v>
+        <v>65500</v>
       </c>
       <c r="H45" s="3">
-        <v>53900</v>
+        <v>62000</v>
       </c>
       <c r="I45" s="3">
-        <v>78300</v>
+        <v>54900</v>
       </c>
       <c r="J45" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K45" s="3">
         <v>82500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>99800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>85800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>26900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>30300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>20600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>26800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1768800</v>
+        <v>1987500</v>
       </c>
       <c r="E46" s="3">
-        <v>1854100</v>
+        <v>1800400</v>
       </c>
       <c r="F46" s="3">
-        <v>1540900</v>
+        <v>1887300</v>
       </c>
       <c r="G46" s="3">
-        <v>1464300</v>
+        <v>1568500</v>
       </c>
       <c r="H46" s="3">
-        <v>1290400</v>
+        <v>1490500</v>
       </c>
       <c r="I46" s="3">
-        <v>1226000</v>
+        <v>1313400</v>
       </c>
       <c r="J46" s="3">
+        <v>1247900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1101800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1050900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>948500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>973500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1021100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1093200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1103500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1115100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1013000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>863800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>805100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>765400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1112300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1135800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1304600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>926000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>951900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>752600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>763800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>726100</v>
+        <v>967100</v>
       </c>
       <c r="E47" s="3">
-        <v>673900</v>
+        <v>745400</v>
       </c>
       <c r="F47" s="3">
-        <v>971200</v>
+        <v>686000</v>
       </c>
       <c r="G47" s="3">
-        <v>934900</v>
+        <v>988500</v>
       </c>
       <c r="H47" s="3">
-        <v>898000</v>
+        <v>951600</v>
       </c>
       <c r="I47" s="3">
-        <v>854900</v>
+        <v>914100</v>
       </c>
       <c r="J47" s="3">
+        <v>870200</v>
+      </c>
+      <c r="K47" s="3">
         <v>813600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>797800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>740800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>774900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>846700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>893900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>908600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>926100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>914300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>959400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>934000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>909800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>838400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>797200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>819700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1127300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1147200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1464800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1429700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>436300</v>
+        <v>454000</v>
       </c>
       <c r="E48" s="3">
-        <v>430100</v>
+        <v>444100</v>
       </c>
       <c r="F48" s="3">
-        <v>399000</v>
+        <v>437800</v>
       </c>
       <c r="G48" s="3">
-        <v>390100</v>
+        <v>406200</v>
       </c>
       <c r="H48" s="3">
-        <v>367800</v>
+        <v>397100</v>
       </c>
       <c r="I48" s="3">
-        <v>345900</v>
+        <v>374400</v>
       </c>
       <c r="J48" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K48" s="3">
         <v>335900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>326200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>306000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>302100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>309600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>306900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>279800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>272600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>257500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>268100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>228800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>221800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>186700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>163600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>153000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>150300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>156300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>162700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>154500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1020500</v>
+        <v>1039200</v>
       </c>
       <c r="E49" s="3">
-        <v>438900</v>
+        <v>1038700</v>
       </c>
       <c r="F49" s="3">
-        <v>400100</v>
+        <v>446700</v>
       </c>
       <c r="G49" s="3">
-        <v>365700</v>
+        <v>407200</v>
       </c>
       <c r="H49" s="3">
-        <v>302700</v>
+        <v>372200</v>
       </c>
       <c r="I49" s="3">
-        <v>280600</v>
+        <v>308100</v>
       </c>
       <c r="J49" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K49" s="3">
         <v>263100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>242800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>220600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>226100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>234700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>239800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>234100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>233000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>218900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>209300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>190700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>178400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>156900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>143500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>139800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>131100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>244600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>136700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>130800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="E52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9300</v>
-      </c>
       <c r="J52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K52" s="3">
         <v>8700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8200</v>
       </c>
       <c r="L52" s="3">
         <v>8200</v>
       </c>
       <c r="M52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>25300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>25800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>20200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>22000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3968300</v>
+        <v>4458400</v>
       </c>
       <c r="E54" s="3">
-        <v>3406500</v>
+        <v>4039200</v>
       </c>
       <c r="F54" s="3">
-        <v>3320600</v>
+        <v>3467300</v>
       </c>
       <c r="G54" s="3">
-        <v>3164100</v>
+        <v>3380000</v>
       </c>
       <c r="H54" s="3">
-        <v>2868300</v>
+        <v>3220700</v>
       </c>
       <c r="I54" s="3">
-        <v>2716700</v>
+        <v>2919600</v>
       </c>
       <c r="J54" s="3">
+        <v>2765300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2523200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2426000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2224100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2289300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2425500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2547700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2539300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2564500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2421200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2326600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2186000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2104100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2320900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2265400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2442800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2353700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2402200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2536900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2500900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257600</v>
+        <v>271600</v>
       </c>
       <c r="E57" s="3">
-        <v>263800</v>
+        <v>262200</v>
       </c>
       <c r="F57" s="3">
-        <v>260000</v>
+        <v>268500</v>
       </c>
       <c r="G57" s="3">
-        <v>223200</v>
+        <v>264600</v>
       </c>
       <c r="H57" s="3">
-        <v>185600</v>
+        <v>227200</v>
       </c>
       <c r="I57" s="3">
-        <v>166200</v>
+        <v>188900</v>
       </c>
       <c r="J57" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K57" s="3">
         <v>157100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>124200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>121100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>141800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>126500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>110000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>110100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>95400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>115000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>109100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>94500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>89000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>81000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>95100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>88500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>71500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4439,23 +4573,23 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8200</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T58" s="3">
         <v>8400</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>11</v>
@@ -4466,8 +4600,8 @@
       <c r="W58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4484,207 +4618,216 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>568100</v>
+        <v>623700</v>
       </c>
       <c r="E59" s="3">
-        <v>438700</v>
+        <v>578200</v>
       </c>
       <c r="F59" s="3">
-        <v>302100</v>
+        <v>446500</v>
       </c>
       <c r="G59" s="3">
-        <v>319800</v>
+        <v>307500</v>
       </c>
       <c r="H59" s="3">
-        <v>245700</v>
+        <v>325600</v>
       </c>
       <c r="I59" s="3">
-        <v>254500</v>
+        <v>250100</v>
       </c>
       <c r="J59" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K59" s="3">
         <v>211000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>197000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>215200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>220900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>226300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>184800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>120100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>134400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>66100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>80900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>74900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>65600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>57600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>66900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>825700</v>
+        <v>895300</v>
       </c>
       <c r="E60" s="3">
-        <v>702500</v>
+        <v>840400</v>
       </c>
       <c r="F60" s="3">
-        <v>562100</v>
+        <v>715100</v>
       </c>
       <c r="G60" s="3">
-        <v>543000</v>
+        <v>572100</v>
       </c>
       <c r="H60" s="3">
-        <v>431300</v>
+        <v>552800</v>
       </c>
       <c r="I60" s="3">
-        <v>420600</v>
+        <v>439100</v>
       </c>
       <c r="J60" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K60" s="3">
         <v>368100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>351700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>339400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>342000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>362800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>355200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>374200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>325300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>294800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>238600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>229800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>181100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>171400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>154200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>169900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>155900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>160600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>146100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>138400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19700</v>
+        <v>22400</v>
       </c>
       <c r="E61" s="3">
-        <v>18800</v>
+        <v>20000</v>
       </c>
       <c r="F61" s="3">
-        <v>16400</v>
+        <v>19100</v>
       </c>
       <c r="G61" s="3">
-        <v>17000</v>
+        <v>16700</v>
       </c>
       <c r="H61" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="I61" s="3">
-        <v>12700</v>
+        <v>17100</v>
       </c>
       <c r="J61" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K61" s="3">
         <v>13200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4692,20 +4835,20 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>21500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4733,91 +4876,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214200</v>
+        <v>214800</v>
       </c>
       <c r="E62" s="3">
-        <v>70800</v>
+        <v>218000</v>
       </c>
       <c r="F62" s="3">
-        <v>58900</v>
+        <v>72000</v>
       </c>
       <c r="G62" s="3">
-        <v>52400</v>
+        <v>59900</v>
       </c>
       <c r="H62" s="3">
-        <v>48400</v>
+        <v>53400</v>
       </c>
       <c r="I62" s="3">
-        <v>41100</v>
+        <v>49300</v>
       </c>
       <c r="J62" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K62" s="3">
         <v>35700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>17100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1059600</v>
+        <v>1132500</v>
       </c>
       <c r="E66" s="3">
-        <v>792000</v>
+        <v>1078500</v>
       </c>
       <c r="F66" s="3">
-        <v>637300</v>
+        <v>806200</v>
       </c>
       <c r="G66" s="3">
-        <v>612500</v>
+        <v>648700</v>
       </c>
       <c r="H66" s="3">
-        <v>496600</v>
+        <v>623400</v>
       </c>
       <c r="I66" s="3">
-        <v>474400</v>
+        <v>505400</v>
       </c>
       <c r="J66" s="3">
+        <v>482900</v>
+      </c>
+      <c r="K66" s="3">
         <v>417000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>391900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>374200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>377600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>402300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>394400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>416200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>360600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>330300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>274800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>244200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>198000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>187300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>169900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>185900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>171700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>175100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>162600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>155400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,82 +5682,85 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2859600</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="3">
-        <v>2805900</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>2910700</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>2507400</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>2552100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
         <v>2208700</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1918200</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2162500</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2267800</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2409100</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2266900</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2370200</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2350700</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>11</v>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2908800</v>
+        <v>3326000</v>
       </c>
       <c r="E76" s="3">
-        <v>2614400</v>
+        <v>2960700</v>
       </c>
       <c r="F76" s="3">
-        <v>2683300</v>
+        <v>2661100</v>
       </c>
       <c r="G76" s="3">
-        <v>2551700</v>
+        <v>2731200</v>
       </c>
       <c r="H76" s="3">
-        <v>2371800</v>
+        <v>2597200</v>
       </c>
       <c r="I76" s="3">
-        <v>2242300</v>
+        <v>2414100</v>
       </c>
       <c r="J76" s="3">
+        <v>2282400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2106100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2034200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1849900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1911700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2023200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2153300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2123100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2203900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2090900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2051900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1941800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1906100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2133700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2095500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2256900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2181900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2227100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2374300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2345400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>250400</v>
+        <v>409600</v>
       </c>
       <c r="E81" s="3">
-        <v>-159200</v>
+        <v>254800</v>
       </c>
       <c r="F81" s="3">
-        <v>169800</v>
+        <v>-162000</v>
       </c>
       <c r="G81" s="3">
-        <v>150800</v>
+        <v>172800</v>
       </c>
       <c r="H81" s="3">
-        <v>142700</v>
+        <v>153500</v>
       </c>
       <c r="I81" s="3">
-        <v>136400</v>
+        <v>145300</v>
       </c>
       <c r="J81" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K81" s="3">
         <v>114700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>125000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>78900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>80900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>122000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>62400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>65200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>271800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>41800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>173400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>47400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>72200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40500</v>
+        <v>45000</v>
       </c>
       <c r="E83" s="3">
-        <v>33400</v>
+        <v>41200</v>
       </c>
       <c r="F83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>20300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>26300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>28700</v>
       </c>
-      <c r="G83" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>26400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>20300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>26300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>21600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>28700</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>17200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>17800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>109800</v>
+        <v>226500</v>
       </c>
       <c r="E89" s="3">
-        <v>163500</v>
+        <v>111800</v>
       </c>
       <c r="F89" s="3">
-        <v>140300</v>
+        <v>166500</v>
       </c>
       <c r="G89" s="3">
-        <v>159300</v>
+        <v>142800</v>
       </c>
       <c r="H89" s="3">
-        <v>68000</v>
+        <v>162100</v>
       </c>
       <c r="I89" s="3">
-        <v>127400</v>
+        <v>69200</v>
       </c>
       <c r="J89" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K89" s="3">
         <v>85000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>244400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>156800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>62400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>110000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>33700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>49200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>39200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>34000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38900</v>
+        <v>-56400</v>
       </c>
       <c r="E91" s="3">
-        <v>-22600</v>
+        <v>-63700</v>
       </c>
       <c r="F91" s="3">
-        <v>-16600</v>
+        <v>-49700</v>
       </c>
       <c r="G91" s="3">
-        <v>-28900</v>
+        <v>-43500</v>
       </c>
       <c r="H91" s="3">
-        <v>-34700</v>
+        <v>-51600</v>
       </c>
       <c r="I91" s="3">
-        <v>-17900</v>
+        <v>-57200</v>
       </c>
       <c r="J91" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>50700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360500</v>
+        <v>-60000</v>
       </c>
       <c r="E94" s="3">
-        <v>-34300</v>
+        <v>-367000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12300</v>
+        <v>-34900</v>
       </c>
       <c r="G94" s="3">
-        <v>-95300</v>
+        <v>-12500</v>
       </c>
       <c r="H94" s="3">
-        <v>-56200</v>
+        <v>-97000</v>
       </c>
       <c r="I94" s="3">
-        <v>-24700</v>
+        <v>-57200</v>
       </c>
       <c r="J94" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-20500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>469800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>266200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7198,10 +7432,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-128700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-131000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7210,11 +7444,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-102500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7222,32 +7456,32 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-107000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-58100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-7700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7267,10 +7501,13 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="E100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-131700</v>
-      </c>
       <c r="G100" s="3">
-        <v>-2600</v>
+        <v>-134000</v>
       </c>
       <c r="H100" s="3">
-        <v>-60200</v>
+        <v>-2700</v>
       </c>
       <c r="I100" s="3">
-        <v>-47700</v>
+        <v>-61300</v>
       </c>
       <c r="J100" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-104700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-40100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-116700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-183500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-57200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-50100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-452700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-83400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-111500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-150100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-87700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-27800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11800</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>5600</v>
-      </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>12900</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>15800</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="T101" s="3">
         <v>7800</v>
       </c>
-      <c r="J101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>13500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="X101" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q101" s="3">
-        <v>15800</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="S101" s="3">
-        <v>7800</v>
-      </c>
-      <c r="T101" s="3">
-        <v>100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>9600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-38600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>6300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-265500</v>
+        <v>165100</v>
       </c>
       <c r="E102" s="3">
-        <v>125100</v>
+        <v>-270200</v>
       </c>
       <c r="F102" s="3">
+        <v>127300</v>
+      </c>
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
-        <v>62200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-35400</v>
+        <v>63400</v>
       </c>
       <c r="I102" s="3">
-        <v>63300</v>
+        <v>-36000</v>
       </c>
       <c r="J102" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-34600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>63900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-106000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>115100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>24000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-456100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-98700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-104700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>349200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>161400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>17800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>764600</v>
+        <v>725400</v>
       </c>
       <c r="E8" s="3">
-        <v>780500</v>
+        <v>769700</v>
       </c>
       <c r="F8" s="3">
-        <v>656700</v>
+        <v>785800</v>
       </c>
       <c r="G8" s="3">
-        <v>602500</v>
+        <v>661100</v>
       </c>
       <c r="H8" s="3">
-        <v>556600</v>
+        <v>606600</v>
       </c>
       <c r="I8" s="3">
-        <v>529100</v>
+        <v>560400</v>
       </c>
       <c r="J8" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K8" s="3">
         <v>466200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>345700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>326500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>372900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>367100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>402200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>316600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>297600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>301300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>231500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>229200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>174600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>230700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>199800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>240700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>184100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>202600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>387100</v>
+        <v>375200</v>
       </c>
       <c r="E9" s="3">
-        <v>418100</v>
+        <v>389700</v>
       </c>
       <c r="F9" s="3">
-        <v>340800</v>
+        <v>420900</v>
       </c>
       <c r="G9" s="3">
-        <v>316100</v>
+        <v>343100</v>
       </c>
       <c r="H9" s="3">
-        <v>290500</v>
+        <v>318200</v>
       </c>
       <c r="I9" s="3">
-        <v>280300</v>
+        <v>292500</v>
       </c>
       <c r="J9" s="3">
+        <v>282200</v>
+      </c>
+      <c r="K9" s="3">
         <v>246300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>226200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>203100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>189500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>163500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>192800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>203600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>226800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>182400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>175200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>174600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>175600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>132700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>108500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>140100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>122200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>136100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>104900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>111600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>377500</v>
+        <v>350200</v>
       </c>
       <c r="E10" s="3">
-        <v>362400</v>
+        <v>380000</v>
       </c>
       <c r="F10" s="3">
-        <v>315900</v>
+        <v>364800</v>
       </c>
       <c r="G10" s="3">
-        <v>286400</v>
+        <v>318000</v>
       </c>
       <c r="H10" s="3">
-        <v>266100</v>
+        <v>288400</v>
       </c>
       <c r="I10" s="3">
-        <v>248800</v>
+        <v>267900</v>
       </c>
       <c r="J10" s="3">
+        <v>250500</v>
+      </c>
+      <c r="K10" s="3">
         <v>219900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>199100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>156200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>163000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>180100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>163500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>175400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>134200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>123000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>125700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>94600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>96500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>66100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>90600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>77600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>104600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>79100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>91000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>69600</v>
+        <v>84000</v>
       </c>
       <c r="E12" s="3">
-        <v>73300</v>
+        <v>70100</v>
       </c>
       <c r="F12" s="3">
-        <v>55700</v>
+        <v>73800</v>
       </c>
       <c r="G12" s="3">
-        <v>46300</v>
+        <v>56100</v>
       </c>
       <c r="H12" s="3">
-        <v>39000</v>
+        <v>46600</v>
       </c>
       <c r="I12" s="3">
-        <v>42900</v>
+        <v>39200</v>
       </c>
       <c r="J12" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K12" s="3">
         <v>34300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>31100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>18800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>20000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>16700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>21500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>22700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>28200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-232000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-114200</v>
+        <v>-233500</v>
       </c>
       <c r="F14" s="3">
-        <v>346200</v>
+        <v>-115000</v>
       </c>
       <c r="G14" s="3">
+        <v>348500</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-61000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-121200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3400</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>11400</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
         <v>11500</v>
       </c>
       <c r="F15" s="3">
-        <v>9700</v>
+        <v>11600</v>
       </c>
       <c r="G15" s="3">
-        <v>8600</v>
+        <v>9800</v>
       </c>
       <c r="H15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I15" s="3">
         <v>7800</v>
       </c>
-      <c r="I15" s="3">
-        <v>8700</v>
-      </c>
       <c r="J15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K15" s="3">
         <v>6700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5400</v>
       </c>
       <c r="M15" s="3">
         <v>5400</v>
       </c>
       <c r="N15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O15" s="3">
         <v>5200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>4000</v>
       </c>
       <c r="S15" s="3">
         <v>4000</v>
       </c>
       <c r="T15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U15" s="3">
         <v>3600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4200</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>312800</v>
+        <v>540400</v>
       </c>
       <c r="E17" s="3">
-        <v>470400</v>
+        <v>314800</v>
       </c>
       <c r="F17" s="3">
-        <v>830600</v>
+        <v>473500</v>
       </c>
       <c r="G17" s="3">
-        <v>443500</v>
+        <v>836100</v>
       </c>
       <c r="H17" s="3">
-        <v>402700</v>
+        <v>446500</v>
       </c>
       <c r="I17" s="3">
-        <v>387700</v>
+        <v>405400</v>
       </c>
       <c r="J17" s="3">
+        <v>390300</v>
+      </c>
+      <c r="K17" s="3">
         <v>339900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>310300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>275100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>268400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>239400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>277300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>278900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>249400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>257400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>129500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>241300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>246600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>198400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>187100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>161600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>191500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>176500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>192700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>161300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>167400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>451800</v>
+        <v>185000</v>
       </c>
       <c r="E18" s="3">
-        <v>310200</v>
+        <v>454900</v>
       </c>
       <c r="F18" s="3">
-        <v>-173900</v>
+        <v>312200</v>
       </c>
       <c r="G18" s="3">
-        <v>159000</v>
+        <v>-175000</v>
       </c>
       <c r="H18" s="3">
-        <v>153900</v>
+        <v>160000</v>
       </c>
       <c r="I18" s="3">
-        <v>141300</v>
+        <v>155000</v>
       </c>
       <c r="J18" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K18" s="3">
         <v>126300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>125200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>152800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>176600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>56300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>54700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>39200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>47900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>22700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>35200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,185 +1683,192 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-700</v>
+        <v>18500</v>
       </c>
       <c r="E20" s="3">
-        <v>-35700</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>45000</v>
+        <v>-35900</v>
       </c>
       <c r="G20" s="3">
-        <v>54200</v>
+        <v>45300</v>
       </c>
       <c r="H20" s="3">
-        <v>31800</v>
+        <v>54600</v>
       </c>
       <c r="I20" s="3">
-        <v>31100</v>
+        <v>32000</v>
       </c>
       <c r="J20" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K20" s="3">
         <v>39700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>28500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>230700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>21400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>128100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>26300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>36000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>496100</v>
+        <v>251000</v>
       </c>
       <c r="E21" s="3">
-        <v>315700</v>
+        <v>498200</v>
       </c>
       <c r="F21" s="3">
-        <v>-94900</v>
+        <v>317900</v>
       </c>
       <c r="G21" s="3">
-        <v>242400</v>
+        <v>-95600</v>
       </c>
       <c r="H21" s="3">
-        <v>213200</v>
+        <v>244100</v>
       </c>
       <c r="I21" s="3">
-        <v>201700</v>
+        <v>214600</v>
       </c>
       <c r="J21" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K21" s="3">
         <v>191400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>174500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>97300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>123000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>120200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>168800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>101200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>190100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>78800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>84900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>30400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>287100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>57300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>191400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>62900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>89000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1200</v>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
@@ -1836,14 +1876,14 @@
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3">
-        <v>400</v>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
+      <c r="I22" s="3">
+        <v>400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>11</v>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1899,8 +1939,8 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>11</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>11</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>449900</v>
+        <v>203400</v>
       </c>
       <c r="E23" s="3">
-        <v>274500</v>
+        <v>453000</v>
       </c>
       <c r="F23" s="3">
-        <v>-128900</v>
+        <v>276300</v>
       </c>
       <c r="G23" s="3">
-        <v>212800</v>
+        <v>-129800</v>
       </c>
       <c r="H23" s="3">
-        <v>185400</v>
+        <v>214300</v>
       </c>
       <c r="I23" s="3">
-        <v>172500</v>
+        <v>186600</v>
       </c>
       <c r="J23" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K23" s="3">
         <v>166000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>154200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>96800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>169600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>70500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>269900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>44700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>176100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>49000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>71200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>33300</v>
+      </c>
+      <c r="H24" s="3">
         <v>40300</v>
       </c>
-      <c r="E24" s="3">
-        <v>19700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>33100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>31900</v>
-      </c>
       <c r="I24" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K24" s="3">
         <v>27200</v>
       </c>
-      <c r="J24" s="3">
-        <v>27200</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>409600</v>
+        <v>163900</v>
       </c>
       <c r="E26" s="3">
-        <v>254800</v>
+        <v>412400</v>
       </c>
       <c r="F26" s="3">
-        <v>-162000</v>
+        <v>256500</v>
       </c>
       <c r="G26" s="3">
-        <v>172800</v>
+        <v>-163100</v>
       </c>
       <c r="H26" s="3">
-        <v>153500</v>
+        <v>173900</v>
       </c>
       <c r="I26" s="3">
-        <v>145300</v>
+        <v>154500</v>
       </c>
       <c r="J26" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K26" s="3">
         <v>138800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>125000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>122000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>62400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>65200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>271800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>41800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>173400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>47400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>72200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>409600</v>
+        <v>163900</v>
       </c>
       <c r="E27" s="3">
-        <v>254800</v>
+        <v>412400</v>
       </c>
       <c r="F27" s="3">
-        <v>-162000</v>
+        <v>256500</v>
       </c>
       <c r="G27" s="3">
-        <v>172800</v>
+        <v>-163100</v>
       </c>
       <c r="H27" s="3">
-        <v>153500</v>
+        <v>173900</v>
       </c>
       <c r="I27" s="3">
-        <v>145300</v>
+        <v>154500</v>
       </c>
       <c r="J27" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K27" s="3">
         <v>138800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>125000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>78900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>80900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>83700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>62400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>143100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>59100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>65200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>271800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>41800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>173400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>47400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>72200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2501,8 +2562,8 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>11</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>11</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>-18500</v>
       </c>
       <c r="E32" s="3">
-        <v>35700</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-45000</v>
+        <v>35900</v>
       </c>
       <c r="G32" s="3">
-        <v>-54200</v>
+        <v>-45300</v>
       </c>
       <c r="H32" s="3">
-        <v>-31800</v>
+        <v>-54600</v>
       </c>
       <c r="I32" s="3">
-        <v>-31100</v>
+        <v>-32000</v>
       </c>
       <c r="J32" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-39700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-28500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-230700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-21400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-128100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-26300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-36000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>409600</v>
+        <v>163900</v>
       </c>
       <c r="E33" s="3">
-        <v>254800</v>
+        <v>412400</v>
       </c>
       <c r="F33" s="3">
-        <v>-162000</v>
+        <v>256500</v>
       </c>
       <c r="G33" s="3">
-        <v>172800</v>
+        <v>-163100</v>
       </c>
       <c r="H33" s="3">
-        <v>153500</v>
+        <v>173900</v>
       </c>
       <c r="I33" s="3">
-        <v>145300</v>
+        <v>154500</v>
       </c>
       <c r="J33" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K33" s="3">
         <v>138800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>78900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>80900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>62400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>143100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>59100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>65200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>271800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>41800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>173400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>47400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>72200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>409600</v>
+        <v>163900</v>
       </c>
       <c r="E35" s="3">
-        <v>254800</v>
+        <v>412400</v>
       </c>
       <c r="F35" s="3">
-        <v>-162000</v>
+        <v>256500</v>
       </c>
       <c r="G35" s="3">
-        <v>172800</v>
+        <v>-163100</v>
       </c>
       <c r="H35" s="3">
-        <v>153500</v>
+        <v>173900</v>
       </c>
       <c r="I35" s="3">
-        <v>145300</v>
+        <v>154500</v>
       </c>
       <c r="J35" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K35" s="3">
         <v>138800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>78900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>80900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>62400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>143100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>59100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>65200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>271800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>41800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>173400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>47400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>72200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>616600</v>
+        <v>531600</v>
       </c>
       <c r="E41" s="3">
-        <v>451600</v>
+        <v>620700</v>
       </c>
       <c r="F41" s="3">
-        <v>721800</v>
+        <v>454600</v>
       </c>
       <c r="G41" s="3">
-        <v>594500</v>
+        <v>726600</v>
       </c>
       <c r="H41" s="3">
-        <v>592700</v>
+        <v>598500</v>
       </c>
       <c r="I41" s="3">
-        <v>529300</v>
+        <v>596600</v>
       </c>
       <c r="J41" s="3">
+        <v>532800</v>
+      </c>
+      <c r="K41" s="3">
         <v>565400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>492100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>508200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>434100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>445800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>470800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>597000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>581200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>560500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>448800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>373800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>338200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>314200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>715000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>813700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>938500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>589300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>586600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>444800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>443900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>646500</v>
+        <v>600800</v>
       </c>
       <c r="E43" s="3">
-        <v>645700</v>
+        <v>650800</v>
       </c>
       <c r="F43" s="3">
-        <v>581500</v>
+        <v>650000</v>
       </c>
       <c r="G43" s="3">
-        <v>541700</v>
+        <v>585400</v>
       </c>
       <c r="H43" s="3">
-        <v>560400</v>
+        <v>545300</v>
       </c>
       <c r="I43" s="3">
-        <v>501100</v>
+        <v>564200</v>
       </c>
       <c r="J43" s="3">
+        <v>504500</v>
+      </c>
+      <c r="K43" s="3">
         <v>402000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>344400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>314500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>279900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>267000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>267500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>213300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>234400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>284400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>309100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>236900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>210400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>210500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>187500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>141400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>184500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>145300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>166600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>121400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>161300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>619300</v>
+        <v>630700</v>
       </c>
       <c r="E44" s="3">
-        <v>579800</v>
+        <v>623400</v>
       </c>
       <c r="F44" s="3">
-        <v>500100</v>
+        <v>583700</v>
       </c>
       <c r="G44" s="3">
-        <v>366800</v>
+        <v>503400</v>
       </c>
       <c r="H44" s="3">
-        <v>275400</v>
+        <v>369200</v>
       </c>
       <c r="I44" s="3">
-        <v>228100</v>
+        <v>277300</v>
       </c>
       <c r="J44" s="3">
+        <v>229700</v>
+      </c>
+      <c r="K44" s="3">
         <v>200900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>182800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>174100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>183100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>191800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>183100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>202200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>206600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>200400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>208200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>203300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>218400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>183000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>166600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>160300</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>168500</v>
       </c>
       <c r="AA44" s="3">
         <v>168500</v>
       </c>
       <c r="AB44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="AC44" s="3">
         <v>165800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>131900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>105100</v>
+        <v>90900</v>
       </c>
       <c r="E45" s="3">
-        <v>123300</v>
+        <v>105800</v>
       </c>
       <c r="F45" s="3">
-        <v>83900</v>
+        <v>124200</v>
       </c>
       <c r="G45" s="3">
-        <v>65500</v>
+        <v>84400</v>
       </c>
       <c r="H45" s="3">
-        <v>62000</v>
+        <v>65900</v>
       </c>
       <c r="I45" s="3">
-        <v>54900</v>
+        <v>62400</v>
       </c>
       <c r="J45" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K45" s="3">
         <v>79700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>85800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>30300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>20600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>26800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1987500</v>
+        <v>1854000</v>
       </c>
       <c r="E46" s="3">
-        <v>1800400</v>
+        <v>2000800</v>
       </c>
       <c r="F46" s="3">
-        <v>1887300</v>
+        <v>1812500</v>
       </c>
       <c r="G46" s="3">
-        <v>1568500</v>
+        <v>1899900</v>
       </c>
       <c r="H46" s="3">
-        <v>1490500</v>
+        <v>1579000</v>
       </c>
       <c r="I46" s="3">
-        <v>1313400</v>
+        <v>1500500</v>
       </c>
       <c r="J46" s="3">
+        <v>1322200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1247900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1101800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1050900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>948500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>973500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1021100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1093200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1103500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1115100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1013000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>863800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>805100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>765400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1112300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1135800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1304600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>926000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>951900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>752600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>763800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>967100</v>
+        <v>956900</v>
       </c>
       <c r="E47" s="3">
-        <v>745400</v>
+        <v>973600</v>
       </c>
       <c r="F47" s="3">
-        <v>686000</v>
+        <v>750400</v>
       </c>
       <c r="G47" s="3">
-        <v>988500</v>
+        <v>690500</v>
       </c>
       <c r="H47" s="3">
-        <v>951600</v>
+        <v>995100</v>
       </c>
       <c r="I47" s="3">
-        <v>914100</v>
+        <v>958000</v>
       </c>
       <c r="J47" s="3">
+        <v>920200</v>
+      </c>
+      <c r="K47" s="3">
         <v>870200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>813600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>797800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>740800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>774900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>846700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>893900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>908600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>926100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>914300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>959400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>934000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>909800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>838400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>797200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>819700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1127300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1147200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1464800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1429700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>454000</v>
+        <v>480100</v>
       </c>
       <c r="E48" s="3">
-        <v>444100</v>
+        <v>457100</v>
       </c>
       <c r="F48" s="3">
-        <v>437800</v>
+        <v>447100</v>
       </c>
       <c r="G48" s="3">
-        <v>406200</v>
+        <v>440700</v>
       </c>
       <c r="H48" s="3">
-        <v>397100</v>
+        <v>408900</v>
       </c>
       <c r="I48" s="3">
-        <v>374400</v>
+        <v>399800</v>
       </c>
       <c r="J48" s="3">
+        <v>376900</v>
+      </c>
+      <c r="K48" s="3">
         <v>352000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>335900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>326200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>306000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>302100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>309600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>306900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>279800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>272600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>257500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>268100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>228800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>221800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>186700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>163600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>153000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>150300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>156300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>162700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>154500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1039200</v>
+        <v>1067200</v>
       </c>
       <c r="E49" s="3">
-        <v>1038700</v>
+        <v>1046100</v>
       </c>
       <c r="F49" s="3">
-        <v>446700</v>
+        <v>1045700</v>
       </c>
       <c r="G49" s="3">
-        <v>407200</v>
+        <v>449700</v>
       </c>
       <c r="H49" s="3">
-        <v>372200</v>
+        <v>410000</v>
       </c>
       <c r="I49" s="3">
-        <v>308100</v>
+        <v>374700</v>
       </c>
       <c r="J49" s="3">
+        <v>310200</v>
+      </c>
+      <c r="K49" s="3">
         <v>285600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>263100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>242800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>220600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>226100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>234700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>239800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>234100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>233000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>218900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>209300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>190700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>178400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>156900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>143500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>139800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>131100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>244600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>136700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>130800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E52" s="3">
         <v>10600</v>
       </c>
       <c r="F52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>8200</v>
       </c>
       <c r="M52" s="3">
         <v>8200</v>
       </c>
       <c r="N52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>27400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>25300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>25800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>19000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>20200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>22000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4458400</v>
+        <v>4368500</v>
       </c>
       <c r="E54" s="3">
-        <v>4039200</v>
+        <v>4488200</v>
       </c>
       <c r="F54" s="3">
-        <v>3467300</v>
+        <v>4066200</v>
       </c>
       <c r="G54" s="3">
-        <v>3380000</v>
+        <v>3490500</v>
       </c>
       <c r="H54" s="3">
-        <v>3220700</v>
+        <v>3402600</v>
       </c>
       <c r="I54" s="3">
-        <v>2919600</v>
+        <v>3242200</v>
       </c>
       <c r="J54" s="3">
+        <v>2939100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2765300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2523200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2426000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2224100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2289300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2425500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2547700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2539300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2564500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2421200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2326600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2186000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2104100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2320900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2265400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2442800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2353700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2402200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2536900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2500900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>271600</v>
+        <v>235800</v>
       </c>
       <c r="E57" s="3">
-        <v>262200</v>
+        <v>273400</v>
       </c>
       <c r="F57" s="3">
-        <v>268500</v>
+        <v>264000</v>
       </c>
       <c r="G57" s="3">
-        <v>264600</v>
+        <v>270300</v>
       </c>
       <c r="H57" s="3">
-        <v>227200</v>
+        <v>266400</v>
       </c>
       <c r="I57" s="3">
-        <v>188900</v>
+        <v>228700</v>
       </c>
       <c r="J57" s="3">
+        <v>190200</v>
+      </c>
+      <c r="K57" s="3">
         <v>169100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>157100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>154700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>124200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>121100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>141800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>126500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>110000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>110100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>95400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>115000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>109100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>94500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>89000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>81000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>95100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>88500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>71500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4576,23 +4710,23 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8200</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U58" s="3">
         <v>8400</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>11</v>
@@ -4603,8 +4737,8 @@
       <c r="X58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4621,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>623700</v>
+        <v>586000</v>
       </c>
       <c r="E59" s="3">
-        <v>578200</v>
+        <v>627900</v>
       </c>
       <c r="F59" s="3">
-        <v>446500</v>
+        <v>582100</v>
       </c>
       <c r="G59" s="3">
-        <v>307500</v>
+        <v>449500</v>
       </c>
       <c r="H59" s="3">
-        <v>325600</v>
+        <v>309600</v>
       </c>
       <c r="I59" s="3">
-        <v>250100</v>
+        <v>327700</v>
       </c>
       <c r="J59" s="3">
+        <v>251800</v>
+      </c>
+      <c r="K59" s="3">
         <v>259000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>211000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>197000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>215200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>220900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>205800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>226300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>184800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>120100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>134400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>66100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>80900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>74900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>65600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>57600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>66900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>895300</v>
+        <v>821800</v>
       </c>
       <c r="E60" s="3">
-        <v>840400</v>
+        <v>901300</v>
       </c>
       <c r="F60" s="3">
-        <v>715100</v>
+        <v>846000</v>
       </c>
       <c r="G60" s="3">
-        <v>572100</v>
+        <v>719800</v>
       </c>
       <c r="H60" s="3">
-        <v>552800</v>
+        <v>575900</v>
       </c>
       <c r="I60" s="3">
-        <v>439100</v>
+        <v>556400</v>
       </c>
       <c r="J60" s="3">
+        <v>442000</v>
+      </c>
+      <c r="K60" s="3">
         <v>428200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>368100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>351700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>339400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>342000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>362800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>355200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>374200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>325300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>294800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>238600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>229800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>181100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>171400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>154200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>169900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>155900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>160600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>146100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>138400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,35 +4945,35 @@
         <v>22400</v>
       </c>
       <c r="E61" s="3">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="F61" s="3">
-        <v>19100</v>
+        <v>20200</v>
       </c>
       <c r="G61" s="3">
-        <v>16700</v>
+        <v>19200</v>
       </c>
       <c r="H61" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="I61" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K61" s="3">
         <v>12900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4838,20 +4981,20 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>18400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>21500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4879,94 +5022,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214800</v>
+        <v>222300</v>
       </c>
       <c r="E62" s="3">
-        <v>218000</v>
+        <v>216200</v>
       </c>
       <c r="F62" s="3">
-        <v>72000</v>
+        <v>219500</v>
       </c>
       <c r="G62" s="3">
-        <v>59900</v>
+        <v>72500</v>
       </c>
       <c r="H62" s="3">
-        <v>53400</v>
+        <v>60300</v>
       </c>
       <c r="I62" s="3">
-        <v>49300</v>
+        <v>53700</v>
       </c>
       <c r="J62" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K62" s="3">
         <v>41800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>14500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>17100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1132500</v>
+        <v>1066500</v>
       </c>
       <c r="E66" s="3">
-        <v>1078500</v>
+        <v>1140000</v>
       </c>
       <c r="F66" s="3">
-        <v>806200</v>
+        <v>1085700</v>
       </c>
       <c r="G66" s="3">
-        <v>648700</v>
+        <v>811600</v>
       </c>
       <c r="H66" s="3">
-        <v>623400</v>
+        <v>653100</v>
       </c>
       <c r="I66" s="3">
-        <v>505400</v>
+        <v>627600</v>
       </c>
       <c r="J66" s="3">
+        <v>508800</v>
+      </c>
+      <c r="K66" s="3">
         <v>482900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>417000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>391900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>374200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>377600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>402300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>394400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>416200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>360600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>330300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>274800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>244200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>198000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>187300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>169900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>185900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>171700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>175100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>162600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>155400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,85 +5856,88 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>3287900</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3">
-        <v>2910700</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>2930100</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
-        <v>2856000</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>2875100</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="3">
-        <v>2552100</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="3">
+        <v>2569200</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2208700</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1918200</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2162500</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2267800</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2409100</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2266900</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2370200</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2350700</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AA72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>11</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3326000</v>
+        <v>3302000</v>
       </c>
       <c r="E76" s="3">
-        <v>2960700</v>
+        <v>3348200</v>
       </c>
       <c r="F76" s="3">
-        <v>2661100</v>
+        <v>2980500</v>
       </c>
       <c r="G76" s="3">
-        <v>2731200</v>
+        <v>2678900</v>
       </c>
       <c r="H76" s="3">
-        <v>2597200</v>
+        <v>2749500</v>
       </c>
       <c r="I76" s="3">
-        <v>2414100</v>
+        <v>2614600</v>
       </c>
       <c r="J76" s="3">
+        <v>2430300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2282400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2106100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2034200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1849900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1911700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2023200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2153300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2123100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2203900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2090900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2051900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1941800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1906100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2133700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2095500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2256900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2181900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2227100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2374300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2345400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>409600</v>
+        <v>163900</v>
       </c>
       <c r="E81" s="3">
-        <v>254800</v>
+        <v>412400</v>
       </c>
       <c r="F81" s="3">
-        <v>-162000</v>
+        <v>256500</v>
       </c>
       <c r="G81" s="3">
-        <v>172800</v>
+        <v>-163100</v>
       </c>
       <c r="H81" s="3">
-        <v>153500</v>
+        <v>173900</v>
       </c>
       <c r="I81" s="3">
-        <v>145300</v>
+        <v>154500</v>
       </c>
       <c r="J81" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K81" s="3">
         <v>138800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>78900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>80900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>62400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>143100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>59100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>65200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>271800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>41800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>173400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>47400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>72200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45000</v>
+        <v>47500</v>
       </c>
       <c r="E83" s="3">
-        <v>41200</v>
+        <v>45300</v>
       </c>
       <c r="F83" s="3">
-        <v>34000</v>
+        <v>41500</v>
       </c>
       <c r="G83" s="3">
-        <v>29200</v>
+        <v>34200</v>
       </c>
       <c r="H83" s="3">
-        <v>27400</v>
+        <v>29400</v>
       </c>
       <c r="I83" s="3">
-        <v>29200</v>
+        <v>27600</v>
       </c>
       <c r="J83" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K83" s="3">
         <v>25400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>17800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>226500</v>
+        <v>165200</v>
       </c>
       <c r="E89" s="3">
-        <v>111800</v>
+        <v>228000</v>
       </c>
       <c r="F89" s="3">
-        <v>166500</v>
+        <v>112500</v>
       </c>
       <c r="G89" s="3">
-        <v>142800</v>
+        <v>167600</v>
       </c>
       <c r="H89" s="3">
-        <v>162100</v>
+        <v>143700</v>
       </c>
       <c r="I89" s="3">
-        <v>69200</v>
+        <v>163200</v>
       </c>
       <c r="J89" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K89" s="3">
         <v>129600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>92000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>244400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>156800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>110000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>33700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>49200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>39200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>34000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>50700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-60000</v>
+        <v>-72100</v>
       </c>
       <c r="E94" s="3">
-        <v>-367000</v>
+        <v>-60400</v>
       </c>
       <c r="F94" s="3">
-        <v>-34900</v>
+        <v>-369400</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-35100</v>
       </c>
       <c r="H94" s="3">
-        <v>-97000</v>
+        <v>-12600</v>
       </c>
       <c r="I94" s="3">
-        <v>-57200</v>
+        <v>-97600</v>
       </c>
       <c r="J94" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-25100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>469800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>266200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,13 +7653,14 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-133800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7435,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-131000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-131900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7447,11 +7681,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-102500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7459,32 +7693,32 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-107000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-58100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-58100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-7700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7504,10 +7738,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-134000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-61300</v>
-      </c>
       <c r="J100" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-48600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-104700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-40100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-116700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-183500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-57200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-50100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-452700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-83400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-111500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-150100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-87700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-27800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-13200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-12000</v>
-      </c>
       <c r="F101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
-        <v>13100</v>
-      </c>
       <c r="J101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>9600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-38600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>6300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>165100</v>
+        <v>-89200</v>
       </c>
       <c r="E102" s="3">
-        <v>-270200</v>
+        <v>166200</v>
       </c>
       <c r="F102" s="3">
-        <v>127300</v>
+        <v>-272000</v>
       </c>
       <c r="G102" s="3">
-        <v>1800</v>
+        <v>128100</v>
       </c>
       <c r="H102" s="3">
-        <v>63400</v>
+        <v>1900</v>
       </c>
       <c r="I102" s="3">
-        <v>-36000</v>
+        <v>63800</v>
       </c>
       <c r="J102" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K102" s="3">
         <v>64400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>63900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-106000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>115100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>24000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-456100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-98700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-104700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>349200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>161400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>17800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-8300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASMIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ASMIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>725400</v>
+        <v>675200</v>
       </c>
       <c r="E8" s="3">
-        <v>769700</v>
+        <v>726000</v>
       </c>
       <c r="F8" s="3">
-        <v>785800</v>
+        <v>770400</v>
       </c>
       <c r="G8" s="3">
-        <v>661100</v>
+        <v>786400</v>
       </c>
       <c r="H8" s="3">
-        <v>606600</v>
+        <v>661600</v>
       </c>
       <c r="I8" s="3">
-        <v>560400</v>
+        <v>607100</v>
       </c>
       <c r="J8" s="3">
+        <v>560800</v>
+      </c>
+      <c r="K8" s="3">
         <v>532600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>466200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>435600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>345700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>326500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>372900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>367100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>402200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>316600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>306100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>297600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>301300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>231500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>229200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>174600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>230700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>199800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>240700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>184100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>202600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>169300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>375200</v>
+        <v>350300</v>
       </c>
       <c r="E9" s="3">
-        <v>389700</v>
+        <v>375500</v>
       </c>
       <c r="F9" s="3">
-        <v>420900</v>
+        <v>390000</v>
       </c>
       <c r="G9" s="3">
-        <v>343100</v>
+        <v>421300</v>
       </c>
       <c r="H9" s="3">
-        <v>318200</v>
+        <v>343400</v>
       </c>
       <c r="I9" s="3">
-        <v>292500</v>
+        <v>318500</v>
       </c>
       <c r="J9" s="3">
+        <v>292700</v>
+      </c>
+      <c r="K9" s="3">
         <v>282200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>246300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>226200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>189500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>192800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>203600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>226800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>182400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>175200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>174600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>175600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>136900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>132700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>108500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>140100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>122200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>136100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>104900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>111600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>94500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>350200</v>
+        <v>324900</v>
       </c>
       <c r="E10" s="3">
-        <v>380000</v>
+        <v>350500</v>
       </c>
       <c r="F10" s="3">
-        <v>364800</v>
+        <v>380300</v>
       </c>
       <c r="G10" s="3">
-        <v>318000</v>
+        <v>365100</v>
       </c>
       <c r="H10" s="3">
-        <v>288400</v>
+        <v>318200</v>
       </c>
       <c r="I10" s="3">
-        <v>267900</v>
+        <v>288600</v>
       </c>
       <c r="J10" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K10" s="3">
         <v>250500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>219900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>199100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>156200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>163000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>180100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>163500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>175400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>134200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>123000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>125700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>94600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>96500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>66100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>90600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>77600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>104600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>79100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>91000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>84000</v>
+        <v>68300</v>
       </c>
       <c r="E12" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F12" s="3">
         <v>70100</v>
       </c>
-      <c r="F12" s="3">
-        <v>73800</v>
-      </c>
       <c r="G12" s="3">
+        <v>73900</v>
+      </c>
+      <c r="H12" s="3">
         <v>56100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46600</v>
       </c>
-      <c r="I12" s="3">
-        <v>39200</v>
-      </c>
       <c r="J12" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K12" s="3">
         <v>43200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>18800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>20000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>16700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>21500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>22700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>24600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>28200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1274,177 +1294,183 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-233500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-115000</v>
+        <v>-233700</v>
       </c>
       <c r="G14" s="3">
-        <v>348500</v>
+        <v>-115100</v>
       </c>
       <c r="H14" s="3">
+        <v>348800</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-61000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-121200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3400</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5400</v>
       </c>
       <c r="N15" s="3">
         <v>5400</v>
       </c>
       <c r="O15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P15" s="3">
         <v>5200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>4000</v>
       </c>
       <c r="T15" s="3">
         <v>4000</v>
       </c>
       <c r="U15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V15" s="3">
         <v>3600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4200</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>540400</v>
+        <v>515300</v>
       </c>
       <c r="E17" s="3">
-        <v>314800</v>
+        <v>540800</v>
       </c>
       <c r="F17" s="3">
-        <v>473500</v>
+        <v>315100</v>
       </c>
       <c r="G17" s="3">
-        <v>836100</v>
+        <v>473900</v>
       </c>
       <c r="H17" s="3">
-        <v>446500</v>
+        <v>836800</v>
       </c>
       <c r="I17" s="3">
-        <v>405400</v>
+        <v>446900</v>
       </c>
       <c r="J17" s="3">
+        <v>405800</v>
+      </c>
+      <c r="K17" s="3">
         <v>390300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>339900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>310300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>275100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>268400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>239400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>277300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>278900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>249400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>257400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>129500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>241300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>246600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>198400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>187100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>161600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>191500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>176500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>192700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>161300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>167400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>185000</v>
+        <v>159900</v>
       </c>
       <c r="E18" s="3">
-        <v>454900</v>
+        <v>185100</v>
       </c>
       <c r="F18" s="3">
-        <v>312200</v>
+        <v>455200</v>
       </c>
       <c r="G18" s="3">
-        <v>-175000</v>
+        <v>312500</v>
       </c>
       <c r="H18" s="3">
-        <v>160000</v>
+        <v>-175200</v>
       </c>
       <c r="I18" s="3">
-        <v>155000</v>
+        <v>160200</v>
       </c>
       <c r="J18" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K18" s="3">
         <v>142300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>126300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>125200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>152800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>176600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>56300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>54700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>39200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>23300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>47900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>22700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>35200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>18500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>45300</v>
       </c>
-      <c r="H20" s="3">
-        <v>54600</v>
-      </c>
       <c r="I20" s="3">
-        <v>32000</v>
+        <v>54700</v>
       </c>
       <c r="J20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K20" s="3">
         <v>31300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>230700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>21400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>128100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>36000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>251000</v>
+        <v>211700</v>
       </c>
       <c r="E21" s="3">
-        <v>498200</v>
+        <v>251200</v>
       </c>
       <c r="F21" s="3">
-        <v>317900</v>
+        <v>498600</v>
       </c>
       <c r="G21" s="3">
-        <v>-95600</v>
+        <v>318100</v>
       </c>
       <c r="H21" s="3">
-        <v>244100</v>
+        <v>-95700</v>
       </c>
       <c r="I21" s="3">
-        <v>214600</v>
+        <v>244300</v>
       </c>
       <c r="J21" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K21" s="3">
         <v>203000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>191400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>174500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>109800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>97300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>123000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>168800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>190100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>84900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>30400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>287100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>57300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>191400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>62900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>89000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1879,14 +1919,14 @@
       <c r="G22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3">
-        <v>400</v>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
+      <c r="J22" s="3">
+        <v>400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>11</v>
@@ -1900,8 +1940,8 @@
       <c r="N22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1942,8 +1982,8 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>11</v>
+      <c r="AC22" s="3">
+        <v>0</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>11</v>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>203400</v>
+        <v>164400</v>
       </c>
       <c r="E23" s="3">
-        <v>453000</v>
+        <v>203600</v>
       </c>
       <c r="F23" s="3">
-        <v>276300</v>
+        <v>453300</v>
       </c>
       <c r="G23" s="3">
-        <v>-129800</v>
+        <v>276600</v>
       </c>
       <c r="H23" s="3">
-        <v>214300</v>
+        <v>-129900</v>
       </c>
       <c r="I23" s="3">
-        <v>186600</v>
+        <v>214400</v>
       </c>
       <c r="J23" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K23" s="3">
         <v>173600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>166000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>154200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>96800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>169600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>58800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>70500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>269900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>44700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>176100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>49000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>71200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F24" s="3">
         <v>40600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19800</v>
       </c>
-      <c r="G24" s="3">
-        <v>33300</v>
-      </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>33400</v>
       </c>
       <c r="I24" s="3">
-        <v>32100</v>
+        <v>40400</v>
       </c>
       <c r="J24" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K24" s="3">
         <v>27400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>163900</v>
+        <v>140600</v>
       </c>
       <c r="E26" s="3">
-        <v>412400</v>
+        <v>164000</v>
       </c>
       <c r="F26" s="3">
-        <v>256500</v>
+        <v>412700</v>
       </c>
       <c r="G26" s="3">
-        <v>-163100</v>
+        <v>256800</v>
       </c>
       <c r="H26" s="3">
-        <v>173900</v>
+        <v>-163300</v>
       </c>
       <c r="I26" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="J26" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K26" s="3">
         <v>146200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>138800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>125000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>122000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>143100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>59100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>65200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>271800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>41800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>173400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>47400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>72200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163900</v>
+        <v>140600</v>
       </c>
       <c r="E27" s="3">
-        <v>412400</v>
+        <v>164000</v>
       </c>
       <c r="F27" s="3">
-        <v>256500</v>
+        <v>412700</v>
       </c>
       <c r="G27" s="3">
-        <v>-163100</v>
+        <v>256800</v>
       </c>
       <c r="H27" s="3">
-        <v>173900</v>
+        <v>-163300</v>
       </c>
       <c r="I27" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="J27" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K27" s="3">
         <v>146200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>125000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>80900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>122000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>62400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>143100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>59100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>65200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>271800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>41800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>173400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>47400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>72200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2565,8 +2626,8 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>11</v>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>11</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-45300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-54600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-32000</v>
+        <v>-54700</v>
       </c>
       <c r="J32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-31300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-230700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-21400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-128100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-36000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163900</v>
+        <v>140600</v>
       </c>
       <c r="E33" s="3">
-        <v>412400</v>
+        <v>164000</v>
       </c>
       <c r="F33" s="3">
-        <v>256500</v>
+        <v>412700</v>
       </c>
       <c r="G33" s="3">
-        <v>-163100</v>
+        <v>256800</v>
       </c>
       <c r="H33" s="3">
-        <v>173900</v>
+        <v>-163300</v>
       </c>
       <c r="I33" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="J33" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K33" s="3">
         <v>146200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>80900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>122000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>62400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>143100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>59100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>65200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>271800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>41800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>173400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>47400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>72200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163900</v>
+        <v>140600</v>
       </c>
       <c r="E35" s="3">
-        <v>412400</v>
+        <v>164000</v>
       </c>
       <c r="F35" s="3">
-        <v>256500</v>
+        <v>412700</v>
       </c>
       <c r="G35" s="3">
-        <v>-163100</v>
+        <v>256800</v>
       </c>
       <c r="H35" s="3">
-        <v>173900</v>
+        <v>-163300</v>
       </c>
       <c r="I35" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="J35" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K35" s="3">
         <v>146200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>80900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>122000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>62400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>143100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>59100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>65200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>271800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>41800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>173400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>47400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>72200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>531600</v>
+        <v>593700</v>
       </c>
       <c r="E41" s="3">
-        <v>620700</v>
+        <v>532000</v>
       </c>
       <c r="F41" s="3">
-        <v>454600</v>
+        <v>621300</v>
       </c>
       <c r="G41" s="3">
-        <v>726600</v>
+        <v>455000</v>
       </c>
       <c r="H41" s="3">
-        <v>598500</v>
+        <v>727200</v>
       </c>
       <c r="I41" s="3">
-        <v>596600</v>
+        <v>599000</v>
       </c>
       <c r="J41" s="3">
+        <v>597100</v>
+      </c>
+      <c r="K41" s="3">
         <v>532800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>565400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>492100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>508200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>434100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>445800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>470800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>597000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>581200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>560500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>448800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>373800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>338200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>314200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>715000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>813700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>938500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>589300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>586600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>444800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>443900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600800</v>
+        <v>577100</v>
       </c>
       <c r="E43" s="3">
-        <v>650800</v>
+        <v>601300</v>
       </c>
       <c r="F43" s="3">
-        <v>650000</v>
+        <v>651300</v>
       </c>
       <c r="G43" s="3">
-        <v>585400</v>
+        <v>650600</v>
       </c>
       <c r="H43" s="3">
-        <v>545300</v>
+        <v>585900</v>
       </c>
       <c r="I43" s="3">
-        <v>564200</v>
+        <v>545800</v>
       </c>
       <c r="J43" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K43" s="3">
         <v>504500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>402000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>344400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>314500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>279900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>267000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>267500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>213300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>234400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>284400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>309100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>236900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>210400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>210500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>187500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>141400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>184500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>145300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>166600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>121400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>161300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>125500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>630700</v>
+        <v>623300</v>
       </c>
       <c r="E44" s="3">
-        <v>623400</v>
+        <v>631200</v>
       </c>
       <c r="F44" s="3">
-        <v>583700</v>
+        <v>624000</v>
       </c>
       <c r="G44" s="3">
-        <v>503400</v>
+        <v>584200</v>
       </c>
       <c r="H44" s="3">
-        <v>369200</v>
+        <v>503800</v>
       </c>
       <c r="I44" s="3">
-        <v>277300</v>
+        <v>369500</v>
       </c>
       <c r="J44" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K44" s="3">
         <v>229700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>182800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>174100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>161800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>183100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>191800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>183100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>202200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>206600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>200400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>208200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>203300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>218400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>183000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>166600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>160300</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>168500</v>
       </c>
       <c r="AB44" s="3">
         <v>168500</v>
       </c>
       <c r="AC44" s="3">
+        <v>168500</v>
+      </c>
+      <c r="AD44" s="3">
         <v>165800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>131900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90900</v>
+        <v>109100</v>
       </c>
       <c r="E45" s="3">
-        <v>105800</v>
+        <v>91000</v>
       </c>
       <c r="F45" s="3">
-        <v>124200</v>
+        <v>105900</v>
       </c>
       <c r="G45" s="3">
-        <v>84400</v>
+        <v>121700</v>
       </c>
       <c r="H45" s="3">
-        <v>65900</v>
+        <v>84500</v>
       </c>
       <c r="I45" s="3">
+        <v>66000</v>
+      </c>
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>99800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>85800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>54600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>14100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>30300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>20600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>26800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1854000</v>
+        <v>1903300</v>
       </c>
       <c r="E46" s="3">
-        <v>2000800</v>
+        <v>1855500</v>
       </c>
       <c r="F46" s="3">
-        <v>1812500</v>
+        <v>2002500</v>
       </c>
       <c r="G46" s="3">
-        <v>1899900</v>
+        <v>1811400</v>
       </c>
       <c r="H46" s="3">
-        <v>1579000</v>
+        <v>1901500</v>
       </c>
       <c r="I46" s="3">
-        <v>1500500</v>
+        <v>1580300</v>
       </c>
       <c r="J46" s="3">
+        <v>1501700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1322200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1247900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1101800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1050900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>948500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>973500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1021100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1093200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1103500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1115100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1013000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>863800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>805100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>765400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1112300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1135800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1304600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>926000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>951900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>752600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>763800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>707000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>956900</v>
+        <v>972600</v>
       </c>
       <c r="E47" s="3">
-        <v>973600</v>
+        <v>957700</v>
       </c>
       <c r="F47" s="3">
-        <v>750400</v>
+        <v>974400</v>
       </c>
       <c r="G47" s="3">
-        <v>690500</v>
+        <v>751000</v>
       </c>
       <c r="H47" s="3">
-        <v>995100</v>
+        <v>691100</v>
       </c>
       <c r="I47" s="3">
-        <v>958000</v>
+        <v>995900</v>
       </c>
       <c r="J47" s="3">
+        <v>958800</v>
+      </c>
+      <c r="K47" s="3">
         <v>920200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>870200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>813600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>797800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>740800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>774900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>846700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>893900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>908600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>926100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>914300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>959400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>934000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>909800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>838400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>797200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>819700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1127300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1147200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1464800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1429700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1371400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>480100</v>
+        <v>532200</v>
       </c>
       <c r="E48" s="3">
-        <v>457100</v>
+        <v>480500</v>
       </c>
       <c r="F48" s="3">
-        <v>447100</v>
+        <v>457400</v>
       </c>
       <c r="G48" s="3">
-        <v>440700</v>
+        <v>556300</v>
       </c>
       <c r="H48" s="3">
-        <v>408900</v>
+        <v>441100</v>
       </c>
       <c r="I48" s="3">
-        <v>399800</v>
+        <v>409200</v>
       </c>
       <c r="J48" s="3">
+        <v>400100</v>
+      </c>
+      <c r="K48" s="3">
         <v>376900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>352000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>335900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>326200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>306000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>302100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>309600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>306900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>279800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>272600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>257500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>268100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>228800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>221800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>186700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>163600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>153000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>150300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>156300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>162700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>154500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1067200</v>
+        <v>1102900</v>
       </c>
       <c r="E49" s="3">
-        <v>1046100</v>
+        <v>1068100</v>
       </c>
       <c r="F49" s="3">
-        <v>1045700</v>
+        <v>1047000</v>
       </c>
       <c r="G49" s="3">
-        <v>449700</v>
+        <v>1750100</v>
       </c>
       <c r="H49" s="3">
-        <v>410000</v>
+        <v>450100</v>
       </c>
       <c r="I49" s="3">
-        <v>374700</v>
+        <v>410300</v>
       </c>
       <c r="J49" s="3">
+        <v>375000</v>
+      </c>
+      <c r="K49" s="3">
         <v>310200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>285600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>263100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>242800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>220600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>226100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>234700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>239800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>234100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>233000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>218900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>209300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>190700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>178400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>156900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>143500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>139800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>131100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>244600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>136700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>130800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E52" s="3">
         <v>10400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>10600</v>
       </c>
       <c r="F52" s="3">
         <v>10600</v>
       </c>
       <c r="G52" s="3">
-        <v>9700</v>
+        <v>13400</v>
       </c>
       <c r="H52" s="3">
         <v>9700</v>
       </c>
       <c r="I52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>8200</v>
       </c>
       <c r="N52" s="3">
         <v>8200</v>
       </c>
       <c r="O52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P52" s="3">
         <v>12700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>25300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>25800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>19000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>20200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>22000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4368500</v>
+        <v>4527000</v>
       </c>
       <c r="E54" s="3">
-        <v>4488200</v>
+        <v>4372200</v>
       </c>
       <c r="F54" s="3">
-        <v>4066200</v>
+        <v>4492000</v>
       </c>
       <c r="G54" s="3">
-        <v>3490500</v>
+        <v>4069600</v>
       </c>
       <c r="H54" s="3">
-        <v>3402600</v>
+        <v>3493400</v>
       </c>
       <c r="I54" s="3">
-        <v>3242200</v>
+        <v>3405400</v>
       </c>
       <c r="J54" s="3">
+        <v>3244900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2939100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2765300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2523200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2426000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2224100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2289300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2425500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2547700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2539300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2564500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2421200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2326600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2186000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2104100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2320900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2265400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2442800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2353700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2402200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2536900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2500900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>235800</v>
+        <v>225200</v>
       </c>
       <c r="E57" s="3">
-        <v>273400</v>
+        <v>236000</v>
       </c>
       <c r="F57" s="3">
-        <v>264000</v>
+        <v>273600</v>
       </c>
       <c r="G57" s="3">
-        <v>270300</v>
+        <v>264200</v>
       </c>
       <c r="H57" s="3">
-        <v>266400</v>
+        <v>270500</v>
       </c>
       <c r="I57" s="3">
-        <v>228700</v>
+        <v>266600</v>
       </c>
       <c r="J57" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K57" s="3">
         <v>190200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>169100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>157100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>154700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>124200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>121100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>141800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>139800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>126500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>110000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>110100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>95400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>115000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>109100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>94500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>89000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>81000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>95100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>88500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>71500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>67700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4713,23 +4847,23 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8200</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V58" s="3">
         <v>8400</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>11</v>
@@ -4740,8 +4874,8 @@
       <c r="Y58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4758,225 +4892,234 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>586000</v>
+        <v>604900</v>
       </c>
       <c r="E59" s="3">
-        <v>627900</v>
+        <v>586500</v>
       </c>
       <c r="F59" s="3">
-        <v>582100</v>
+        <v>628400</v>
       </c>
       <c r="G59" s="3">
-        <v>449500</v>
+        <v>582600</v>
       </c>
       <c r="H59" s="3">
-        <v>309600</v>
+        <v>449900</v>
       </c>
       <c r="I59" s="3">
-        <v>327700</v>
+        <v>309800</v>
       </c>
       <c r="J59" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K59" s="3">
         <v>251800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>259000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>211000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>197000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>215200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>220900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>205800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>226300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>120100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>134400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>66100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>62200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>80900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>74900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>65600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>57600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>66900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>821800</v>
+        <v>830100</v>
       </c>
       <c r="E60" s="3">
-        <v>901300</v>
+        <v>822400</v>
       </c>
       <c r="F60" s="3">
-        <v>846000</v>
+        <v>902000</v>
       </c>
       <c r="G60" s="3">
-        <v>719800</v>
+        <v>846700</v>
       </c>
       <c r="H60" s="3">
-        <v>575900</v>
+        <v>720400</v>
       </c>
       <c r="I60" s="3">
-        <v>556400</v>
+        <v>576400</v>
       </c>
       <c r="J60" s="3">
+        <v>556900</v>
+      </c>
+      <c r="K60" s="3">
         <v>442000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>428200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>351700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>339400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>342000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>362800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>355200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>374200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>325300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>294800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>238600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>229800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>181100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>171400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>154200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>169900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>155900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>160600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>146100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>138400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22400</v>
+        <v>24100</v>
       </c>
       <c r="E61" s="3">
         <v>22500</v>
       </c>
       <c r="F61" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G61" s="3">
         <v>20200</v>
       </c>
-      <c r="G61" s="3">
-        <v>19200</v>
-      </c>
       <c r="H61" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I61" s="3">
         <v>16800</v>
       </c>
-      <c r="I61" s="3">
-        <v>17400</v>
-      </c>
       <c r="J61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K61" s="3">
         <v>17200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4984,20 +5127,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>18400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>21500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -5025,97 +5168,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>222300</v>
+        <v>221500</v>
       </c>
       <c r="E62" s="3">
-        <v>216200</v>
+        <v>222500</v>
       </c>
       <c r="F62" s="3">
-        <v>219500</v>
+        <v>216400</v>
       </c>
       <c r="G62" s="3">
-        <v>72500</v>
+        <v>219700</v>
       </c>
       <c r="H62" s="3">
-        <v>60300</v>
+        <v>72600</v>
       </c>
       <c r="I62" s="3">
-        <v>53700</v>
+        <v>60400</v>
       </c>
       <c r="J62" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K62" s="3">
         <v>49600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>14500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>17100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1066500</v>
+        <v>1075600</v>
       </c>
       <c r="E66" s="3">
-        <v>1140000</v>
+        <v>1067400</v>
       </c>
       <c r="F66" s="3">
-        <v>1085700</v>
+        <v>1141000</v>
       </c>
       <c r="G66" s="3">
-        <v>811600</v>
+        <v>1086600</v>
       </c>
       <c r="H66" s="3">
-        <v>653100</v>
+        <v>812300</v>
       </c>
       <c r="I66" s="3">
-        <v>627600</v>
+        <v>653600</v>
       </c>
       <c r="J66" s="3">
+        <v>628100</v>
+      </c>
+      <c r="K66" s="3">
         <v>508800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>482900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>417000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>391900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>374200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>377600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>402300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>394400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>416200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>360600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>330300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>274800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>244200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>198000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>187300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>169900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>185900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>171700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>175100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>162600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>155400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,88 +6030,91 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3287900</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="3">
-        <v>2930100</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>3290600</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3">
-        <v>2875100</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2932600</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>2877500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
         <v>2569200</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2208700</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1918200</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2162500</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2267800</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2409100</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2266900</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2370200</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2350700</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2196500</v>
-      </c>
-      <c r="AC72" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>11</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3302000</v>
+        <v>3451400</v>
       </c>
       <c r="E76" s="3">
-        <v>3348200</v>
+        <v>3304700</v>
       </c>
       <c r="F76" s="3">
-        <v>2980500</v>
+        <v>3351000</v>
       </c>
       <c r="G76" s="3">
-        <v>2678900</v>
+        <v>2983000</v>
       </c>
       <c r="H76" s="3">
-        <v>2749500</v>
+        <v>2681100</v>
       </c>
       <c r="I76" s="3">
-        <v>2614600</v>
+        <v>2751800</v>
       </c>
       <c r="J76" s="3">
+        <v>2616800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2430300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2282400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2106100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2034200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1849900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1911700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2023200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2153300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2123100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2203900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2090900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2051900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1941800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1906100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2133700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2095500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2256900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2181900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2227100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2374300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2345400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2240700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163900</v>
+        <v>140600</v>
       </c>
       <c r="E81" s="3">
-        <v>412400</v>
+        <v>164000</v>
       </c>
       <c r="F81" s="3">
-        <v>256500</v>
+        <v>412700</v>
       </c>
       <c r="G81" s="3">
-        <v>-163100</v>
+        <v>256800</v>
       </c>
       <c r="H81" s="3">
-        <v>173900</v>
+        <v>-163300</v>
       </c>
       <c r="I81" s="3">
-        <v>154500</v>
+        <v>174100</v>
       </c>
       <c r="J81" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K81" s="3">
         <v>146200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>80900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>122000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>62400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>143100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>59100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>65200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>271800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>41800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>173400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>47400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>72200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47500</v>
+        <v>47300</v>
       </c>
       <c r="E83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F83" s="3">
         <v>45300</v>
       </c>
-      <c r="F83" s="3">
-        <v>41500</v>
-      </c>
       <c r="G83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="H83" s="3">
         <v>34200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>17200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>17800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>165200</v>
+        <v>225300</v>
       </c>
       <c r="E89" s="3">
-        <v>228000</v>
+        <v>165300</v>
       </c>
       <c r="F89" s="3">
-        <v>112500</v>
+        <v>228200</v>
       </c>
       <c r="G89" s="3">
-        <v>167600</v>
+        <v>112600</v>
       </c>
       <c r="H89" s="3">
-        <v>143700</v>
+        <v>167700</v>
       </c>
       <c r="I89" s="3">
-        <v>163200</v>
+        <v>143800</v>
       </c>
       <c r="J89" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K89" s="3">
         <v>69700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>129600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>118000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>92000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>244400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>156800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>110000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>33700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>49200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>9800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>39200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>34000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-86700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>50700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-85800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-72100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-369400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-35100</v>
+        <v>-369700</v>
       </c>
       <c r="H94" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-12600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-97600</v>
-      </c>
       <c r="J94" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>469800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>266200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,16 +7887,17 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-133900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -7672,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-131900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-132000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7684,11 +7918,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-102500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7696,32 +7930,32 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-58100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-58100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-7700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7741,10 +7975,13 @@
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-191100</v>
+        <v>-57200</v>
       </c>
       <c r="E100" s="3">
+        <v>-191300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-134900</v>
-      </c>
       <c r="I100" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-61700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-183500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-57200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-50100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-452700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-83400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-111500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-150100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-87700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-27800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-13200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-36800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>8800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>9600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-38600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>6300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89200</v>
       </c>
-      <c r="E102" s="3">
-        <v>166200</v>
-      </c>
       <c r="F102" s="3">
-        <v>-272000</v>
+        <v>166300</v>
       </c>
       <c r="G102" s="3">
-        <v>128100</v>
+        <v>-272300</v>
       </c>
       <c r="H102" s="3">
+        <v>128300</v>
+      </c>
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>63800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>63900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>115100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>31800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>24000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-456100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-98700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-104700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>349200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>161400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>17800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-8300</v>
       </c>
     </row>
